--- a/resultados/Venda de Drone/Com SPAD 2 Drones/vel05/field_100ha_100ha_6%_6m_0_TSP/Planilha_Unificada.xlsx
+++ b/resultados/Venda de Drone/Com SPAD 2 Drones/vel05/field_100ha_100ha_6%_6m_0_TSP/Planilha_Unificada.xlsx
@@ -7352,28 +7352,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>14409.68683576611</v>
+        <v>14720.40273554895</v>
       </c>
       <c r="AB2" t="n">
-        <v>19715.96923921332</v>
+        <v>20141.10444111426</v>
       </c>
       <c r="AC2" t="n">
-        <v>17834.30480655867</v>
+        <v>18218.86570147118</v>
       </c>
       <c r="AD2" t="n">
-        <v>14409686.83576611</v>
+        <v>14720402.73554895</v>
       </c>
       <c r="AE2" t="n">
-        <v>19715969.23921332</v>
+        <v>20141104.44111426</v>
       </c>
       <c r="AF2" t="n">
-        <v>4.305049455684169e-07</v>
+        <v>6.206436601711496e-07</v>
       </c>
       <c r="AG2" t="n">
-        <v>71</v>
+        <v>70.60625</v>
       </c>
       <c r="AH2" t="n">
-        <v>17834304.80655867</v>
+        <v>18218865.70147118</v>
       </c>
     </row>
     <row r="3">
@@ -7458,28 +7458,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>4841.272949023428</v>
+        <v>5005.306937137614</v>
       </c>
       <c r="AB3" t="n">
-        <v>6624.043230742888</v>
+        <v>6848.481769949549</v>
       </c>
       <c r="AC3" t="n">
-        <v>5991.853841703602</v>
+        <v>6194.872281729838</v>
       </c>
       <c r="AD3" t="n">
-        <v>4841272.949023427</v>
+        <v>5005306.937137614</v>
       </c>
       <c r="AE3" t="n">
-        <v>6624043.230742889</v>
+        <v>6848481.769949549</v>
       </c>
       <c r="AF3" t="n">
-        <v>8.102421103649568e-07</v>
+        <v>1.168097217414627e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>38</v>
+        <v>37.51041666666666</v>
       </c>
       <c r="AH3" t="n">
-        <v>5991853.841703601</v>
+        <v>6194872.281729838</v>
       </c>
     </row>
     <row r="4">
@@ -7564,28 +7564,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>3741.164954008657</v>
+        <v>3879.213587390373</v>
       </c>
       <c r="AB4" t="n">
-        <v>5118.826938624168</v>
+        <v>5307.711169092915</v>
       </c>
       <c r="AC4" t="n">
-        <v>4630.293279920412</v>
+        <v>4801.1506645339</v>
       </c>
       <c r="AD4" t="n">
-        <v>3741164.954008657</v>
+        <v>3879213.587390373</v>
       </c>
       <c r="AE4" t="n">
-        <v>5118826.938624168</v>
+        <v>5307711.169092915</v>
       </c>
       <c r="AF4" t="n">
-        <v>9.495617386326079e-07</v>
+        <v>1.368949367690279e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>33</v>
+        <v>32.00833333333333</v>
       </c>
       <c r="AH4" t="n">
-        <v>4630293.279920412</v>
+        <v>4801150.6645339</v>
       </c>
     </row>
     <row r="5">
@@ -7670,28 +7670,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>3304.703485551791</v>
+        <v>3434.204002484044</v>
       </c>
       <c r="AB5" t="n">
-        <v>4521.641102160433</v>
+        <v>4698.829422586744</v>
       </c>
       <c r="AC5" t="n">
-        <v>4090.102021533215</v>
+        <v>4250.379737343402</v>
       </c>
       <c r="AD5" t="n">
-        <v>3304703.485551791</v>
+        <v>3434204.002484044</v>
       </c>
       <c r="AE5" t="n">
-        <v>4521641.102160432</v>
+        <v>4698829.422586744</v>
       </c>
       <c r="AF5" t="n">
-        <v>1.023525143377842e-06</v>
+        <v>1.475579776265939e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>30</v>
+        <v>29.69375</v>
       </c>
       <c r="AH5" t="n">
-        <v>4090102.021533215</v>
+        <v>4250379.737343402</v>
       </c>
     </row>
     <row r="6">
@@ -7776,28 +7776,28 @@
         <v>10</v>
       </c>
       <c r="AA6" t="n">
-        <v>3077.517968846556</v>
+        <v>3206.762552723645</v>
       </c>
       <c r="AB6" t="n">
-        <v>4210.795855486683</v>
+        <v>4387.633997015949</v>
       </c>
       <c r="AC6" t="n">
-        <v>3808.923408927976</v>
+        <v>3968.884366423571</v>
       </c>
       <c r="AD6" t="n">
-        <v>3077517.968846556</v>
+        <v>3206762.552723645</v>
       </c>
       <c r="AE6" t="n">
-        <v>4210795.855486683</v>
+        <v>4387633.997015948</v>
       </c>
       <c r="AF6" t="n">
-        <v>1.06889520033202e-06</v>
+        <v>1.540988172847853e-06</v>
       </c>
       <c r="AG6" t="n">
-        <v>29</v>
+        <v>28.43541666666667</v>
       </c>
       <c r="AH6" t="n">
-        <v>3808923.408927976</v>
+        <v>3968884.366423571</v>
       </c>
     </row>
     <row r="7">
@@ -7882,28 +7882,28 @@
         <v>10</v>
       </c>
       <c r="AA7" t="n">
-        <v>2926.81015715875</v>
+        <v>3047.677306295519</v>
       </c>
       <c r="AB7" t="n">
-        <v>4004.590778776009</v>
+        <v>4169.966544507232</v>
       </c>
       <c r="AC7" t="n">
-        <v>3622.398255327933</v>
+        <v>3771.990790084107</v>
       </c>
       <c r="AD7" t="n">
-        <v>2926810.157158751</v>
+        <v>3047677.306295519</v>
       </c>
       <c r="AE7" t="n">
-        <v>4004590.778776009</v>
+        <v>4169966.544507232</v>
       </c>
       <c r="AF7" t="n">
-        <v>1.10055212110069e-06</v>
+        <v>1.586626828983786e-06</v>
       </c>
       <c r="AG7" t="n">
-        <v>28</v>
+        <v>27.61666666666666</v>
       </c>
       <c r="AH7" t="n">
-        <v>3622398.255327933</v>
+        <v>3771990.790084107</v>
       </c>
     </row>
     <row r="8">
@@ -7988,28 +7988,28 @@
         <v>10</v>
       </c>
       <c r="AA8" t="n">
-        <v>2825.376730519843</v>
+        <v>2937.610601369679</v>
       </c>
       <c r="AB8" t="n">
-        <v>3865.80508952169</v>
+        <v>4019.368423027374</v>
       </c>
       <c r="AC8" t="n">
-        <v>3496.858077469114</v>
+        <v>3635.765541952502</v>
       </c>
       <c r="AD8" t="n">
-        <v>2825376.730519843</v>
+        <v>2937610.601369679</v>
       </c>
       <c r="AE8" t="n">
-        <v>3865805.08952169</v>
+        <v>4019368.423027374</v>
       </c>
       <c r="AF8" t="n">
-        <v>1.124039513929059e-06</v>
+        <v>1.620487767407221e-06</v>
       </c>
       <c r="AG8" t="n">
-        <v>28</v>
+        <v>27.0375</v>
       </c>
       <c r="AH8" t="n">
-        <v>3496858.077469114</v>
+        <v>3635765.541952502</v>
       </c>
     </row>
     <row r="9">
@@ -8094,28 +8094,28 @@
         <v>10</v>
       </c>
       <c r="AA9" t="n">
-        <v>2744.678442171757</v>
+        <v>2865.460250453955</v>
       </c>
       <c r="AB9" t="n">
-        <v>3755.390131246614</v>
+        <v>3920.64912985564</v>
       </c>
       <c r="AC9" t="n">
-        <v>3396.980967843448</v>
+        <v>3546.467879567683</v>
       </c>
       <c r="AD9" t="n">
-        <v>2744678.442171757</v>
+        <v>2865460.250453955</v>
       </c>
       <c r="AE9" t="n">
-        <v>3755390.131246614</v>
+        <v>3920649.12985564</v>
       </c>
       <c r="AF9" t="n">
-        <v>1.140670338664674e-06</v>
+        <v>1.644463835607665e-06</v>
       </c>
       <c r="AG9" t="n">
-        <v>27</v>
+        <v>26.64375</v>
       </c>
       <c r="AH9" t="n">
-        <v>3396980.967843448</v>
+        <v>3546467.879567683</v>
       </c>
     </row>
     <row r="10">
@@ -8200,28 +8200,28 @@
         <v>10</v>
       </c>
       <c r="AA10" t="n">
-        <v>2684.933159395844</v>
+        <v>2797.08168939111</v>
       </c>
       <c r="AB10" t="n">
-        <v>3673.643999576752</v>
+        <v>3827.090565960239</v>
       </c>
       <c r="AC10" t="n">
-        <v>3323.036572248745</v>
+        <v>3461.838413700194</v>
       </c>
       <c r="AD10" t="n">
-        <v>2684933.159395844</v>
+        <v>2797081.68939111</v>
       </c>
       <c r="AE10" t="n">
-        <v>3673643.999576753</v>
+        <v>3827090.565960239</v>
       </c>
       <c r="AF10" t="n">
-        <v>1.154383474850181e-06</v>
+        <v>1.664233576053645e-06</v>
       </c>
       <c r="AG10" t="n">
-        <v>27</v>
+        <v>26.32708333333333</v>
       </c>
       <c r="AH10" t="n">
-        <v>3323036.572248745</v>
+        <v>3461838.413700194</v>
       </c>
     </row>
     <row r="11">
@@ -8306,28 +8306,28 @@
         <v>10</v>
       </c>
       <c r="AA11" t="n">
-        <v>2634.926815202883</v>
+        <v>2747.075345198148</v>
       </c>
       <c r="AB11" t="n">
-        <v>3605.223113327733</v>
+        <v>3758.66967971122</v>
       </c>
       <c r="AC11" t="n">
-        <v>3261.145679354017</v>
+        <v>3399.947520805466</v>
       </c>
       <c r="AD11" t="n">
-        <v>2634926.815202883</v>
+        <v>2747075.345198148</v>
       </c>
       <c r="AE11" t="n">
-        <v>3605223.113327733</v>
+        <v>3758669.67971122</v>
       </c>
       <c r="AF11" t="n">
-        <v>1.165324806913085e-06</v>
+        <v>1.680007305132885e-06</v>
       </c>
       <c r="AG11" t="n">
-        <v>27</v>
+        <v>26.08333333333333</v>
       </c>
       <c r="AH11" t="n">
-        <v>3261145.679354018</v>
+        <v>3399947.520805466</v>
       </c>
     </row>
     <row r="12">
@@ -8412,28 +8412,28 @@
         <v>10</v>
       </c>
       <c r="AA12" t="n">
-        <v>2584.638108825937</v>
+        <v>2705.334576253563</v>
       </c>
       <c r="AB12" t="n">
-        <v>3536.415886681646</v>
+        <v>3701.558118168474</v>
       </c>
       <c r="AC12" t="n">
-        <v>3198.905317847487</v>
+        <v>3348.286606539783</v>
       </c>
       <c r="AD12" t="n">
-        <v>2584638.108825937</v>
+        <v>2705334.576253563</v>
       </c>
       <c r="AE12" t="n">
-        <v>3536415.886681647</v>
+        <v>3701558.118168474</v>
       </c>
       <c r="AF12" t="n">
-        <v>1.174807294700936e-06</v>
+        <v>1.693677870334893e-06</v>
       </c>
       <c r="AG12" t="n">
-        <v>26</v>
+        <v>25.87083333333334</v>
       </c>
       <c r="AH12" t="n">
-        <v>3198905.317847487</v>
+        <v>3348286.606539784</v>
       </c>
     </row>
     <row r="13">
@@ -8518,28 +8518,28 @@
         <v>10</v>
       </c>
       <c r="AA13" t="n">
-        <v>2549.630876627486</v>
+        <v>2661.864657968772</v>
       </c>
       <c r="AB13" t="n">
-        <v>3488.517447177637</v>
+        <v>3642.080658213774</v>
       </c>
       <c r="AC13" t="n">
-        <v>3155.57823818386</v>
+        <v>3294.485591886022</v>
       </c>
       <c r="AD13" t="n">
-        <v>2549630.876627486</v>
+        <v>2661864.657968772</v>
       </c>
       <c r="AE13" t="n">
-        <v>3488517.447177637</v>
+        <v>3642080.658213774</v>
       </c>
       <c r="AF13" t="n">
-        <v>1.182101516076206e-06</v>
+        <v>1.704193689721052e-06</v>
       </c>
       <c r="AG13" t="n">
-        <v>26</v>
+        <v>25.71041666666666</v>
       </c>
       <c r="AH13" t="n">
-        <v>3155578.23818386</v>
+        <v>3294485.591886022</v>
       </c>
     </row>
     <row r="14">
@@ -8624,28 +8624,28 @@
         <v>10</v>
       </c>
       <c r="AA14" t="n">
-        <v>2516.127506393472</v>
+        <v>2628.361287734758</v>
       </c>
       <c r="AB14" t="n">
-        <v>3442.676657959079</v>
+        <v>3596.239868995215</v>
       </c>
       <c r="AC14" t="n">
-        <v>3114.112429550371</v>
+        <v>3253.019783252532</v>
       </c>
       <c r="AD14" t="n">
-        <v>2516127.506393472</v>
+        <v>2628361.287734758</v>
       </c>
       <c r="AE14" t="n">
-        <v>3442676.657959079</v>
+        <v>3596239.868995215</v>
       </c>
       <c r="AF14" t="n">
-        <v>1.188520430886443e-06</v>
+        <v>1.713447610780873e-06</v>
       </c>
       <c r="AG14" t="n">
-        <v>26</v>
+        <v>25.57083333333333</v>
       </c>
       <c r="AH14" t="n">
-        <v>3114112.429550371</v>
+        <v>3253019.783252532</v>
       </c>
     </row>
     <row r="15">
@@ -8730,28 +8730,28 @@
         <v>10</v>
       </c>
       <c r="AA15" t="n">
-        <v>2485.458316719968</v>
+        <v>2597.52150586066</v>
       </c>
       <c r="AB15" t="n">
-        <v>3400.71371961863</v>
+        <v>3554.043518879919</v>
       </c>
       <c r="AC15" t="n">
-        <v>3076.154375149782</v>
+        <v>3214.850593569293</v>
       </c>
       <c r="AD15" t="n">
-        <v>2485458.316719967</v>
+        <v>2597521.50586066</v>
       </c>
       <c r="AE15" t="n">
-        <v>3400713.71961863</v>
+        <v>3554043.518879919</v>
       </c>
       <c r="AF15" t="n">
-        <v>1.194501692414164e-06</v>
+        <v>1.722070582677524e-06</v>
       </c>
       <c r="AG15" t="n">
-        <v>26</v>
+        <v>25.44375</v>
       </c>
       <c r="AH15" t="n">
-        <v>3076154.375149782</v>
+        <v>3214850.593569293</v>
       </c>
     </row>
     <row r="16">
@@ -8836,28 +8836,28 @@
         <v>10</v>
       </c>
       <c r="AA16" t="n">
-        <v>2456.297270536385</v>
+        <v>2568.360459677078</v>
       </c>
       <c r="AB16" t="n">
-        <v>3360.81428973569</v>
+        <v>3514.144088996979</v>
       </c>
       <c r="AC16" t="n">
-        <v>3040.06289085567</v>
+        <v>3178.75910927518</v>
       </c>
       <c r="AD16" t="n">
-        <v>2456297.270536385</v>
+        <v>2568360.459677078</v>
       </c>
       <c r="AE16" t="n">
-        <v>3360814.28973569</v>
+        <v>3514144.088996978</v>
       </c>
       <c r="AF16" t="n">
-        <v>1.199315878521842e-06</v>
+        <v>1.72901102347239e-06</v>
       </c>
       <c r="AG16" t="n">
-        <v>26</v>
+        <v>25.34166666666667</v>
       </c>
       <c r="AH16" t="n">
-        <v>3040062.89085567</v>
+        <v>3178759.10927518</v>
       </c>
     </row>
     <row r="17">
@@ -8942,28 +8942,28 @@
         <v>10</v>
       </c>
       <c r="AA17" t="n">
-        <v>2430.910350507337</v>
+        <v>2542.973539648031</v>
       </c>
       <c r="AB17" t="n">
-        <v>3326.078785760078</v>
+        <v>3479.408585021367</v>
       </c>
       <c r="AC17" t="n">
-        <v>3008.642494627905</v>
+        <v>3147.338713047416</v>
       </c>
       <c r="AD17" t="n">
-        <v>2430910.350507337</v>
+        <v>2542973.53964803</v>
       </c>
       <c r="AE17" t="n">
-        <v>3326078.785760078</v>
+        <v>3479408.585021367</v>
       </c>
       <c r="AF17" t="n">
-        <v>1.203546526919498e-06</v>
+        <v>1.735110198716362e-06</v>
       </c>
       <c r="AG17" t="n">
-        <v>26</v>
+        <v>25.25416666666667</v>
       </c>
       <c r="AH17" t="n">
-        <v>3008642.494627905</v>
+        <v>3147338.713047415</v>
       </c>
     </row>
     <row r="18">
@@ -9048,28 +9048,28 @@
         <v>10</v>
       </c>
       <c r="AA18" t="n">
-        <v>2408.411509427822</v>
+        <v>2520.474698568516</v>
       </c>
       <c r="AB18" t="n">
-        <v>3295.294878816268</v>
+        <v>3448.624678077557</v>
       </c>
       <c r="AC18" t="n">
-        <v>2980.796560557329</v>
+        <v>3119.492778976839</v>
       </c>
       <c r="AD18" t="n">
-        <v>2408411.509427822</v>
+        <v>2520474.698568515</v>
       </c>
       <c r="AE18" t="n">
-        <v>3295294.878816268</v>
+        <v>3448624.678077557</v>
       </c>
       <c r="AF18" t="n">
-        <v>1.206901868752123e-06</v>
+        <v>1.739947475633996e-06</v>
       </c>
       <c r="AG18" t="n">
-        <v>26</v>
+        <v>25.18333333333333</v>
       </c>
       <c r="AH18" t="n">
-        <v>2980796.560557329</v>
+        <v>3119492.77897684</v>
       </c>
     </row>
     <row r="19">
@@ -9154,28 +9154,28 @@
         <v>10</v>
       </c>
       <c r="AA19" t="n">
-        <v>2384.379100623067</v>
+        <v>2496.44228976376</v>
       </c>
       <c r="AB19" t="n">
-        <v>3262.41267685455</v>
+        <v>3415.742476115839</v>
       </c>
       <c r="AC19" t="n">
-        <v>2951.052589800379</v>
+        <v>3089.74880821989</v>
       </c>
       <c r="AD19" t="n">
-        <v>2384379.100623067</v>
+        <v>2496442.28976376</v>
       </c>
       <c r="AE19" t="n">
-        <v>3262412.67685455</v>
+        <v>3415742.476115839</v>
       </c>
       <c r="AF19" t="n">
-        <v>1.210548979439757e-06</v>
+        <v>1.745205385327075e-06</v>
       </c>
       <c r="AG19" t="n">
-        <v>26</v>
+        <v>25.10625</v>
       </c>
       <c r="AH19" t="n">
-        <v>2951052.589800379</v>
+        <v>3089748.80821989</v>
       </c>
     </row>
     <row r="20">
@@ -9260,28 +9260,28 @@
         <v>10</v>
       </c>
       <c r="AA20" t="n">
-        <v>2361.651871181094</v>
+        <v>2465.252374235447</v>
       </c>
       <c r="AB20" t="n">
-        <v>3231.316278877442</v>
+        <v>3373.067057688039</v>
       </c>
       <c r="AC20" t="n">
-        <v>2922.923988402139</v>
+        <v>3051.146271831514</v>
       </c>
       <c r="AD20" t="n">
-        <v>2361651.871181094</v>
+        <v>2465252.374235447</v>
       </c>
       <c r="AE20" t="n">
-        <v>3231316.278877442</v>
+        <v>3373067.057688039</v>
       </c>
       <c r="AF20" t="n">
-        <v>1.213612552417371e-06</v>
+        <v>1.749622029469263e-06</v>
       </c>
       <c r="AG20" t="n">
-        <v>26</v>
+        <v>25.04375</v>
       </c>
       <c r="AH20" t="n">
-        <v>2922923.988402138</v>
+        <v>3051146.271831514</v>
       </c>
     </row>
     <row r="21">
@@ -9366,28 +9366,28 @@
         <v>10</v>
       </c>
       <c r="AA21" t="n">
-        <v>2334.604900631601</v>
+        <v>2446.753341118315</v>
       </c>
       <c r="AB21" t="n">
-        <v>3194.309420543497</v>
+        <v>3347.755864457436</v>
       </c>
       <c r="AC21" t="n">
-        <v>2889.449012688135</v>
+        <v>3028.250743358357</v>
       </c>
       <c r="AD21" t="n">
-        <v>2334604.900631601</v>
+        <v>2446753.341118315</v>
       </c>
       <c r="AE21" t="n">
-        <v>3194309.420543497</v>
+        <v>3347755.864457435</v>
       </c>
       <c r="AF21" t="n">
-        <v>1.216238472112468e-06</v>
+        <v>1.75340772444828e-06</v>
       </c>
       <c r="AG21" t="n">
-        <v>25</v>
+        <v>24.98958333333333</v>
       </c>
       <c r="AH21" t="n">
-        <v>2889449.012688135</v>
+        <v>3028250.743358357</v>
       </c>
     </row>
     <row r="22">
@@ -9472,28 +9472,28 @@
         <v>10</v>
       </c>
       <c r="AA22" t="n">
-        <v>2306.919601523229</v>
+        <v>2419.068042009942</v>
       </c>
       <c r="AB22" t="n">
-        <v>3156.429172914225</v>
+        <v>3309.875616828163</v>
       </c>
       <c r="AC22" t="n">
-        <v>2855.18400272734</v>
+        <v>2993.985733397563</v>
       </c>
       <c r="AD22" t="n">
-        <v>2306919.601523229</v>
+        <v>2419068.042009943</v>
       </c>
       <c r="AE22" t="n">
-        <v>3156429.172914225</v>
+        <v>3309875.616828163</v>
       </c>
       <c r="AF22" t="n">
-        <v>1.219156160662576e-06</v>
+        <v>1.757614052202744e-06</v>
       </c>
       <c r="AG22" t="n">
-        <v>25</v>
+        <v>24.93125</v>
       </c>
       <c r="AH22" t="n">
-        <v>2855184.00272734</v>
+        <v>2993985.733397563</v>
       </c>
     </row>
     <row r="23">
@@ -9578,28 +9578,28 @@
         <v>10</v>
       </c>
       <c r="AA23" t="n">
-        <v>2295.066228939151</v>
+        <v>2407.214669425865</v>
       </c>
       <c r="AB23" t="n">
-        <v>3140.210865610798</v>
+        <v>3293.657309524736</v>
       </c>
       <c r="AC23" t="n">
-        <v>2840.513547910416</v>
+        <v>2979.315278580638</v>
       </c>
       <c r="AD23" t="n">
-        <v>2295066.228939151</v>
+        <v>2407214.669425865</v>
       </c>
       <c r="AE23" t="n">
-        <v>3140210.865610798</v>
+        <v>3293657.309524736</v>
       </c>
       <c r="AF23" t="n">
-        <v>1.220323236082619e-06</v>
+        <v>1.75929658330453e-06</v>
       </c>
       <c r="AG23" t="n">
-        <v>25</v>
+        <v>24.90416666666667</v>
       </c>
       <c r="AH23" t="n">
-        <v>2840513.547910416</v>
+        <v>2979315.278580638</v>
       </c>
     </row>
     <row r="24">
@@ -9684,28 +9684,28 @@
         <v>10</v>
       </c>
       <c r="AA24" t="n">
-        <v>2268.024591207048</v>
+        <v>2380.173031693762</v>
       </c>
       <c r="AB24" t="n">
-        <v>3103.211303872872</v>
+        <v>3256.657747786811</v>
       </c>
       <c r="AC24" t="n">
-        <v>2807.045172415548</v>
+        <v>2945.84690308577</v>
       </c>
       <c r="AD24" t="n">
-        <v>2268024.591207048</v>
+        <v>2380173.031693762</v>
       </c>
       <c r="AE24" t="n">
-        <v>3103211.303872872</v>
+        <v>3256657.747786811</v>
       </c>
       <c r="AF24" t="n">
-        <v>1.223240924632727e-06</v>
+        <v>1.763502911058994e-06</v>
       </c>
       <c r="AG24" t="n">
-        <v>25</v>
+        <v>24.84583333333333</v>
       </c>
       <c r="AH24" t="n">
-        <v>2807045.172415548</v>
+        <v>2945846.903085771</v>
       </c>
     </row>
     <row r="25">
@@ -9790,28 +9790,28 @@
         <v>10</v>
       </c>
       <c r="AA25" t="n">
-        <v>2255.670699016276</v>
+        <v>2367.81913950299</v>
       </c>
       <c r="AB25" t="n">
-        <v>3086.3081635622</v>
+        <v>3239.754607476138</v>
       </c>
       <c r="AC25" t="n">
-        <v>2791.75524409242</v>
+        <v>2930.556974762643</v>
       </c>
       <c r="AD25" t="n">
-        <v>2255670.699016276</v>
+        <v>2367819.139502991</v>
       </c>
       <c r="AE25" t="n">
-        <v>3086308.1635622</v>
+        <v>3239754.607476138</v>
       </c>
       <c r="AF25" t="n">
-        <v>1.224845653335286e-06</v>
+        <v>1.765816391323949e-06</v>
       </c>
       <c r="AG25" t="n">
-        <v>25</v>
+        <v>24.81458333333333</v>
       </c>
       <c r="AH25" t="n">
-        <v>2791755.24409242</v>
+        <v>2930556.974762643</v>
       </c>
     </row>
     <row r="26">
@@ -9896,28 +9896,28 @@
         <v>10</v>
       </c>
       <c r="AA26" t="n">
-        <v>2239.553245805285</v>
+        <v>2351.701686291999</v>
       </c>
       <c r="AB26" t="n">
-        <v>3064.255553027068</v>
+        <v>3217.701996941006</v>
       </c>
       <c r="AC26" t="n">
-        <v>2771.807303755728</v>
+        <v>2910.609034425951</v>
       </c>
       <c r="AD26" t="n">
-        <v>2239553.245805285</v>
+        <v>2351701.686291999</v>
       </c>
       <c r="AE26" t="n">
-        <v>3064255.553027068</v>
+        <v>3217701.996941006</v>
       </c>
       <c r="AF26" t="n">
-        <v>1.225720959900318e-06</v>
+        <v>1.767078289650288e-06</v>
       </c>
       <c r="AG26" t="n">
-        <v>25</v>
+        <v>24.79583333333333</v>
       </c>
       <c r="AH26" t="n">
-        <v>2771807.303755728</v>
+        <v>2910609.034425951</v>
       </c>
     </row>
     <row r="27">
@@ -10002,28 +10002,28 @@
         <v>10</v>
       </c>
       <c r="AA27" t="n">
-        <v>2228.808100302937</v>
+        <v>2340.956540789651</v>
       </c>
       <c r="AB27" t="n">
-        <v>3049.553570908392</v>
+        <v>3203.00001482233</v>
       </c>
       <c r="AC27" t="n">
-        <v>2758.508458176098</v>
+        <v>2897.310188846321</v>
       </c>
       <c r="AD27" t="n">
-        <v>2228808.100302937</v>
+        <v>2340956.540789651</v>
       </c>
       <c r="AE27" t="n">
-        <v>3049553.570908392</v>
+        <v>3203000.01482233</v>
       </c>
       <c r="AF27" t="n">
-        <v>1.227471573030383e-06</v>
+        <v>1.769602086302966e-06</v>
       </c>
       <c r="AG27" t="n">
-        <v>25</v>
+        <v>24.76041666666667</v>
       </c>
       <c r="AH27" t="n">
-        <v>2758508.458176098</v>
+        <v>2897310.188846321</v>
       </c>
     </row>
     <row r="28">
@@ -10108,28 +10108,28 @@
         <v>10</v>
       </c>
       <c r="AA28" t="n">
-        <v>2234.216486560978</v>
+        <v>2346.364927047691</v>
       </c>
       <c r="AB28" t="n">
-        <v>3056.953563587804</v>
+        <v>3210.400007501742</v>
       </c>
       <c r="AC28" t="n">
-        <v>2765.202205940142</v>
+        <v>2904.003936610365</v>
       </c>
       <c r="AD28" t="n">
-        <v>2234216.486560978</v>
+        <v>2346364.927047691</v>
       </c>
       <c r="AE28" t="n">
-        <v>3056953.563587804</v>
+        <v>3210400.007501742</v>
       </c>
       <c r="AF28" t="n">
-        <v>1.227325688602878e-06</v>
+        <v>1.769391769915243e-06</v>
       </c>
       <c r="AG28" t="n">
-        <v>25</v>
+        <v>24.7625</v>
       </c>
       <c r="AH28" t="n">
-        <v>2765202.205940142</v>
+        <v>2904003.936610365</v>
       </c>
     </row>
     <row r="29">
@@ -10214,28 +10214,28 @@
         <v>10</v>
       </c>
       <c r="AA29" t="n">
-        <v>2239.256750575447</v>
+        <v>2351.405191062161</v>
       </c>
       <c r="AB29" t="n">
-        <v>3063.849875173158</v>
+        <v>3217.296319087096</v>
       </c>
       <c r="AC29" t="n">
-        <v>2771.440343226824</v>
+        <v>2910.242073897046</v>
       </c>
       <c r="AD29" t="n">
-        <v>2239256.750575447</v>
+        <v>2351405.191062161</v>
       </c>
       <c r="AE29" t="n">
-        <v>3063849.875173158</v>
+        <v>3217296.319087096</v>
       </c>
       <c r="AF29" t="n">
-        <v>1.227325688602878e-06</v>
+        <v>1.769391769915243e-06</v>
       </c>
       <c r="AG29" t="n">
-        <v>25</v>
+        <v>24.76458333333333</v>
       </c>
       <c r="AH29" t="n">
-        <v>2771440.343226823</v>
+        <v>2910242.073897046</v>
       </c>
     </row>
     <row r="30">
@@ -10320,28 +10320,28 @@
         <v>10</v>
       </c>
       <c r="AA30" t="n">
-        <v>2244.405640187581</v>
+        <v>2356.554080674295</v>
       </c>
       <c r="AB30" t="n">
-        <v>3070.894813093457</v>
+        <v>3224.341257007396</v>
       </c>
       <c r="AC30" t="n">
-        <v>2777.812922159642</v>
+        <v>2916.614652829865</v>
       </c>
       <c r="AD30" t="n">
-        <v>2244405.640187581</v>
+        <v>2356554.080674295</v>
       </c>
       <c r="AE30" t="n">
-        <v>3070894.813093457</v>
+        <v>3224341.257007396</v>
       </c>
       <c r="AF30" t="n">
-        <v>1.22820099516791e-06</v>
+        <v>1.770653668241582e-06</v>
       </c>
       <c r="AG30" t="n">
-        <v>25</v>
+        <v>24.74583333333333</v>
       </c>
       <c r="AH30" t="n">
-        <v>2777812.922159642</v>
+        <v>2916614.652829865</v>
       </c>
     </row>
     <row r="31">
@@ -10426,28 +10426,28 @@
         <v>10</v>
       </c>
       <c r="AA31" t="n">
-        <v>2253.672289197667</v>
+        <v>2365.820729684381</v>
       </c>
       <c r="AB31" t="n">
-        <v>3083.57385108476</v>
+        <v>3237.020294998698</v>
       </c>
       <c r="AC31" t="n">
-        <v>2789.281890560195</v>
+        <v>2928.083621230418</v>
       </c>
       <c r="AD31" t="n">
-        <v>2253672.289197668</v>
+        <v>2365820.729684381</v>
       </c>
       <c r="AE31" t="n">
-        <v>3083573.85108476</v>
+        <v>3237020.294998698</v>
       </c>
       <c r="AF31" t="n">
-        <v>1.22820099516791e-06</v>
+        <v>1.770653668241582e-06</v>
       </c>
       <c r="AG31" t="n">
-        <v>25</v>
+        <v>24.74583333333333</v>
       </c>
       <c r="AH31" t="n">
-        <v>2789281.890560195</v>
+        <v>2928083.621230417</v>
       </c>
     </row>
   </sheetData>
@@ -10723,28 +10723,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>8714.170557481142</v>
+        <v>8958.105158867085</v>
       </c>
       <c r="AB2" t="n">
-        <v>11923.11259881882</v>
+        <v>12256.87468207018</v>
       </c>
       <c r="AC2" t="n">
-        <v>10785.18746658073</v>
+        <v>11087.0957650446</v>
       </c>
       <c r="AD2" t="n">
-        <v>8714170.557481142</v>
+        <v>8958105.158867085</v>
       </c>
       <c r="AE2" t="n">
-        <v>11923112.59881882</v>
+        <v>12256874.68207018</v>
       </c>
       <c r="AF2" t="n">
-        <v>5.653290854436083e-07</v>
+        <v>8.276205140012245e-07</v>
       </c>
       <c r="AG2" t="n">
-        <v>56</v>
+        <v>55.61041666666667</v>
       </c>
       <c r="AH2" t="n">
-        <v>10785187.46658073</v>
+        <v>11087095.7650446</v>
       </c>
     </row>
     <row r="3">
@@ -10829,28 +10829,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>3814.795245524202</v>
+        <v>3966.052936459093</v>
       </c>
       <c r="AB3" t="n">
-        <v>5219.571151814945</v>
+        <v>5426.528597570442</v>
       </c>
       <c r="AC3" t="n">
-        <v>4721.42260679965</v>
+        <v>4908.628324398834</v>
       </c>
       <c r="AD3" t="n">
-        <v>3814795.245524202</v>
+        <v>3966052.936459092</v>
       </c>
       <c r="AE3" t="n">
-        <v>5219571.151814945</v>
+        <v>5426528.597570442</v>
       </c>
       <c r="AF3" t="n">
-        <v>9.140945730197371e-07</v>
+        <v>1.338200067620239e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>35</v>
+        <v>34.39583333333334</v>
       </c>
       <c r="AH3" t="n">
-        <v>4721422.60679965</v>
+        <v>4908628.324398833</v>
       </c>
     </row>
     <row r="4">
@@ -10935,28 +10935,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>3078.808558987012</v>
+        <v>3204.984660966037</v>
       </c>
       <c r="AB4" t="n">
-        <v>4212.561697853674</v>
+        <v>4385.201407078142</v>
       </c>
       <c r="AC4" t="n">
-        <v>3810.520721777836</v>
+        <v>3966.683939455268</v>
       </c>
       <c r="AD4" t="n">
-        <v>3078808.558987012</v>
+        <v>3204984.660966037</v>
       </c>
       <c r="AE4" t="n">
-        <v>4212561.697853673</v>
+        <v>4385201.407078141</v>
       </c>
       <c r="AF4" t="n">
-        <v>1.03935435436469e-06</v>
+        <v>1.521575675367441e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>31</v>
+        <v>30.25208333333333</v>
       </c>
       <c r="AH4" t="n">
-        <v>3810520.721777836</v>
+        <v>3966683.939455268</v>
       </c>
     </row>
     <row r="5">
@@ -11041,28 +11041,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>2769.495022299548</v>
+        <v>2895.50044256943</v>
       </c>
       <c r="AB5" t="n">
-        <v>3789.345271007704</v>
+        <v>3961.751445987777</v>
       </c>
       <c r="AC5" t="n">
-        <v>3427.695476722076</v>
+        <v>3583.64744833563</v>
       </c>
       <c r="AD5" t="n">
-        <v>2769495.022299548</v>
+        <v>2895500.44256943</v>
       </c>
       <c r="AE5" t="n">
-        <v>3789345.271007705</v>
+        <v>3961751.445987777</v>
       </c>
       <c r="AF5" t="n">
-        <v>1.105455299219015e-06</v>
+        <v>1.618344971985843e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>29</v>
+        <v>28.44166666666667</v>
       </c>
       <c r="AH5" t="n">
-        <v>3427695.476722077</v>
+        <v>3583647.44833563</v>
       </c>
     </row>
     <row r="6">
@@ -11147,28 +11147,28 @@
         <v>10</v>
       </c>
       <c r="AA6" t="n">
-        <v>2599.050259089071</v>
+        <v>2716.723596658521</v>
       </c>
       <c r="AB6" t="n">
-        <v>3556.135226490863</v>
+        <v>3717.141078334658</v>
       </c>
       <c r="AC6" t="n">
-        <v>3216.742671541578</v>
+        <v>3362.382350858528</v>
       </c>
       <c r="AD6" t="n">
-        <v>2599050.259089071</v>
+        <v>2716723.596658521</v>
       </c>
       <c r="AE6" t="n">
-        <v>3556135.226490863</v>
+        <v>3717141.078334658</v>
       </c>
       <c r="AF6" t="n">
-        <v>1.145749710808295e-06</v>
+        <v>1.677334474718979e-06</v>
       </c>
       <c r="AG6" t="n">
-        <v>28</v>
+        <v>27.44166666666667</v>
       </c>
       <c r="AH6" t="n">
-        <v>3216742.671541578</v>
+        <v>3362382.350858528</v>
       </c>
     </row>
     <row r="7">
@@ -11253,28 +11253,28 @@
         <v>10</v>
       </c>
       <c r="AA7" t="n">
-        <v>2483.61315686121</v>
+        <v>2601.37174577668</v>
       </c>
       <c r="AB7" t="n">
-        <v>3398.189090497169</v>
+        <v>3559.311586993615</v>
       </c>
       <c r="AC7" t="n">
-        <v>3073.870693088335</v>
+        <v>3219.615884655996</v>
       </c>
       <c r="AD7" t="n">
-        <v>2483613.156861209</v>
+        <v>2601371.74577668</v>
       </c>
       <c r="AE7" t="n">
-        <v>3398189.090497169</v>
+        <v>3559311.586993615</v>
       </c>
       <c r="AF7" t="n">
-        <v>1.173065398065448e-06</v>
+        <v>1.717323613275899e-06</v>
       </c>
       <c r="AG7" t="n">
-        <v>27</v>
+        <v>26.80208333333333</v>
       </c>
       <c r="AH7" t="n">
-        <v>3073870.693088335</v>
+        <v>3219615.884655996</v>
       </c>
     </row>
     <row r="8">
@@ -11359,28 +11359,28 @@
         <v>10</v>
       </c>
       <c r="AA8" t="n">
-        <v>2405.879299298841</v>
+        <v>2515.22055416786</v>
       </c>
       <c r="AB8" t="n">
-        <v>3291.830197204569</v>
+        <v>3441.435725912087</v>
       </c>
       <c r="AC8" t="n">
-        <v>2977.662543295939</v>
+        <v>3112.989930316285</v>
       </c>
       <c r="AD8" t="n">
-        <v>2405879.299298842</v>
+        <v>2515220.55416786</v>
       </c>
       <c r="AE8" t="n">
-        <v>3291830.197204569</v>
+        <v>3441435.725912088</v>
       </c>
       <c r="AF8" t="n">
-        <v>1.192835315362061e-06</v>
+        <v>1.746266028474554e-06</v>
       </c>
       <c r="AG8" t="n">
-        <v>27</v>
+        <v>26.35833333333333</v>
       </c>
       <c r="AH8" t="n">
-        <v>2977662.543295939</v>
+        <v>3112989.930316285</v>
       </c>
     </row>
     <row r="9">
@@ -11465,28 +11465,28 @@
         <v>10</v>
       </c>
       <c r="AA9" t="n">
-        <v>2344.590832610053</v>
+        <v>2453.932087479071</v>
       </c>
       <c r="AB9" t="n">
-        <v>3207.972613224642</v>
+        <v>3357.578141932161</v>
       </c>
       <c r="AC9" t="n">
-        <v>2901.808209436202</v>
+        <v>3037.135596456548</v>
       </c>
       <c r="AD9" t="n">
-        <v>2344590.832610053</v>
+        <v>2453932.087479072</v>
       </c>
       <c r="AE9" t="n">
-        <v>3207972.613224642</v>
+        <v>3357578.141932161</v>
       </c>
       <c r="AF9" t="n">
-        <v>1.207625024484718e-06</v>
+        <v>1.767917606256753e-06</v>
       </c>
       <c r="AG9" t="n">
-        <v>27</v>
+        <v>26.03333333333333</v>
       </c>
       <c r="AH9" t="n">
-        <v>2901808.209436202</v>
+        <v>3037135.596456548</v>
       </c>
     </row>
     <row r="10">
@@ -11571,28 +11571,28 @@
         <v>10</v>
       </c>
       <c r="AA10" t="n">
-        <v>2285.733359640799</v>
+        <v>2403.406607701698</v>
       </c>
       <c r="AB10" t="n">
-        <v>3127.441222099657</v>
+        <v>3288.446951473904</v>
       </c>
       <c r="AC10" t="n">
-        <v>2828.96262125367</v>
+        <v>2974.602189789394</v>
       </c>
       <c r="AD10" t="n">
-        <v>2285733.359640799</v>
+        <v>2403406.607701698</v>
       </c>
       <c r="AE10" t="n">
-        <v>3127441.222099657</v>
+        <v>3288446.951473904</v>
       </c>
       <c r="AF10" t="n">
-        <v>1.218792764026316e-06</v>
+        <v>1.784266756826986e-06</v>
       </c>
       <c r="AG10" t="n">
-        <v>26</v>
+        <v>25.79583333333333</v>
       </c>
       <c r="AH10" t="n">
-        <v>2828962.621253671</v>
+        <v>2974602.189789394</v>
       </c>
     </row>
     <row r="11">
@@ -11677,28 +11677,28 @@
         <v>10</v>
       </c>
       <c r="AA11" t="n">
-        <v>2238.678451246513</v>
+        <v>2348.104957461553</v>
       </c>
       <c r="AB11" t="n">
-        <v>3063.058620518544</v>
+        <v>3212.780793878712</v>
       </c>
       <c r="AC11" t="n">
-        <v>2770.724604805913</v>
+        <v>2906.157504076971</v>
       </c>
       <c r="AD11" t="n">
-        <v>2238678.451246514</v>
+        <v>2348104.957461553</v>
       </c>
       <c r="AE11" t="n">
-        <v>3063058.620518544</v>
+        <v>3212780.793878712</v>
       </c>
       <c r="AF11" t="n">
-        <v>1.229658672769493e-06</v>
+        <v>1.800174038462888e-06</v>
       </c>
       <c r="AG11" t="n">
-        <v>26</v>
+        <v>25.56875</v>
       </c>
       <c r="AH11" t="n">
-        <v>2770724.604805913</v>
+        <v>2906157.504076971</v>
       </c>
     </row>
     <row r="12">
@@ -11783,28 +11783,28 @@
         <v>10</v>
       </c>
       <c r="AA12" t="n">
-        <v>2202.789880568583</v>
+        <v>2312.045794583029</v>
       </c>
       <c r="AB12" t="n">
-        <v>3013.954294825001</v>
+        <v>3163.443056410322</v>
       </c>
       <c r="AC12" t="n">
-        <v>2726.30672703821</v>
+        <v>2861.528491026617</v>
       </c>
       <c r="AD12" t="n">
-        <v>2202789.880568583</v>
+        <v>2312045.79458303</v>
       </c>
       <c r="AE12" t="n">
-        <v>3013954.294825001</v>
+        <v>3163443.056410322</v>
       </c>
       <c r="AF12" t="n">
-        <v>1.236298950334767e-06</v>
+        <v>1.809895155018161e-06</v>
       </c>
       <c r="AG12" t="n">
-        <v>26</v>
+        <v>25.42916666666666</v>
       </c>
       <c r="AH12" t="n">
-        <v>2726306.72703821</v>
+        <v>2861528.491026617</v>
       </c>
     </row>
     <row r="13">
@@ -11889,28 +11889,28 @@
         <v>10</v>
       </c>
       <c r="AA13" t="n">
-        <v>2165.829157427552</v>
+        <v>2275.085071442001</v>
       </c>
       <c r="AB13" t="n">
-        <v>2963.383002831245</v>
+        <v>3112.87176441674</v>
       </c>
       <c r="AC13" t="n">
-        <v>2680.561888175198</v>
+        <v>2815.78365216365</v>
       </c>
       <c r="AD13" t="n">
-        <v>2165829.157427552</v>
+        <v>2275085.071442001</v>
       </c>
       <c r="AE13" t="n">
-        <v>2963383.002831245</v>
+        <v>3112871.76441674</v>
       </c>
       <c r="AF13" t="n">
-        <v>1.243693804896096e-06</v>
+        <v>1.820720943909261e-06</v>
       </c>
       <c r="AG13" t="n">
-        <v>26</v>
+        <v>25.27916666666667</v>
       </c>
       <c r="AH13" t="n">
-        <v>2680561.888175197</v>
+        <v>2815783.65216365</v>
       </c>
     </row>
     <row r="14">
@@ -11995,28 +11995,28 @@
         <v>10</v>
       </c>
       <c r="AA14" t="n">
-        <v>2131.11464589043</v>
+        <v>2240.370559904879</v>
       </c>
       <c r="AB14" t="n">
-        <v>2915.885076649995</v>
+        <v>3065.373838235486</v>
       </c>
       <c r="AC14" t="n">
-        <v>2637.597097404926</v>
+        <v>2772.818861393378</v>
       </c>
       <c r="AD14" t="n">
-        <v>2131114.64589043</v>
+        <v>2240370.559904879</v>
       </c>
       <c r="AE14" t="n">
-        <v>2915885.076649995</v>
+        <v>3065373.838235486</v>
       </c>
       <c r="AF14" t="n">
-        <v>1.249277674666895e-06</v>
+        <v>1.828895519194377e-06</v>
       </c>
       <c r="AG14" t="n">
-        <v>26</v>
+        <v>25.16875</v>
       </c>
       <c r="AH14" t="n">
-        <v>2637597.097404927</v>
+        <v>2772818.861393378</v>
       </c>
     </row>
     <row r="15">
@@ -12101,28 +12101,28 @@
         <v>10</v>
       </c>
       <c r="AA15" t="n">
-        <v>2098.528869456429</v>
+        <v>2199.538041625019</v>
       </c>
       <c r="AB15" t="n">
-        <v>2871.299779749998</v>
+        <v>3009.504985321408</v>
       </c>
       <c r="AC15" t="n">
-        <v>2597.266958665209</v>
+        <v>2722.282053388994</v>
       </c>
       <c r="AD15" t="n">
-        <v>2098528.869456429</v>
+        <v>2199538.041625019</v>
       </c>
       <c r="AE15" t="n">
-        <v>2871299.779749998</v>
+        <v>3009504.985321408</v>
       </c>
       <c r="AF15" t="n">
-        <v>1.25410696744164e-06</v>
+        <v>1.835965422143667e-06</v>
       </c>
       <c r="AG15" t="n">
-        <v>26</v>
+        <v>25.07083333333334</v>
       </c>
       <c r="AH15" t="n">
-        <v>2597266.958665209</v>
+        <v>2722282.053388995</v>
       </c>
     </row>
     <row r="16">
@@ -12207,28 +12207,28 @@
         <v>10</v>
       </c>
       <c r="AA16" t="n">
-        <v>2060.690112898312</v>
+        <v>2170.031278258779</v>
       </c>
       <c r="AB16" t="n">
-        <v>2819.527123699059</v>
+        <v>2969.132529937021</v>
       </c>
       <c r="AC16" t="n">
-        <v>2550.435412244392</v>
+        <v>2685.762688483509</v>
       </c>
       <c r="AD16" t="n">
-        <v>2060690.112898312</v>
+        <v>2170031.27825878</v>
       </c>
       <c r="AE16" t="n">
-        <v>2819527.123699059</v>
+        <v>2969132.529937021</v>
       </c>
       <c r="AF16" t="n">
-        <v>1.258030767821121e-06</v>
+        <v>1.841709718289965e-06</v>
       </c>
       <c r="AG16" t="n">
-        <v>25</v>
+        <v>24.99166666666666</v>
       </c>
       <c r="AH16" t="n">
-        <v>2550435.412244392</v>
+        <v>2685762.688483509</v>
       </c>
     </row>
     <row r="17">
@@ -12313,28 +12313,28 @@
         <v>10</v>
       </c>
       <c r="AA17" t="n">
-        <v>2025.437818886857</v>
+        <v>2134.778984247324</v>
       </c>
       <c r="AB17" t="n">
-        <v>2771.293379811136</v>
+        <v>2920.898786049098</v>
       </c>
       <c r="AC17" t="n">
-        <v>2506.805029176648</v>
+        <v>2642.132305415765</v>
       </c>
       <c r="AD17" t="n">
-        <v>2025437.818886857</v>
+        <v>2134778.984247325</v>
       </c>
       <c r="AE17" t="n">
-        <v>2771293.379811136</v>
+        <v>2920898.786049098</v>
       </c>
       <c r="AF17" t="n">
-        <v>1.262256398999023e-06</v>
+        <v>1.847895883370593e-06</v>
       </c>
       <c r="AG17" t="n">
-        <v>25</v>
+        <v>24.90833333333333</v>
       </c>
       <c r="AH17" t="n">
-        <v>2506805.029176648</v>
+        <v>2642132.305415765</v>
       </c>
     </row>
     <row r="18">
@@ -12419,28 +12419,28 @@
         <v>10</v>
       </c>
       <c r="AA18" t="n">
-        <v>2005.572517303103</v>
+        <v>2114.91368266357</v>
       </c>
       <c r="AB18" t="n">
-        <v>2744.112797788991</v>
+        <v>2893.718204026952</v>
       </c>
       <c r="AC18" t="n">
-        <v>2482.21852375451</v>
+        <v>2617.545799993627</v>
       </c>
       <c r="AD18" t="n">
-        <v>2005572.517303103</v>
+        <v>2114913.682663571</v>
       </c>
       <c r="AE18" t="n">
-        <v>2744112.797788991</v>
+        <v>2893718.204026952</v>
       </c>
       <c r="AF18" t="n">
-        <v>1.264369214587974e-06</v>
+        <v>1.850988965910907e-06</v>
       </c>
       <c r="AG18" t="n">
-        <v>25</v>
+        <v>24.86666666666666</v>
       </c>
       <c r="AH18" t="n">
-        <v>2482218.52375451</v>
+        <v>2617545.799993627</v>
       </c>
     </row>
     <row r="19">
@@ -12525,28 +12525,28 @@
         <v>10</v>
       </c>
       <c r="AA19" t="n">
-        <v>1989.448592130412</v>
+        <v>2098.78975749088</v>
       </c>
       <c r="AB19" t="n">
-        <v>2722.051332030341</v>
+        <v>2871.656738268302</v>
       </c>
       <c r="AC19" t="n">
-        <v>2462.262573324403</v>
+        <v>2597.589849563521</v>
       </c>
       <c r="AD19" t="n">
-        <v>1989448.592130412</v>
+        <v>2098789.75749088</v>
       </c>
       <c r="AE19" t="n">
-        <v>2722051.332030341</v>
+        <v>2871656.738268302</v>
       </c>
       <c r="AF19" t="n">
-        <v>1.266029283979292e-06</v>
+        <v>1.853419245049726e-06</v>
       </c>
       <c r="AG19" t="n">
-        <v>25</v>
+        <v>24.83541666666666</v>
       </c>
       <c r="AH19" t="n">
-        <v>2462262.573324403</v>
+        <v>2597589.84956352</v>
       </c>
     </row>
     <row r="20">
@@ -12631,28 +12631,28 @@
         <v>10</v>
       </c>
       <c r="AA20" t="n">
-        <v>1990.734575290501</v>
+        <v>2100.075740650969</v>
       </c>
       <c r="AB20" t="n">
-        <v>2723.810870923547</v>
+        <v>2873.416277161508</v>
       </c>
       <c r="AC20" t="n">
-        <v>2463.85418429517</v>
+        <v>2599.181460534287</v>
       </c>
       <c r="AD20" t="n">
-        <v>1990734.575290501</v>
+        <v>2100075.740650969</v>
       </c>
       <c r="AE20" t="n">
-        <v>2723810.870923547</v>
+        <v>2873416.277161508</v>
       </c>
       <c r="AF20" t="n">
-        <v>1.266783860975346e-06</v>
+        <v>1.854523917385552e-06</v>
       </c>
       <c r="AG20" t="n">
-        <v>25</v>
+        <v>24.82083333333334</v>
       </c>
       <c r="AH20" t="n">
-        <v>2463854.18429517</v>
+        <v>2599181.460534287</v>
       </c>
     </row>
     <row r="21">
@@ -12737,28 +12737,28 @@
         <v>10</v>
       </c>
       <c r="AA21" t="n">
-        <v>1996.916909921728</v>
+        <v>2106.258075282195</v>
       </c>
       <c r="AB21" t="n">
-        <v>2732.269813911345</v>
+        <v>2881.875220149308</v>
       </c>
       <c r="AC21" t="n">
-        <v>2471.505817636415</v>
+        <v>2606.833093875532</v>
       </c>
       <c r="AD21" t="n">
-        <v>1996916.909921728</v>
+        <v>2106258.075282196</v>
       </c>
       <c r="AE21" t="n">
-        <v>2732269.813911345</v>
+        <v>2881875.220149308</v>
       </c>
       <c r="AF21" t="n">
-        <v>1.266783860975346e-06</v>
+        <v>1.854523917385552e-06</v>
       </c>
       <c r="AG21" t="n">
-        <v>25</v>
+        <v>24.82083333333334</v>
       </c>
       <c r="AH21" t="n">
-        <v>2471505.817636415</v>
+        <v>2606833.093875532</v>
       </c>
     </row>
     <row r="22">
@@ -12843,28 +12843,28 @@
         <v>10</v>
       </c>
       <c r="AA22" t="n">
-        <v>2002.919130128457</v>
+        <v>2112.260295488924</v>
       </c>
       <c r="AB22" t="n">
-        <v>2740.482316397459</v>
+        <v>2890.08772263542</v>
       </c>
       <c r="AC22" t="n">
-        <v>2478.934530411573</v>
+        <v>2614.26180665069</v>
       </c>
       <c r="AD22" t="n">
-        <v>2002919.130128457</v>
+        <v>2112260.295488924</v>
       </c>
       <c r="AE22" t="n">
-        <v>2740482.316397459</v>
+        <v>2890087.72263542</v>
       </c>
       <c r="AF22" t="n">
-        <v>1.267689353370611e-06</v>
+        <v>1.855849524188544e-06</v>
       </c>
       <c r="AG22" t="n">
-        <v>25</v>
+        <v>24.80208333333333</v>
       </c>
       <c r="AH22" t="n">
-        <v>2478934.530411573</v>
+        <v>2614261.80665069</v>
       </c>
     </row>
   </sheetData>
@@ -13140,28 +13140,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>2876.218360268594</v>
+        <v>3016.029557484912</v>
       </c>
       <c r="AB2" t="n">
-        <v>3935.368850318339</v>
+        <v>4126.664698384418</v>
       </c>
       <c r="AC2" t="n">
-        <v>3559.782770568679</v>
+        <v>3732.821611380734</v>
       </c>
       <c r="AD2" t="n">
-        <v>2876218.360268594</v>
+        <v>3016029.557484912</v>
       </c>
       <c r="AE2" t="n">
-        <v>3935368.850318339</v>
+        <v>4126664.698384419</v>
       </c>
       <c r="AF2" t="n">
-        <v>9.84969263429262e-07</v>
+        <v>1.523869028152514e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>36</v>
+        <v>35.61666666666667</v>
       </c>
       <c r="AH2" t="n">
-        <v>3559782.770568679</v>
+        <v>3732821.611380734</v>
       </c>
     </row>
     <row r="3">
@@ -13246,28 +13246,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>1924.482838114775</v>
+        <v>2040.906828273802</v>
       </c>
       <c r="AB3" t="n">
-        <v>2633.162321299357</v>
+        <v>2792.458760898884</v>
       </c>
       <c r="AC3" t="n">
-        <v>2381.857005021075</v>
+        <v>2525.95041599918</v>
       </c>
       <c r="AD3" t="n">
-        <v>1924482.838114775</v>
+        <v>2040906.828273802</v>
       </c>
       <c r="AE3" t="n">
-        <v>2633162.321299357</v>
+        <v>2792458.760898884</v>
       </c>
       <c r="AF3" t="n">
-        <v>1.229148684180233e-06</v>
+        <v>1.901644731831971e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>29</v>
+        <v>28.54166666666667</v>
       </c>
       <c r="AH3" t="n">
-        <v>2381857.005021075</v>
+        <v>2525950.41599918</v>
       </c>
     </row>
     <row r="4">
@@ -13352,28 +13352,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>1680.464172209037</v>
+        <v>1789.120873633823</v>
       </c>
       <c r="AB4" t="n">
-        <v>2299.285217263366</v>
+        <v>2447.95410974811</v>
       </c>
       <c r="AC4" t="n">
-        <v>2079.84466319482</v>
+        <v>2214.324805238921</v>
       </c>
       <c r="AD4" t="n">
-        <v>1680464.172209037</v>
+        <v>1789120.873633823</v>
       </c>
       <c r="AE4" t="n">
-        <v>2299285.217263366</v>
+        <v>2447954.10974811</v>
       </c>
       <c r="AF4" t="n">
-        <v>1.312843285637635e-06</v>
+        <v>2.031130610955205e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>27</v>
+        <v>26.72291666666667</v>
       </c>
       <c r="AH4" t="n">
-        <v>2079844.66319482</v>
+        <v>2214324.805238921</v>
       </c>
     </row>
     <row r="5">
@@ -13458,28 +13458,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>1545.118997906215</v>
+        <v>1653.69035847643</v>
       </c>
       <c r="AB5" t="n">
-        <v>2114.099978774567</v>
+        <v>2262.652104137114</v>
       </c>
       <c r="AC5" t="n">
-        <v>1912.333243958278</v>
+        <v>2046.707762970441</v>
       </c>
       <c r="AD5" t="n">
-        <v>1545118.997906215</v>
+        <v>1653690.358476429</v>
       </c>
       <c r="AE5" t="n">
-        <v>2114099.978774567</v>
+        <v>2262652.104137114</v>
       </c>
       <c r="AF5" t="n">
-        <v>1.355785183769702e-06</v>
+        <v>2.097567027809179e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>26</v>
+        <v>25.87708333333333</v>
       </c>
       <c r="AH5" t="n">
-        <v>1912333.243958278</v>
+        <v>2046707.762970441</v>
       </c>
     </row>
     <row r="6">
@@ -13564,28 +13564,28 @@
         <v>10</v>
       </c>
       <c r="AA6" t="n">
-        <v>1463.120159945355</v>
+        <v>1563.92432128988</v>
       </c>
       <c r="AB6" t="n">
-        <v>2001.9055511431</v>
+        <v>2139.830251860414</v>
       </c>
       <c r="AC6" t="n">
-        <v>1810.84649503409</v>
+        <v>1935.607855893476</v>
       </c>
       <c r="AD6" t="n">
-        <v>1463120.159945355</v>
+        <v>1563924.32128988</v>
       </c>
       <c r="AE6" t="n">
-        <v>2001905.5511431</v>
+        <v>2139830.251860414</v>
       </c>
       <c r="AF6" t="n">
-        <v>1.379192728241692e-06</v>
+        <v>2.133781388368796e-06</v>
       </c>
       <c r="AG6" t="n">
-        <v>26</v>
+        <v>25.4375</v>
       </c>
       <c r="AH6" t="n">
-        <v>1810846.49503409</v>
+        <v>1935607.855893476</v>
       </c>
     </row>
     <row r="7">
@@ -13670,28 +13670,28 @@
         <v>10</v>
       </c>
       <c r="AA7" t="n">
-        <v>1449.299705405932</v>
+        <v>1550.103866750458</v>
       </c>
       <c r="AB7" t="n">
-        <v>1982.99579552684</v>
+        <v>2120.920496244154</v>
       </c>
       <c r="AC7" t="n">
-        <v>1793.741459953837</v>
+        <v>1918.502820813223</v>
       </c>
       <c r="AD7" t="n">
-        <v>1449299.705405932</v>
+        <v>1550103.866750458</v>
       </c>
       <c r="AE7" t="n">
-        <v>1982995.79552684</v>
+        <v>2120920.496244153</v>
       </c>
       <c r="AF7" t="n">
-        <v>1.384244716257229e-06</v>
+        <v>2.14159743741044e-06</v>
       </c>
       <c r="AG7" t="n">
-        <v>26</v>
+        <v>25.34375</v>
       </c>
       <c r="AH7" t="n">
-        <v>1793741.459953837</v>
+        <v>1918502.820813223</v>
       </c>
     </row>
     <row r="8">
@@ -13776,28 +13776,28 @@
         <v>10</v>
       </c>
       <c r="AA8" t="n">
-        <v>1459.330978848899</v>
+        <v>1560.135140193425</v>
       </c>
       <c r="AB8" t="n">
-        <v>1996.721026400058</v>
+        <v>2134.645727117372</v>
       </c>
       <c r="AC8" t="n">
-        <v>1806.156774055998</v>
+        <v>1930.918134915384</v>
       </c>
       <c r="AD8" t="n">
-        <v>1459330.978848899</v>
+        <v>1560135.140193425</v>
       </c>
       <c r="AE8" t="n">
-        <v>1996721.026400058</v>
+        <v>2134645.727117372</v>
       </c>
       <c r="AF8" t="n">
-        <v>1.384413115857747e-06</v>
+        <v>2.141857972378495e-06</v>
       </c>
       <c r="AG8" t="n">
-        <v>26</v>
+        <v>25.34166666666667</v>
       </c>
       <c r="AH8" t="n">
-        <v>1806156.774055998</v>
+        <v>1930918.134915384</v>
       </c>
     </row>
   </sheetData>
@@ -14073,28 +14073,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>4285.334054578065</v>
+        <v>4453.614238124109</v>
       </c>
       <c r="AB2" t="n">
-        <v>5863.383109069657</v>
+        <v>6093.631480195108</v>
       </c>
       <c r="AC2" t="n">
-        <v>5303.790054449706</v>
+        <v>5512.063844190553</v>
       </c>
       <c r="AD2" t="n">
-        <v>4285334.054578065</v>
+        <v>4453614.238124109</v>
       </c>
       <c r="AE2" t="n">
-        <v>5863383.109069657</v>
+        <v>6093631.480195108</v>
       </c>
       <c r="AF2" t="n">
-        <v>8.171121543716178e-07</v>
+        <v>1.234896670440374e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>42</v>
+        <v>41.07291666666666</v>
       </c>
       <c r="AH2" t="n">
-        <v>5303790.054449706</v>
+        <v>5512063.844190553</v>
       </c>
     </row>
     <row r="3">
@@ -14179,28 +14179,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>2524.688186277598</v>
+        <v>2652.775701410348</v>
       </c>
       <c r="AB3" t="n">
-        <v>3454.389757847081</v>
+        <v>3629.644746874072</v>
       </c>
       <c r="AC3" t="n">
-        <v>3124.7076476245</v>
+        <v>3283.236546470671</v>
       </c>
       <c r="AD3" t="n">
-        <v>2524688.186277598</v>
+        <v>2652775.701410348</v>
       </c>
       <c r="AE3" t="n">
-        <v>3454389.757847081</v>
+        <v>3629644.746874072</v>
       </c>
       <c r="AF3" t="n">
-        <v>1.104841315985914e-06</v>
+        <v>1.669740016932193e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>31</v>
+        <v>30.37708333333333</v>
       </c>
       <c r="AH3" t="n">
-        <v>3124707.6476245</v>
+        <v>3283236.546470671</v>
       </c>
     </row>
     <row r="4">
@@ -14285,28 +14285,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>2153.165520696442</v>
+        <v>2273.31682166347</v>
       </c>
       <c r="AB4" t="n">
-        <v>2946.05605637552</v>
+        <v>3110.45236706008</v>
       </c>
       <c r="AC4" t="n">
-        <v>2664.888601170684</v>
+        <v>2813.595158695064</v>
       </c>
       <c r="AD4" t="n">
-        <v>2153165.520696443</v>
+        <v>2273316.82166347</v>
       </c>
       <c r="AE4" t="n">
-        <v>2946056.05637552</v>
+        <v>3110452.36706008</v>
       </c>
       <c r="AF4" t="n">
-        <v>1.204563796970936e-06</v>
+        <v>1.820450000962673e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>28</v>
+        <v>27.8625</v>
       </c>
       <c r="AH4" t="n">
-        <v>2664888.601170684</v>
+        <v>2813595.158695064</v>
       </c>
     </row>
     <row r="5">
@@ -14391,28 +14391,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>1983.920157290125</v>
+        <v>2096.135333599978</v>
       </c>
       <c r="AB5" t="n">
-        <v>2714.487083584529</v>
+        <v>2868.024838395852</v>
       </c>
       <c r="AC5" t="n">
-        <v>2455.42024613377</v>
+        <v>2594.304573117495</v>
       </c>
       <c r="AD5" t="n">
-        <v>1983920.157290125</v>
+        <v>2096135.333599978</v>
       </c>
       <c r="AE5" t="n">
-        <v>2714487.083584528</v>
+        <v>2868024.838395853</v>
       </c>
       <c r="AF5" t="n">
-        <v>1.255149998956876e-06</v>
+        <v>1.896900622910282e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>27</v>
+        <v>26.74166666666667</v>
       </c>
       <c r="AH5" t="n">
-        <v>2455420.24613377</v>
+        <v>2594304.573117495</v>
       </c>
     </row>
     <row r="6">
@@ -14497,28 +14497,28 @@
         <v>10</v>
       </c>
       <c r="AA6" t="n">
-        <v>1883.691950911295</v>
+        <v>1987.885751217954</v>
       </c>
       <c r="AB6" t="n">
-        <v>2577.350429860619</v>
+        <v>2719.91298414624</v>
       </c>
       <c r="AC6" t="n">
-        <v>2331.371722168769</v>
+        <v>2460.328306361171</v>
       </c>
       <c r="AD6" t="n">
-        <v>1883691.950911295</v>
+        <v>1987885.751217954</v>
       </c>
       <c r="AE6" t="n">
-        <v>2577350.429860619</v>
+        <v>2719912.98414624</v>
       </c>
       <c r="AF6" t="n">
-        <v>1.285437279126802e-06</v>
+        <v>1.942673606751527e-06</v>
       </c>
       <c r="AG6" t="n">
-        <v>27</v>
+        <v>26.10833333333333</v>
       </c>
       <c r="AH6" t="n">
-        <v>2331371.722168769</v>
+        <v>2460328.306361171</v>
       </c>
     </row>
     <row r="7">
@@ -14603,28 +14603,28 @@
         <v>10</v>
       </c>
       <c r="AA7" t="n">
-        <v>1795.606898294681</v>
+        <v>1899.88594994736</v>
       </c>
       <c r="AB7" t="n">
-        <v>2456.828574832309</v>
+        <v>2599.507773770579</v>
       </c>
       <c r="AC7" t="n">
-        <v>2222.352303830874</v>
+        <v>2351.414400273989</v>
       </c>
       <c r="AD7" t="n">
-        <v>1795606.898294681</v>
+        <v>1899885.94994736</v>
       </c>
       <c r="AE7" t="n">
-        <v>2456828.574832309</v>
+        <v>2599507.773770579</v>
       </c>
       <c r="AF7" t="n">
-        <v>1.307025021375579e-06</v>
+        <v>1.975299031404328e-06</v>
       </c>
       <c r="AG7" t="n">
-        <v>26</v>
+        <v>25.67916666666667</v>
       </c>
       <c r="AH7" t="n">
-        <v>2222352.303830874</v>
+        <v>2351414.400273989</v>
       </c>
     </row>
     <row r="8">
@@ -14709,28 +14709,28 @@
         <v>10</v>
       </c>
       <c r="AA8" t="n">
-        <v>1732.61855247677</v>
+        <v>1836.727011928857</v>
       </c>
       <c r="AB8" t="n">
-        <v>2370.645141234547</v>
+        <v>2513.09092839797</v>
       </c>
       <c r="AC8" t="n">
-        <v>2144.394096176474</v>
+        <v>2273.245057336939</v>
       </c>
       <c r="AD8" t="n">
-        <v>1732618.55247677</v>
+        <v>1836727.011928857</v>
       </c>
       <c r="AE8" t="n">
-        <v>2370645.141234547</v>
+        <v>2513090.92839797</v>
       </c>
       <c r="AF8" t="n">
-        <v>1.322007558906446e-06</v>
+        <v>1.997942050006646e-06</v>
       </c>
       <c r="AG8" t="n">
-        <v>26</v>
+        <v>25.3875</v>
       </c>
       <c r="AH8" t="n">
-        <v>2144394.096176474</v>
+        <v>2273245.057336939</v>
       </c>
     </row>
     <row r="9">
@@ -14815,28 +14815,28 @@
         <v>10</v>
       </c>
       <c r="AA9" t="n">
-        <v>1673.659691586209</v>
+        <v>1777.768151038297</v>
       </c>
       <c r="AB9" t="n">
-        <v>2289.975026682715</v>
+        <v>2432.420813846138</v>
       </c>
       <c r="AC9" t="n">
-        <v>2071.423024136252</v>
+        <v>2200.273985296716</v>
       </c>
       <c r="AD9" t="n">
-        <v>1673659.691586209</v>
+        <v>1777768.151038297</v>
       </c>
       <c r="AE9" t="n">
-        <v>2289975.026682715</v>
+        <v>2432420.813846138</v>
       </c>
       <c r="AF9" t="n">
-        <v>1.333606942801312e-06</v>
+        <v>2.015472128924569e-06</v>
       </c>
       <c r="AG9" t="n">
-        <v>26</v>
+        <v>25.16666666666667</v>
       </c>
       <c r="AH9" t="n">
-        <v>2071423.024136252</v>
+        <v>2200273.985296716</v>
       </c>
     </row>
     <row r="10">
@@ -14921,28 +14921,28 @@
         <v>10</v>
       </c>
       <c r="AA10" t="n">
-        <v>1649.246572440869</v>
+        <v>1745.504248090355</v>
       </c>
       <c r="AB10" t="n">
-        <v>2256.571920037257</v>
+        <v>2388.275918449824</v>
       </c>
       <c r="AC10" t="n">
-        <v>2041.207863107482</v>
+        <v>2160.342216759277</v>
       </c>
       <c r="AD10" t="n">
-        <v>1649246.572440869</v>
+        <v>1745504.248090355</v>
       </c>
       <c r="AE10" t="n">
-        <v>2256571.920037257</v>
+        <v>2388275.918449824</v>
       </c>
       <c r="AF10" t="n">
-        <v>1.339084429640554e-06</v>
+        <v>2.023750221746922e-06</v>
       </c>
       <c r="AG10" t="n">
-        <v>26</v>
+        <v>25.06458333333333</v>
       </c>
       <c r="AH10" t="n">
-        <v>2041207.863107482</v>
+        <v>2160342.216759277</v>
       </c>
     </row>
     <row r="11">
@@ -15027,28 +15027,28 @@
         <v>10</v>
       </c>
       <c r="AA11" t="n">
-        <v>1648.0495724062</v>
+        <v>1744.307248055686</v>
       </c>
       <c r="AB11" t="n">
-        <v>2254.934131781908</v>
+        <v>2386.638130194475</v>
       </c>
       <c r="AC11" t="n">
-        <v>2039.726383064573</v>
+        <v>2158.860736716368</v>
       </c>
       <c r="AD11" t="n">
-        <v>1648049.5724062</v>
+        <v>1744307.248055686</v>
       </c>
       <c r="AE11" t="n">
-        <v>2254934.131781908</v>
+        <v>2386638.130194475</v>
       </c>
       <c r="AF11" t="n">
-        <v>1.340695455181507e-06</v>
+        <v>2.026184954929967e-06</v>
       </c>
       <c r="AG11" t="n">
-        <v>26</v>
+        <v>25.03541666666667</v>
       </c>
       <c r="AH11" t="n">
-        <v>2039726.383064573</v>
+        <v>2158860.736716368</v>
       </c>
     </row>
     <row r="12">
@@ -15133,28 +15133,28 @@
         <v>10</v>
       </c>
       <c r="AA12" t="n">
-        <v>1657.445157684986</v>
+        <v>1753.702833334472</v>
       </c>
       <c r="AB12" t="n">
-        <v>2267.789586064312</v>
+        <v>2399.493584476878</v>
       </c>
       <c r="AC12" t="n">
-        <v>2051.354930833008</v>
+        <v>2170.489284484802</v>
       </c>
       <c r="AD12" t="n">
-        <v>1657445.157684986</v>
+        <v>1753702.833334472</v>
       </c>
       <c r="AE12" t="n">
-        <v>2267789.586064312</v>
+        <v>2399493.584476878</v>
       </c>
       <c r="AF12" t="n">
-        <v>1.340695455181507e-06</v>
+        <v>2.026184954929967e-06</v>
       </c>
       <c r="AG12" t="n">
-        <v>26</v>
+        <v>25.03541666666667</v>
       </c>
       <c r="AH12" t="n">
-        <v>2051354.930833007</v>
+        <v>2170489.284484802</v>
       </c>
     </row>
   </sheetData>
@@ -15430,28 +15430,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>2081.609738887435</v>
+        <v>2202.465473735675</v>
       </c>
       <c r="AB2" t="n">
-        <v>2848.150278886138</v>
+        <v>3013.510427084398</v>
       </c>
       <c r="AC2" t="n">
-        <v>2576.326813673268</v>
+        <v>2725.905221411797</v>
       </c>
       <c r="AD2" t="n">
-        <v>2081609.738887434</v>
+        <v>2202465.473735675</v>
       </c>
       <c r="AE2" t="n">
-        <v>2848150.278886138</v>
+        <v>3013510.427084398</v>
       </c>
       <c r="AF2" t="n">
-        <v>1.129136030725361e-06</v>
+        <v>1.784585936024469e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>33</v>
+        <v>32.26666666666667</v>
       </c>
       <c r="AH2" t="n">
-        <v>2576326.813673268</v>
+        <v>2725905.221411797</v>
       </c>
     </row>
     <row r="3">
@@ -15536,28 +15536,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>1501.274922654228</v>
+        <v>1606.927693373612</v>
       </c>
       <c r="AB3" t="n">
-        <v>2054.110580750712</v>
+        <v>2198.669362720255</v>
       </c>
       <c r="AC3" t="n">
-        <v>1858.06914988617</v>
+        <v>1988.831444594065</v>
       </c>
       <c r="AD3" t="n">
-        <v>1501274.922654228</v>
+        <v>1606927.693373612</v>
       </c>
       <c r="AE3" t="n">
-        <v>2054110.580750712</v>
+        <v>2198669.362720255</v>
       </c>
       <c r="AF3" t="n">
-        <v>1.336039364732192e-06</v>
+        <v>2.111594170584095e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>28</v>
+        <v>27.27083333333333</v>
       </c>
       <c r="AH3" t="n">
-        <v>1858069.14988617</v>
+        <v>1988831.444594065</v>
       </c>
     </row>
     <row r="4">
@@ -15642,28 +15642,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>1317.390738627159</v>
+        <v>1423.043419837992</v>
       </c>
       <c r="AB4" t="n">
-        <v>1802.512127767221</v>
+        <v>1947.070787267216</v>
       </c>
       <c r="AC4" t="n">
-        <v>1630.482900134777</v>
+        <v>1761.245084061446</v>
       </c>
       <c r="AD4" t="n">
-        <v>1317390.738627159</v>
+        <v>1423043.419837992</v>
       </c>
       <c r="AE4" t="n">
-        <v>1802512.127767221</v>
+        <v>1947070.787267216</v>
       </c>
       <c r="AF4" t="n">
-        <v>1.404599049373509e-06</v>
+        <v>2.219951928781368e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>26</v>
+        <v>25.93958333333333</v>
       </c>
       <c r="AH4" t="n">
-        <v>1630482.900134777</v>
+        <v>1761245.084061446</v>
       </c>
     </row>
     <row r="5">
@@ -15748,28 +15748,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>1299.489129343607</v>
+        <v>1405.14181055444</v>
       </c>
       <c r="AB5" t="n">
-        <v>1778.018356182203</v>
+        <v>1922.577015682198</v>
       </c>
       <c r="AC5" t="n">
-        <v>1608.326779732609</v>
+        <v>1739.088963659278</v>
       </c>
       <c r="AD5" t="n">
-        <v>1299489.129343607</v>
+        <v>1405141.81055444</v>
       </c>
       <c r="AE5" t="n">
-        <v>1778018.356182203</v>
+        <v>1922577.015682198</v>
       </c>
       <c r="AF5" t="n">
-        <v>1.414218392881857e-06</v>
+        <v>2.235155185671291e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>26</v>
+        <v>25.76458333333333</v>
       </c>
       <c r="AH5" t="n">
-        <v>1608326.779732609</v>
+        <v>1739088.963659278</v>
       </c>
     </row>
     <row r="6">
@@ -15854,28 +15854,28 @@
         <v>10</v>
       </c>
       <c r="AA6" t="n">
-        <v>1310.904877291714</v>
+        <v>1416.557558502547</v>
       </c>
       <c r="AB6" t="n">
-        <v>1793.637886152058</v>
+        <v>1938.196545652053</v>
       </c>
       <c r="AC6" t="n">
-        <v>1622.455603684289</v>
+        <v>1753.217787610958</v>
       </c>
       <c r="AD6" t="n">
-        <v>1310904.877291714</v>
+        <v>1416557.558502547</v>
       </c>
       <c r="AE6" t="n">
-        <v>1793637.886152058</v>
+        <v>1938196.545652053</v>
       </c>
       <c r="AF6" t="n">
-        <v>1.414218392881857e-06</v>
+        <v>2.235155185671291e-06</v>
       </c>
       <c r="AG6" t="n">
-        <v>26</v>
+        <v>25.76666666666667</v>
       </c>
       <c r="AH6" t="n">
-        <v>1622455.603684289</v>
+        <v>1753217.787610958</v>
       </c>
     </row>
   </sheetData>
@@ -16151,28 +16151,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>9826.122747788426</v>
+        <v>10088.56638745036</v>
       </c>
       <c r="AB2" t="n">
-        <v>13444.53464146578</v>
+        <v>13803.62160744749</v>
       </c>
       <c r="AC2" t="n">
-        <v>12161.40712480666</v>
+        <v>12486.22333473679</v>
       </c>
       <c r="AD2" t="n">
-        <v>9826122.747788426</v>
+        <v>10088566.38745036</v>
       </c>
       <c r="AE2" t="n">
-        <v>13444534.64146578</v>
+        <v>13803621.60744749</v>
       </c>
       <c r="AF2" t="n">
-        <v>5.298901482186106e-07</v>
+        <v>7.725195817155956e-07</v>
       </c>
       <c r="AG2" t="n">
-        <v>59</v>
+        <v>58.79791666666667</v>
       </c>
       <c r="AH2" t="n">
-        <v>12161407.12480666</v>
+        <v>12486223.33473678</v>
       </c>
     </row>
     <row r="3">
@@ -16257,28 +16257,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>4060.977639755482</v>
+        <v>4213.342335298816</v>
       </c>
       <c r="AB3" t="n">
-        <v>5556.408764402919</v>
+        <v>5764.880862701282</v>
       </c>
       <c r="AC3" t="n">
-        <v>5026.112910396773</v>
+        <v>5214.688724225962</v>
       </c>
       <c r="AD3" t="n">
-        <v>4060977.639755482</v>
+        <v>4213342.335298816</v>
       </c>
       <c r="AE3" t="n">
-        <v>5556408.764402919</v>
+        <v>5764880.862701282</v>
       </c>
       <c r="AF3" t="n">
-        <v>8.864405612451891e-07</v>
+        <v>1.2923295401717e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>36</v>
+        <v>35.15</v>
       </c>
       <c r="AH3" t="n">
-        <v>5026112.910396773</v>
+        <v>5214688.724225962</v>
       </c>
     </row>
     <row r="4">
@@ -16363,28 +16363,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>3233.023312868538</v>
+        <v>3368.524894453012</v>
       </c>
       <c r="AB4" t="n">
-        <v>4423.565127589165</v>
+        <v>4608.964369420933</v>
       </c>
       <c r="AC4" t="n">
-        <v>4001.386280324537</v>
+        <v>4169.091278725345</v>
       </c>
       <c r="AD4" t="n">
-        <v>3233023.312868538</v>
+        <v>3368524.894453012</v>
       </c>
       <c r="AE4" t="n">
-        <v>4423565.127589165</v>
+        <v>4608964.369420933</v>
       </c>
       <c r="AF4" t="n">
-        <v>1.015959293493938e-06</v>
+        <v>1.48115312407396e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>31</v>
+        <v>30.66666666666667</v>
       </c>
       <c r="AH4" t="n">
-        <v>4001386.280324537</v>
+        <v>4169091.278725345</v>
       </c>
     </row>
     <row r="5">
@@ -16469,28 +16469,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>2900.134248522319</v>
+        <v>3027.161647454352</v>
       </c>
       <c r="AB5" t="n">
-        <v>3968.091623721611</v>
+        <v>4141.896114993756</v>
       </c>
       <c r="AC5" t="n">
-        <v>3589.382528405042</v>
+        <v>3746.599362966303</v>
       </c>
       <c r="AD5" t="n">
-        <v>2900134.248522319</v>
+        <v>3027161.647454352</v>
       </c>
       <c r="AE5" t="n">
-        <v>3968091.623721611</v>
+        <v>4141896.114993756</v>
       </c>
       <c r="AF5" t="n">
-        <v>1.083709854358468e-06</v>
+        <v>1.579925737824218e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>29</v>
+        <v>28.75208333333333</v>
       </c>
       <c r="AH5" t="n">
-        <v>3589382.528405042</v>
+        <v>3746599.362966303</v>
       </c>
     </row>
     <row r="6">
@@ -16575,28 +16575,28 @@
         <v>10</v>
       </c>
       <c r="AA6" t="n">
-        <v>2716.633513861167</v>
+        <v>2835.272070995332</v>
       </c>
       <c r="AB6" t="n">
-        <v>3717.017823077145</v>
+        <v>3879.344330911866</v>
       </c>
       <c r="AC6" t="n">
-        <v>3362.270858909802</v>
+        <v>3509.105152663454</v>
       </c>
       <c r="AD6" t="n">
-        <v>2716633.513861167</v>
+        <v>2835272.070995332</v>
       </c>
       <c r="AE6" t="n">
-        <v>3717017.823077145</v>
+        <v>3879344.330911865</v>
       </c>
       <c r="AF6" t="n">
-        <v>1.125137901509627e-06</v>
+        <v>1.640323119742146e-06</v>
       </c>
       <c r="AG6" t="n">
-        <v>28</v>
+        <v>27.69375</v>
       </c>
       <c r="AH6" t="n">
-        <v>3362270.858909803</v>
+        <v>3509105.152663454</v>
       </c>
     </row>
     <row r="7">
@@ -16681,28 +16681,28 @@
         <v>10</v>
       </c>
       <c r="AA7" t="n">
-        <v>2600.928081846229</v>
+        <v>2711.092545836504</v>
       </c>
       <c r="AB7" t="n">
-        <v>3558.7045464309</v>
+        <v>3709.436426175545</v>
       </c>
       <c r="AC7" t="n">
-        <v>3219.066779192601</v>
+        <v>3355.413019887933</v>
       </c>
       <c r="AD7" t="n">
-        <v>2600928.081846229</v>
+        <v>2711092.545836504</v>
       </c>
       <c r="AE7" t="n">
-        <v>3558704.5464309</v>
+        <v>3709436.426175545</v>
       </c>
       <c r="AF7" t="n">
-        <v>1.153853371015123e-06</v>
+        <v>1.682187009013779e-06</v>
       </c>
       <c r="AG7" t="n">
-        <v>28</v>
+        <v>27.00416666666667</v>
       </c>
       <c r="AH7" t="n">
-        <v>3219066.779192601</v>
+        <v>3355413.019887934</v>
       </c>
     </row>
     <row r="8">
@@ -16787,28 +16787,28 @@
         <v>10</v>
       </c>
       <c r="AA8" t="n">
-        <v>2509.827017096741</v>
+        <v>2628.380233376334</v>
       </c>
       <c r="AB8" t="n">
-        <v>3434.05605054532</v>
+        <v>3596.265791257842</v>
       </c>
       <c r="AC8" t="n">
-        <v>3106.314560809084</v>
+        <v>3253.043231530797</v>
       </c>
       <c r="AD8" t="n">
-        <v>2509827.017096741</v>
+        <v>2628380.233376334</v>
       </c>
       <c r="AE8" t="n">
-        <v>3434056.05054532</v>
+        <v>3596265.791257842</v>
       </c>
       <c r="AF8" t="n">
-        <v>1.174193495248183e-06</v>
+        <v>1.711840597247852e-06</v>
       </c>
       <c r="AG8" t="n">
-        <v>27</v>
+        <v>26.53541666666667</v>
       </c>
       <c r="AH8" t="n">
-        <v>3106314.560809084</v>
+        <v>3253043.231530797</v>
       </c>
     </row>
     <row r="9">
@@ -16893,28 +16893,28 @@
         <v>10</v>
       </c>
       <c r="AA9" t="n">
-        <v>2442.962793170421</v>
+        <v>2553.041916306126</v>
       </c>
       <c r="AB9" t="n">
-        <v>3342.569469527955</v>
+        <v>3493.184582150402</v>
       </c>
       <c r="AC9" t="n">
-        <v>3023.559330681796</v>
+        <v>3159.799948345189</v>
       </c>
       <c r="AD9" t="n">
-        <v>2442962.793170421</v>
+        <v>2553041.916306126</v>
       </c>
       <c r="AE9" t="n">
-        <v>3342569.469527955</v>
+        <v>3493184.582150402</v>
       </c>
       <c r="AF9" t="n">
-        <v>1.190345946845024e-06</v>
+        <v>1.735389034963146e-06</v>
       </c>
       <c r="AG9" t="n">
-        <v>27</v>
+        <v>26.17708333333333</v>
       </c>
       <c r="AH9" t="n">
-        <v>3023559.330681796</v>
+        <v>3159799.948345189</v>
       </c>
     </row>
     <row r="10">
@@ -16999,28 +16999,28 @@
         <v>10</v>
       </c>
       <c r="AA10" t="n">
-        <v>2383.615121746428</v>
+        <v>2502.082997171449</v>
       </c>
       <c r="AB10" t="n">
-        <v>3261.367367251164</v>
+        <v>3423.460340841488</v>
       </c>
       <c r="AC10" t="n">
-        <v>2950.107043078438</v>
+        <v>3096.730090768213</v>
       </c>
       <c r="AD10" t="n">
-        <v>2383615.121746428</v>
+        <v>2502082.997171449</v>
       </c>
       <c r="AE10" t="n">
-        <v>3261367.367251164</v>
+        <v>3423460.340841488</v>
       </c>
       <c r="AF10" t="n">
-        <v>1.202460285542656e-06</v>
+        <v>1.753050363249616e-06</v>
       </c>
       <c r="AG10" t="n">
-        <v>26</v>
+        <v>25.9125</v>
       </c>
       <c r="AH10" t="n">
-        <v>2950107.043078438</v>
+        <v>3096730.090768213</v>
       </c>
     </row>
     <row r="11">
@@ -17105,28 +17105,28 @@
         <v>10</v>
       </c>
       <c r="AA11" t="n">
-        <v>2337.968097818587</v>
+        <v>2448.132472300311</v>
       </c>
       <c r="AB11" t="n">
-        <v>3198.911095308519</v>
+        <v>3349.642852583616</v>
       </c>
       <c r="AC11" t="n">
-        <v>2893.611510072074</v>
+        <v>3029.957639986179</v>
       </c>
       <c r="AD11" t="n">
-        <v>2337968.097818587</v>
+        <v>2448132.472300311</v>
       </c>
       <c r="AE11" t="n">
-        <v>3198911.095308519</v>
+        <v>3349642.852583616</v>
       </c>
       <c r="AF11" t="n">
-        <v>1.212181668448162e-06</v>
+        <v>1.767223034096783e-06</v>
       </c>
       <c r="AG11" t="n">
-        <v>26</v>
+        <v>25.70416666666667</v>
       </c>
       <c r="AH11" t="n">
-        <v>2893611.510072073</v>
+        <v>3029957.639986179</v>
       </c>
     </row>
     <row r="12">
@@ -17211,28 +17211,28 @@
         <v>10</v>
       </c>
       <c r="AA12" t="n">
-        <v>2301.395383807157</v>
+        <v>2411.559758288882</v>
       </c>
       <c r="AB12" t="n">
-        <v>3148.87069452381</v>
+        <v>3299.602451798908</v>
       </c>
       <c r="AC12" t="n">
-        <v>2848.346894906116</v>
+        <v>2984.693024820222</v>
       </c>
       <c r="AD12" t="n">
-        <v>2301395.383807157</v>
+        <v>2411559.758288882</v>
       </c>
       <c r="AE12" t="n">
-        <v>3148870.69452381</v>
+        <v>3299602.451798908</v>
       </c>
       <c r="AF12" t="n">
-        <v>1.220257894246583e-06</v>
+        <v>1.77899725295443e-06</v>
       </c>
       <c r="AG12" t="n">
-        <v>26</v>
+        <v>25.53333333333333</v>
       </c>
       <c r="AH12" t="n">
-        <v>2848346.894906116</v>
+        <v>2984693.024820222</v>
       </c>
     </row>
     <row r="13">
@@ -17317,28 +17317,28 @@
         <v>10</v>
       </c>
       <c r="AA13" t="n">
-        <v>2264.090525196046</v>
+        <v>2374.084307477178</v>
       </c>
       <c r="AB13" t="n">
-        <v>3097.828541197876</v>
+        <v>3248.326886698126</v>
       </c>
       <c r="AC13" t="n">
-        <v>2802.176133055499</v>
+        <v>2938.311127686954</v>
       </c>
       <c r="AD13" t="n">
-        <v>2264090.525196046</v>
+        <v>2374084.307477179</v>
       </c>
       <c r="AE13" t="n">
-        <v>3097828.541197876</v>
+        <v>3248326.886698126</v>
       </c>
       <c r="AF13" t="n">
-        <v>1.227735881096973e-06</v>
+        <v>1.789899307452251e-06</v>
       </c>
       <c r="AG13" t="n">
-        <v>26</v>
+        <v>25.37916666666666</v>
       </c>
       <c r="AH13" t="n">
-        <v>2802176.133055499</v>
+        <v>2938311.127686954</v>
       </c>
     </row>
     <row r="14">
@@ -17423,28 +17423,28 @@
         <v>10</v>
       </c>
       <c r="AA14" t="n">
-        <v>2229.579411345242</v>
+        <v>2339.573193626374</v>
       </c>
       <c r="AB14" t="n">
-        <v>3050.608912704313</v>
+        <v>3201.107258204563</v>
       </c>
       <c r="AC14" t="n">
-        <v>2759.463079632198</v>
+        <v>2895.598074263653</v>
       </c>
       <c r="AD14" t="n">
-        <v>2229579.411345242</v>
+        <v>2339573.193626374</v>
       </c>
       <c r="AE14" t="n">
-        <v>3050608.912704313</v>
+        <v>3201107.258204563</v>
       </c>
       <c r="AF14" t="n">
-        <v>1.233269591366261e-06</v>
+        <v>1.797966827780638e-06</v>
       </c>
       <c r="AG14" t="n">
-        <v>26</v>
+        <v>25.26666666666667</v>
       </c>
       <c r="AH14" t="n">
-        <v>2759463.079632198</v>
+        <v>2895598.074263653</v>
       </c>
     </row>
     <row r="15">
@@ -17529,28 +17529,28 @@
         <v>10</v>
       </c>
       <c r="AA15" t="n">
-        <v>2200.431945824119</v>
+        <v>2310.425728105252</v>
       </c>
       <c r="AB15" t="n">
-        <v>3010.728064482887</v>
+        <v>3161.226409983137</v>
       </c>
       <c r="AC15" t="n">
-        <v>2723.388403591905</v>
+        <v>2859.523398223359</v>
       </c>
       <c r="AD15" t="n">
-        <v>2200431.945824119</v>
+        <v>2310425.728105252</v>
       </c>
       <c r="AE15" t="n">
-        <v>3010728.064482887</v>
+        <v>3161226.409983137</v>
       </c>
       <c r="AF15" t="n">
-        <v>1.237905943213503e-06</v>
+        <v>1.804726101569287e-06</v>
       </c>
       <c r="AG15" t="n">
-        <v>26</v>
+        <v>25.17083333333333</v>
       </c>
       <c r="AH15" t="n">
-        <v>2723388.403591904</v>
+        <v>2859523.398223359</v>
       </c>
     </row>
     <row r="16">
@@ -17635,28 +17635,28 @@
         <v>10</v>
       </c>
       <c r="AA16" t="n">
-        <v>2173.352759916088</v>
+        <v>2283.346542197222</v>
       </c>
       <c r="AB16" t="n">
-        <v>2973.677127673977</v>
+        <v>3124.175473174401</v>
       </c>
       <c r="AC16" t="n">
-        <v>2689.873556190834</v>
+        <v>2826.008550822334</v>
       </c>
       <c r="AD16" t="n">
-        <v>2173352.759916088</v>
+        <v>2283346.542197222</v>
       </c>
       <c r="AE16" t="n">
-        <v>2973677.127673977</v>
+        <v>3124175.473174401</v>
       </c>
       <c r="AF16" t="n">
-        <v>1.242093615849721e-06</v>
+        <v>1.810831252088067e-06</v>
       </c>
       <c r="AG16" t="n">
-        <v>26</v>
+        <v>25.08541666666666</v>
       </c>
       <c r="AH16" t="n">
-        <v>2689873.556190834</v>
+        <v>2826008.550822334</v>
       </c>
     </row>
     <row r="17">
@@ -17741,28 +17741,28 @@
         <v>10</v>
       </c>
       <c r="AA17" t="n">
-        <v>2134.632708977639</v>
+        <v>2244.711742604794</v>
       </c>
       <c r="AB17" t="n">
-        <v>2920.698645771904</v>
+        <v>3071.313635924973</v>
       </c>
       <c r="AC17" t="n">
-        <v>2641.951266245728</v>
+        <v>2778.19177312794</v>
       </c>
       <c r="AD17" t="n">
-        <v>2134632.708977639</v>
+        <v>2244711.742604794</v>
       </c>
       <c r="AE17" t="n">
-        <v>2920698.645771904</v>
+        <v>3071313.635924974</v>
       </c>
       <c r="AF17" t="n">
-        <v>1.246430848222947e-06</v>
+        <v>1.817154443696803e-06</v>
       </c>
       <c r="AG17" t="n">
-        <v>25</v>
+        <v>24.99791666666667</v>
       </c>
       <c r="AH17" t="n">
-        <v>2641951.266245728</v>
+        <v>2778191.77312794</v>
       </c>
     </row>
     <row r="18">
@@ -17847,28 +17847,28 @@
         <v>10</v>
       </c>
       <c r="AA18" t="n">
-        <v>2104.252724327137</v>
+        <v>2214.331757954291</v>
       </c>
       <c r="AB18" t="n">
-        <v>2879.131410502755</v>
+        <v>3029.746400655823</v>
       </c>
       <c r="AC18" t="n">
-        <v>2604.351149570686</v>
+        <v>2740.591656452897</v>
       </c>
       <c r="AD18" t="n">
-        <v>2104252.724327137</v>
+        <v>2214331.757954292</v>
       </c>
       <c r="AE18" t="n">
-        <v>2879131.410502756</v>
+        <v>3029746.400655823</v>
       </c>
       <c r="AF18" t="n">
-        <v>1.249721162437118e-06</v>
+        <v>1.821951347675844e-06</v>
       </c>
       <c r="AG18" t="n">
-        <v>25</v>
+        <v>24.93333333333334</v>
       </c>
       <c r="AH18" t="n">
-        <v>2604351.149570686</v>
+        <v>2740591.656452897</v>
       </c>
     </row>
     <row r="19">
@@ -17953,28 +17953,28 @@
         <v>10</v>
       </c>
       <c r="AA19" t="n">
-        <v>2077.978213635223</v>
+        <v>2188.057247262375</v>
       </c>
       <c r="AB19" t="n">
-        <v>2843.181465824477</v>
+        <v>2993.796455977366</v>
       </c>
       <c r="AC19" t="n">
-        <v>2571.832217156437</v>
+        <v>2708.072724038602</v>
       </c>
       <c r="AD19" t="n">
-        <v>2077978.213635223</v>
+        <v>2188057.247262375</v>
       </c>
       <c r="AE19" t="n">
-        <v>2843181.465824476</v>
+        <v>2993796.455977366</v>
       </c>
       <c r="AF19" t="n">
-        <v>1.252861916914282e-06</v>
+        <v>1.826530210564929e-06</v>
       </c>
       <c r="AG19" t="n">
-        <v>25</v>
+        <v>24.87083333333333</v>
       </c>
       <c r="AH19" t="n">
-        <v>2571832.217156437</v>
+        <v>2708072.724038602</v>
       </c>
     </row>
     <row r="20">
@@ -18059,28 +18059,28 @@
         <v>10</v>
       </c>
       <c r="AA20" t="n">
-        <v>2062.559358447294</v>
+        <v>2172.638392074447</v>
       </c>
       <c r="AB20" t="n">
-        <v>2822.084707924469</v>
+        <v>2972.699698077359</v>
       </c>
       <c r="AC20" t="n">
-        <v>2552.748904220921</v>
+        <v>2688.989411103086</v>
       </c>
       <c r="AD20" t="n">
-        <v>2062559.358447294</v>
+        <v>2172638.392074447</v>
       </c>
       <c r="AE20" t="n">
-        <v>2822084.707924469</v>
+        <v>2972699.698077359</v>
       </c>
       <c r="AF20" t="n">
-        <v>1.254058394810344e-06</v>
+        <v>1.82827453928458e-06</v>
       </c>
       <c r="AG20" t="n">
-        <v>25</v>
+        <v>24.84583333333333</v>
       </c>
       <c r="AH20" t="n">
-        <v>2552748.904220921</v>
+        <v>2688989.411103086</v>
       </c>
     </row>
     <row r="21">
@@ -18165,28 +18165,28 @@
         <v>10</v>
       </c>
       <c r="AA21" t="n">
-        <v>2050.736896644969</v>
+        <v>2160.815930272121</v>
       </c>
       <c r="AB21" t="n">
-        <v>2805.908694116323</v>
+        <v>2956.523684269213</v>
       </c>
       <c r="AC21" t="n">
-        <v>2538.116706467447</v>
+        <v>2674.357213349611</v>
       </c>
       <c r="AD21" t="n">
-        <v>2050736.896644969</v>
+        <v>2160815.930272121</v>
       </c>
       <c r="AE21" t="n">
-        <v>2805908.694116323</v>
+        <v>2956523.684269214</v>
       </c>
       <c r="AF21" t="n">
-        <v>1.255853111654438e-06</v>
+        <v>1.830891032364058e-06</v>
       </c>
       <c r="AG21" t="n">
-        <v>25</v>
+        <v>24.81041666666667</v>
       </c>
       <c r="AH21" t="n">
-        <v>2538116.706467447</v>
+        <v>2674357.213349611</v>
       </c>
     </row>
     <row r="22">
@@ -18271,28 +18271,28 @@
         <v>10</v>
       </c>
       <c r="AA22" t="n">
-        <v>2050.923003581705</v>
+        <v>2161.002037208858</v>
       </c>
       <c r="AB22" t="n">
-        <v>2806.163333837625</v>
+        <v>2956.778323990515</v>
       </c>
       <c r="AC22" t="n">
-        <v>2538.347043731137</v>
+        <v>2674.587550613302</v>
       </c>
       <c r="AD22" t="n">
-        <v>2050923.003581706</v>
+        <v>2161002.037208858</v>
       </c>
       <c r="AE22" t="n">
-        <v>2806163.333837625</v>
+        <v>2956778.323990515</v>
       </c>
       <c r="AF22" t="n">
-        <v>1.256750470076485e-06</v>
+        <v>1.832199278903796e-06</v>
       </c>
       <c r="AG22" t="n">
-        <v>25</v>
+        <v>24.79375</v>
       </c>
       <c r="AH22" t="n">
-        <v>2538347.043731137</v>
+        <v>2674587.550613302</v>
       </c>
     </row>
     <row r="23">
@@ -18377,28 +18377,28 @@
         <v>10</v>
       </c>
       <c r="AA23" t="n">
-        <v>2057.840681293989</v>
+        <v>2167.919714921142</v>
       </c>
       <c r="AB23" t="n">
-        <v>2815.628405669974</v>
+        <v>2966.243395822863</v>
       </c>
       <c r="AC23" t="n">
-        <v>2546.908782392118</v>
+        <v>2683.149289274282</v>
       </c>
       <c r="AD23" t="n">
-        <v>2057840.681293989</v>
+        <v>2167919.714921142</v>
       </c>
       <c r="AE23" t="n">
-        <v>2815628.405669974</v>
+        <v>2966243.395822864</v>
       </c>
       <c r="AF23" t="n">
-        <v>1.256451350602469e-06</v>
+        <v>1.831763196723883e-06</v>
       </c>
       <c r="AG23" t="n">
-        <v>25</v>
+        <v>24.8</v>
       </c>
       <c r="AH23" t="n">
-        <v>2546908.782392118</v>
+        <v>2683149.289274282</v>
       </c>
     </row>
     <row r="24">
@@ -18483,28 +18483,28 @@
         <v>10</v>
       </c>
       <c r="AA24" t="n">
-        <v>2066.785159795664</v>
+        <v>2176.864193422816</v>
       </c>
       <c r="AB24" t="n">
-        <v>2827.866635758506</v>
+        <v>2978.481625911396</v>
       </c>
       <c r="AC24" t="n">
-        <v>2557.979012977464</v>
+        <v>2694.21951985963</v>
       </c>
       <c r="AD24" t="n">
-        <v>2066785.159795664</v>
+        <v>2176864.193422816</v>
       </c>
       <c r="AE24" t="n">
-        <v>2827866.635758506</v>
+        <v>2978481.625911396</v>
       </c>
       <c r="AF24" t="n">
-        <v>1.256451350602469e-06</v>
+        <v>1.831763196723883e-06</v>
       </c>
       <c r="AG24" t="n">
-        <v>25</v>
+        <v>24.8</v>
       </c>
       <c r="AH24" t="n">
-        <v>2557979.012977464</v>
+        <v>2694219.51985963</v>
       </c>
     </row>
   </sheetData>
@@ -18780,28 +18780,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>1696.83145021293</v>
+        <v>1815.711901055059</v>
       </c>
       <c r="AB2" t="n">
-        <v>2321.679649101636</v>
+        <v>2484.337126579181</v>
       </c>
       <c r="AC2" t="n">
-        <v>2100.101801889229</v>
+        <v>2247.23547800752</v>
       </c>
       <c r="AD2" t="n">
-        <v>1696831.45021293</v>
+        <v>1815711.901055059</v>
       </c>
       <c r="AE2" t="n">
-        <v>2321679.649101636</v>
+        <v>2484337.126579181</v>
       </c>
       <c r="AF2" t="n">
-        <v>1.218898516343121e-06</v>
+        <v>1.952961739612852e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>31</v>
+        <v>30.59166666666667</v>
       </c>
       <c r="AH2" t="n">
-        <v>2100101.801889229</v>
+        <v>2247235.47800752</v>
       </c>
     </row>
     <row r="3">
@@ -18886,28 +18886,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>1260.961391987056</v>
+        <v>1364.971118867097</v>
       </c>
       <c r="AB3" t="n">
-        <v>1725.303006207158</v>
+        <v>1867.613703109734</v>
       </c>
       <c r="AC3" t="n">
-        <v>1560.642508772724</v>
+        <v>1689.371272497236</v>
       </c>
       <c r="AD3" t="n">
-        <v>1260961.391987056</v>
+        <v>1364971.118867097</v>
       </c>
       <c r="AE3" t="n">
-        <v>1725303.006207158</v>
+        <v>1867613.703109734</v>
       </c>
       <c r="AF3" t="n">
-        <v>1.402896706475386e-06</v>
+        <v>2.247770060952354e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>27</v>
+        <v>26.57916666666667</v>
       </c>
       <c r="AH3" t="n">
-        <v>1560642.508772724</v>
+        <v>1689371.272497236</v>
       </c>
     </row>
     <row r="4">
@@ -18992,28 +18992,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>1215.63033044781</v>
+        <v>1312.204784855359</v>
       </c>
       <c r="AB4" t="n">
-        <v>1663.27904794387</v>
+        <v>1795.416477028511</v>
       </c>
       <c r="AC4" t="n">
-        <v>1504.538030034912</v>
+        <v>1624.064448343761</v>
       </c>
       <c r="AD4" t="n">
-        <v>1215630.33044781</v>
+        <v>1312204.784855359</v>
       </c>
       <c r="AE4" t="n">
-        <v>1663279.04794387</v>
+        <v>1795416.477028511</v>
       </c>
       <c r="AF4" t="n">
-        <v>1.426343946657611e-06</v>
+        <v>2.285338047426551e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>27</v>
+        <v>26.14375</v>
       </c>
       <c r="AH4" t="n">
-        <v>1504538.030034912</v>
+        <v>1624064.448343761</v>
       </c>
     </row>
   </sheetData>
@@ -19289,28 +19289,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>6122.395971380849</v>
+        <v>6328.055610221029</v>
       </c>
       <c r="AB2" t="n">
-        <v>8376.93226909124</v>
+        <v>8658.324860015311</v>
       </c>
       <c r="AC2" t="n">
-        <v>7577.449610427137</v>
+        <v>7831.986487410386</v>
       </c>
       <c r="AD2" t="n">
-        <v>6122395.971380849</v>
+        <v>6328055.610221029</v>
       </c>
       <c r="AE2" t="n">
-        <v>8376932.26909124</v>
+        <v>8658324.86001531</v>
       </c>
       <c r="AF2" t="n">
-        <v>6.815110293661852e-07</v>
+        <v>1.011937015723084e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>48</v>
+        <v>47.52916666666666</v>
       </c>
       <c r="AH2" t="n">
-        <v>7577449.610427137</v>
+        <v>7831986.487410386</v>
       </c>
     </row>
     <row r="3">
@@ -19395,28 +19395,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>3145.412874862056</v>
+        <v>3277.059028667601</v>
       </c>
       <c r="AB3" t="n">
-        <v>4303.692661208949</v>
+        <v>4483.816736664118</v>
       </c>
       <c r="AC3" t="n">
-        <v>3892.954273893591</v>
+        <v>4055.88756039304</v>
       </c>
       <c r="AD3" t="n">
-        <v>3145412.874862056</v>
+        <v>3277059.028667601</v>
       </c>
       <c r="AE3" t="n">
-        <v>4303692.661208949</v>
+        <v>4483816.736664118</v>
       </c>
       <c r="AF3" t="n">
-        <v>1.002286127149083e-06</v>
+        <v>1.488237737474561e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>33</v>
+        <v>32.31875</v>
       </c>
       <c r="AH3" t="n">
-        <v>3892954.273893591</v>
+        <v>4055887.56039304</v>
       </c>
     </row>
     <row r="4">
@@ -19501,28 +19501,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>2616.926154182503</v>
+        <v>2732.191223198675</v>
       </c>
       <c r="AB4" t="n">
-        <v>3580.59381478653</v>
+        <v>3738.30456735042</v>
       </c>
       <c r="AC4" t="n">
-        <v>3238.866966498151</v>
+        <v>3381.526026185768</v>
       </c>
       <c r="AD4" t="n">
-        <v>2616926.154182503</v>
+        <v>2732191.223198675</v>
       </c>
       <c r="AE4" t="n">
-        <v>3580593.814786531</v>
+        <v>3738304.56735042</v>
       </c>
       <c r="AF4" t="n">
-        <v>1.11563806427159e-06</v>
+        <v>1.656547590192363e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>30</v>
+        <v>29.03333333333333</v>
       </c>
       <c r="AH4" t="n">
-        <v>3238866.966498151</v>
+        <v>3381526.026185768</v>
       </c>
     </row>
     <row r="5">
@@ -19607,28 +19607,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>2382.333941968775</v>
+        <v>2497.598921476396</v>
       </c>
       <c r="AB5" t="n">
-        <v>3259.614400557716</v>
+        <v>3417.325030652058</v>
       </c>
       <c r="AC5" t="n">
-        <v>2948.52137706591</v>
+        <v>3091.1803259723</v>
       </c>
       <c r="AD5" t="n">
-        <v>2382333.941968775</v>
+        <v>2497598.921476396</v>
       </c>
       <c r="AE5" t="n">
-        <v>3259614.400557716</v>
+        <v>3417325.030652058</v>
       </c>
       <c r="AF5" t="n">
-        <v>1.174257653153874e-06</v>
+        <v>1.743588487962749e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>28</v>
+        <v>27.5875</v>
       </c>
       <c r="AH5" t="n">
-        <v>2948521.37706591</v>
+        <v>3091180.3259723</v>
       </c>
     </row>
     <row r="6">
@@ -19713,28 +19713,28 @@
         <v>10</v>
       </c>
       <c r="AA6" t="n">
-        <v>2243.501956524597</v>
+        <v>2358.681595177646</v>
       </c>
       <c r="AB6" t="n">
-        <v>3069.658353238052</v>
+        <v>3227.252216210196</v>
       </c>
       <c r="AC6" t="n">
-        <v>2776.694468297454</v>
+        <v>2919.247794171906</v>
       </c>
       <c r="AD6" t="n">
-        <v>2243501.956524597</v>
+        <v>2358681.595177646</v>
       </c>
       <c r="AE6" t="n">
-        <v>3069658.353238052</v>
+        <v>3227252.216210196</v>
       </c>
       <c r="AF6" t="n">
-        <v>1.210331246312203e-06</v>
+        <v>1.79715211735991e-06</v>
       </c>
       <c r="AG6" t="n">
-        <v>27</v>
+        <v>26.7625</v>
       </c>
       <c r="AH6" t="n">
-        <v>2776694.468297454</v>
+        <v>2919247.794171906</v>
       </c>
     </row>
     <row r="7">
@@ -19819,28 +19819,28 @@
         <v>10</v>
       </c>
       <c r="AA7" t="n">
-        <v>2157.841472787398</v>
+        <v>2264.787988127028</v>
       </c>
       <c r="AB7" t="n">
-        <v>2952.453900314812</v>
+        <v>3098.782840749938</v>
       </c>
       <c r="AC7" t="n">
-        <v>2670.675843863841</v>
+        <v>2803.039355597679</v>
       </c>
       <c r="AD7" t="n">
-        <v>2157841.472787398</v>
+        <v>2264787.988127028</v>
       </c>
       <c r="AE7" t="n">
-        <v>2952453.900314813</v>
+        <v>3098782.840749938</v>
       </c>
       <c r="AF7" t="n">
-        <v>1.234121159041618e-06</v>
+        <v>1.832476407436486e-06</v>
       </c>
       <c r="AG7" t="n">
-        <v>27</v>
+        <v>26.24583333333333</v>
       </c>
       <c r="AH7" t="n">
-        <v>2670675.843863841</v>
+        <v>2803039.35559768</v>
       </c>
     </row>
     <row r="8">
@@ -19925,28 +19925,28 @@
         <v>10</v>
       </c>
       <c r="AA8" t="n">
-        <v>2075.926409561525</v>
+        <v>2191.020707360003</v>
       </c>
       <c r="AB8" t="n">
-        <v>2840.374096971635</v>
+        <v>2997.851192821572</v>
       </c>
       <c r="AC8" t="n">
-        <v>2569.292779646745</v>
+        <v>2711.740482489255</v>
       </c>
       <c r="AD8" t="n">
-        <v>2075926.409561525</v>
+        <v>2191020.707360003</v>
       </c>
       <c r="AE8" t="n">
-        <v>2840374.096971635</v>
+        <v>2997851.192821572</v>
       </c>
       <c r="AF8" t="n">
-        <v>1.252935403749195e-06</v>
+        <v>1.86041261069966e-06</v>
       </c>
       <c r="AG8" t="n">
-        <v>26</v>
+        <v>25.85416666666667</v>
       </c>
       <c r="AH8" t="n">
-        <v>2569292.779646745</v>
+        <v>2711740.482489255</v>
       </c>
     </row>
     <row r="9">
@@ -20031,28 +20031,28 @@
         <v>10</v>
       </c>
       <c r="AA9" t="n">
-        <v>2021.137420594309</v>
+        <v>2128.169187279957</v>
       </c>
       <c r="AB9" t="n">
-        <v>2765.409385147089</v>
+        <v>2911.854970234683</v>
       </c>
       <c r="AC9" t="n">
-        <v>2501.482594705099</v>
+        <v>2633.951618689602</v>
       </c>
       <c r="AD9" t="n">
-        <v>2021137.420594309</v>
+        <v>2128169.187279956</v>
       </c>
       <c r="AE9" t="n">
-        <v>2765409.385147089</v>
+        <v>2911854.970234683</v>
       </c>
       <c r="AF9" t="n">
-        <v>1.265063594552426e-06</v>
+        <v>1.878421072307327e-06</v>
       </c>
       <c r="AG9" t="n">
-        <v>26</v>
+        <v>25.60416666666667</v>
       </c>
       <c r="AH9" t="n">
-        <v>2501482.594705099</v>
+        <v>2633951.618689602</v>
       </c>
     </row>
     <row r="10">
@@ -20137,28 +20137,28 @@
         <v>10</v>
       </c>
       <c r="AA10" t="n">
-        <v>1975.549273026546</v>
+        <v>2082.410447511601</v>
       </c>
       <c r="AB10" t="n">
-        <v>2703.033670437748</v>
+        <v>2849.245843750496</v>
       </c>
       <c r="AC10" t="n">
-        <v>2445.059930662753</v>
+        <v>2577.317819364605</v>
       </c>
       <c r="AD10" t="n">
-        <v>1975549.273026546</v>
+        <v>2082410.447511601</v>
       </c>
       <c r="AE10" t="n">
-        <v>2703033.670437748</v>
+        <v>2849245.843750495</v>
       </c>
       <c r="AF10" t="n">
-        <v>1.275947868350197e-06</v>
+        <v>1.894582512211642e-06</v>
       </c>
       <c r="AG10" t="n">
-        <v>26</v>
+        <v>25.3875</v>
       </c>
       <c r="AH10" t="n">
-        <v>2445059.930662753</v>
+        <v>2577317.819364605</v>
       </c>
     </row>
     <row r="11">
@@ -20243,28 +20243,28 @@
         <v>10</v>
       </c>
       <c r="AA11" t="n">
-        <v>1928.677707434163</v>
+        <v>2035.538881919219</v>
       </c>
       <c r="AB11" t="n">
-        <v>2638.901926566716</v>
+        <v>2785.114099879464</v>
       </c>
       <c r="AC11" t="n">
-        <v>2387.048830417305</v>
+        <v>2519.306719119157</v>
       </c>
       <c r="AD11" t="n">
-        <v>1928677.707434163</v>
+        <v>2035538.881919219</v>
       </c>
       <c r="AE11" t="n">
-        <v>2638901.926566716</v>
+        <v>2785114.099879464</v>
       </c>
       <c r="AF11" t="n">
-        <v>1.284655287388415e-06</v>
+        <v>1.907511664135095e-06</v>
       </c>
       <c r="AG11" t="n">
-        <v>26</v>
+        <v>25.21666666666667</v>
       </c>
       <c r="AH11" t="n">
-        <v>2387048.830417305</v>
+        <v>2519306.719119157</v>
       </c>
     </row>
     <row r="12">
@@ -20349,28 +20349,28 @@
         <v>10</v>
       </c>
       <c r="AA12" t="n">
-        <v>1888.288777391781</v>
+        <v>1995.149951876836</v>
       </c>
       <c r="AB12" t="n">
-        <v>2583.640010648891</v>
+        <v>2729.852183961637</v>
       </c>
       <c r="AC12" t="n">
-        <v>2337.06103419409</v>
+        <v>2469.318922895942</v>
       </c>
       <c r="AD12" t="n">
-        <v>1888288.777391781</v>
+        <v>1995149.951876836</v>
       </c>
       <c r="AE12" t="n">
-        <v>2583640.010648891</v>
+        <v>2729852.183961637</v>
       </c>
       <c r="AF12" t="n">
-        <v>1.291496830918443e-06</v>
+        <v>1.917670283503522e-06</v>
       </c>
       <c r="AG12" t="n">
-        <v>26</v>
+        <v>25.08125</v>
       </c>
       <c r="AH12" t="n">
-        <v>2337061.034194089</v>
+        <v>2469318.922895942</v>
       </c>
     </row>
     <row r="13">
@@ -20455,28 +20455,28 @@
         <v>10</v>
       </c>
       <c r="AA13" t="n">
-        <v>1842.387904463402</v>
+        <v>1949.334330294478</v>
       </c>
       <c r="AB13" t="n">
-        <v>2520.836411304687</v>
+        <v>2667.165229270084</v>
       </c>
       <c r="AC13" t="n">
-        <v>2280.251322225892</v>
+        <v>2412.614723178457</v>
       </c>
       <c r="AD13" t="n">
-        <v>1842387.904463402</v>
+        <v>1949334.330294478</v>
       </c>
       <c r="AE13" t="n">
-        <v>2520836.411304687</v>
+        <v>2667165.229270084</v>
       </c>
       <c r="AF13" t="n">
-        <v>1.296783478191646e-06</v>
+        <v>1.925520125742761e-06</v>
       </c>
       <c r="AG13" t="n">
-        <v>25</v>
+        <v>24.97916666666667</v>
       </c>
       <c r="AH13" t="n">
-        <v>2280251.322225892</v>
+        <v>2412614.723178457</v>
       </c>
     </row>
     <row r="14">
@@ -20561,28 +20561,28 @@
         <v>10</v>
       </c>
       <c r="AA14" t="n">
-        <v>1818.129840584678</v>
+        <v>1925.076266415754</v>
       </c>
       <c r="AB14" t="n">
-        <v>2487.645458115569</v>
+        <v>2633.974276080964</v>
       </c>
       <c r="AC14" t="n">
-        <v>2250.228067025347</v>
+        <v>2382.591467977911</v>
       </c>
       <c r="AD14" t="n">
-        <v>1818129.840584678</v>
+        <v>1925076.266415754</v>
       </c>
       <c r="AE14" t="n">
-        <v>2487645.458115568</v>
+        <v>2633974.276080964</v>
       </c>
       <c r="AF14" t="n">
-        <v>1.30082620845939e-06</v>
+        <v>1.93152294627865e-06</v>
       </c>
       <c r="AG14" t="n">
-        <v>25</v>
+        <v>24.90208333333333</v>
       </c>
       <c r="AH14" t="n">
-        <v>2250228.067025347</v>
+        <v>2382591.467977911</v>
       </c>
     </row>
     <row r="15">
@@ -20667,28 +20667,28 @@
         <v>10</v>
       </c>
       <c r="AA15" t="n">
-        <v>1816.332768223165</v>
+        <v>1923.279194054242</v>
       </c>
       <c r="AB15" t="n">
-        <v>2485.18662442931</v>
+        <v>2631.515442394706</v>
       </c>
       <c r="AC15" t="n">
-        <v>2248.00390097511</v>
+        <v>2380.367301927675</v>
       </c>
       <c r="AD15" t="n">
-        <v>1816332.768223165</v>
+        <v>1923279.194054242</v>
       </c>
       <c r="AE15" t="n">
-        <v>2485186.62442931</v>
+        <v>2631515.442394706</v>
       </c>
       <c r="AF15" t="n">
-        <v>1.301448166962119e-06</v>
+        <v>1.932446457130325e-06</v>
       </c>
       <c r="AG15" t="n">
-        <v>25</v>
+        <v>24.88958333333333</v>
       </c>
       <c r="AH15" t="n">
-        <v>2248003.90097511</v>
+        <v>2380367.301927675</v>
       </c>
     </row>
     <row r="16">
@@ -20773,28 +20773,28 @@
         <v>10</v>
       </c>
       <c r="AA16" t="n">
-        <v>1824.455048144322</v>
+        <v>1931.401473975398</v>
       </c>
       <c r="AB16" t="n">
-        <v>2496.299886147137</v>
+        <v>2642.628704112533</v>
       </c>
       <c r="AC16" t="n">
-        <v>2258.056528592148</v>
+        <v>2390.419929544713</v>
       </c>
       <c r="AD16" t="n">
-        <v>1824455.048144322</v>
+        <v>1931401.473975398</v>
       </c>
       <c r="AE16" t="n">
-        <v>2496299.886147137</v>
+        <v>2642628.704112533</v>
       </c>
       <c r="AF16" t="n">
-        <v>1.301292677336437e-06</v>
+        <v>1.932215579417406e-06</v>
       </c>
       <c r="AG16" t="n">
-        <v>25</v>
+        <v>24.89375</v>
       </c>
       <c r="AH16" t="n">
-        <v>2258056.528592148</v>
+        <v>2390419.929544713</v>
       </c>
     </row>
     <row r="17">
@@ -20879,28 +20879,28 @@
         <v>10</v>
       </c>
       <c r="AA17" t="n">
-        <v>1833.665420079022</v>
+        <v>1940.611845910099</v>
       </c>
       <c r="AB17" t="n">
-        <v>2508.901923361126</v>
+        <v>2655.230741326522</v>
       </c>
       <c r="AC17" t="n">
-        <v>2269.455845061505</v>
+        <v>2401.81924601407</v>
       </c>
       <c r="AD17" t="n">
-        <v>1833665.420079022</v>
+        <v>1940611.845910099</v>
       </c>
       <c r="AE17" t="n">
-        <v>2508901.923361126</v>
+        <v>2655230.741326522</v>
       </c>
       <c r="AF17" t="n">
-        <v>1.301137187710755e-06</v>
+        <v>1.931984701704487e-06</v>
       </c>
       <c r="AG17" t="n">
-        <v>25</v>
+        <v>24.89583333333333</v>
       </c>
       <c r="AH17" t="n">
-        <v>2269455.845061505</v>
+        <v>2401819.24601407</v>
       </c>
     </row>
   </sheetData>
@@ -21176,28 +21176,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>7741.4120947566</v>
+        <v>7967.006419186489</v>
       </c>
       <c r="AB2" t="n">
-        <v>10592.14155504444</v>
+        <v>10900.80966224861</v>
       </c>
       <c r="AC2" t="n">
-        <v>9581.242431194643</v>
+        <v>9860.451687465644</v>
       </c>
       <c r="AD2" t="n">
-        <v>7741412.0947566</v>
+        <v>7967006.41918649</v>
       </c>
       <c r="AE2" t="n">
-        <v>10592141.55504444</v>
+        <v>10900809.66224861</v>
       </c>
       <c r="AF2" t="n">
-        <v>6.0223502414359e-07</v>
+        <v>8.855519619278749e-07</v>
       </c>
       <c r="AG2" t="n">
-        <v>53</v>
+        <v>52.7</v>
       </c>
       <c r="AH2" t="n">
-        <v>9581242.431194643</v>
+        <v>9860451.687465644</v>
       </c>
     </row>
     <row r="3">
@@ -21282,28 +21282,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>3578.747379326721</v>
+        <v>3729.029807807219</v>
       </c>
       <c r="AB3" t="n">
-        <v>4896.60004758664</v>
+        <v>5102.223096226491</v>
       </c>
       <c r="AC3" t="n">
-        <v>4429.275411466116</v>
+        <v>4615.274084937532</v>
       </c>
       <c r="AD3" t="n">
-        <v>3578747.379326721</v>
+        <v>3729029.807807219</v>
       </c>
       <c r="AE3" t="n">
-        <v>4896600.04758664</v>
+        <v>5102223.096226491</v>
       </c>
       <c r="AF3" t="n">
-        <v>9.427347152543727e-07</v>
+        <v>1.386237171871918e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>34</v>
+        <v>33.67083333333333</v>
       </c>
       <c r="AH3" t="n">
-        <v>4429275.411466116</v>
+        <v>4615274.084937532</v>
       </c>
     </row>
     <row r="4">
@@ -21388,28 +21388,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>2912.98037171046</v>
+        <v>3046.545787947664</v>
       </c>
       <c r="AB4" t="n">
-        <v>3985.668256198584</v>
+        <v>4168.41835118463</v>
       </c>
       <c r="AC4" t="n">
-        <v>3605.281671747372</v>
+        <v>3770.590354159312</v>
       </c>
       <c r="AD4" t="n">
-        <v>2912980.37171046</v>
+        <v>3046545.787947664</v>
       </c>
       <c r="AE4" t="n">
-        <v>3985668.256198584</v>
+        <v>4168418.35118463</v>
       </c>
       <c r="AF4" t="n">
-        <v>1.064613799320872e-06</v>
+        <v>1.565453354402224e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>30</v>
+        <v>29.8125</v>
       </c>
       <c r="AH4" t="n">
-        <v>3605281.671747372</v>
+        <v>3770590.354159312</v>
       </c>
     </row>
     <row r="5">
@@ -21494,28 +21494,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>2644.691177249013</v>
+        <v>2761.625011606046</v>
       </c>
       <c r="AB5" t="n">
-        <v>3618.5831442525</v>
+        <v>3778.577175176487</v>
       </c>
       <c r="AC5" t="n">
-        <v>3273.230647678245</v>
+        <v>3417.955072843873</v>
       </c>
       <c r="AD5" t="n">
-        <v>2644691.177249013</v>
+        <v>2761625.011606046</v>
       </c>
       <c r="AE5" t="n">
-        <v>3618583.1442525</v>
+        <v>3778577.175176487</v>
       </c>
       <c r="AF5" t="n">
-        <v>1.12692448104987e-06</v>
+        <v>1.657077627720843e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>29</v>
+        <v>28.16458333333334</v>
       </c>
       <c r="AH5" t="n">
-        <v>3273230.647678245</v>
+        <v>3417955.072843873</v>
       </c>
     </row>
     <row r="6">
@@ -21600,28 +21600,28 @@
         <v>10</v>
       </c>
       <c r="AA6" t="n">
-        <v>2486.151624021437</v>
+        <v>2603.000117523899</v>
       </c>
       <c r="AB6" t="n">
-        <v>3401.662333255062</v>
+        <v>3561.539597056851</v>
       </c>
       <c r="AC6" t="n">
-        <v>3077.01245443214</v>
+        <v>3221.631256565829</v>
       </c>
       <c r="AD6" t="n">
-        <v>2486151.624021437</v>
+        <v>2603000.117523898</v>
       </c>
       <c r="AE6" t="n">
-        <v>3401662.333255061</v>
+        <v>3561539.597056851</v>
       </c>
       <c r="AF6" t="n">
-        <v>1.16592578795115e-06</v>
+        <v>1.714426806130541e-06</v>
       </c>
       <c r="AG6" t="n">
-        <v>28</v>
+        <v>27.22291666666666</v>
       </c>
       <c r="AH6" t="n">
-        <v>3077012.45443214</v>
+        <v>3221631.256565829</v>
       </c>
     </row>
     <row r="7">
@@ -21706,28 +21706,28 @@
         <v>10</v>
       </c>
       <c r="AA7" t="n">
-        <v>2377.162643560572</v>
+        <v>2494.096388409055</v>
       </c>
       <c r="AB7" t="n">
-        <v>3252.538801934029</v>
+        <v>3412.532710388468</v>
       </c>
       <c r="AC7" t="n">
-        <v>2942.121063644202</v>
+        <v>3086.845378028604</v>
       </c>
       <c r="AD7" t="n">
-        <v>2377162.643560572</v>
+        <v>2494096.388409055</v>
       </c>
       <c r="AE7" t="n">
-        <v>3252538.801934029</v>
+        <v>3412532.710388468</v>
       </c>
       <c r="AF7" t="n">
-        <v>1.192129791025447e-06</v>
+        <v>1.752958285374556e-06</v>
       </c>
       <c r="AG7" t="n">
-        <v>27</v>
+        <v>26.62291666666667</v>
       </c>
       <c r="AH7" t="n">
-        <v>2942121.063644202</v>
+        <v>3086845.378028604</v>
       </c>
     </row>
     <row r="8">
@@ -21812,28 +21812,28 @@
         <v>10</v>
       </c>
       <c r="AA8" t="n">
-        <v>2304.461031449242</v>
+        <v>2413.036359684628</v>
       </c>
       <c r="AB8" t="n">
-        <v>3153.065248874539</v>
+        <v>3301.622802971624</v>
       </c>
       <c r="AC8" t="n">
-        <v>2852.141126876704</v>
+        <v>2986.520556512595</v>
       </c>
       <c r="AD8" t="n">
-        <v>2304461.031449242</v>
+        <v>2413036.359684628</v>
       </c>
       <c r="AE8" t="n">
-        <v>3153065.248874539</v>
+        <v>3301622.802971624</v>
       </c>
       <c r="AF8" t="n">
-        <v>1.210716351345588e-06</v>
+        <v>1.780288753210428e-06</v>
       </c>
       <c r="AG8" t="n">
-        <v>27</v>
+        <v>26.21458333333333</v>
       </c>
       <c r="AH8" t="n">
-        <v>2852141.126876704</v>
+        <v>2986520.556512595</v>
       </c>
     </row>
     <row r="9">
@@ -21918,28 +21918,28 @@
         <v>10</v>
       </c>
       <c r="AA9" t="n">
-        <v>2233.880963904993</v>
+        <v>2350.729367898904</v>
       </c>
       <c r="AB9" t="n">
-        <v>3056.494486687672</v>
+        <v>3216.371628019913</v>
       </c>
       <c r="AC9" t="n">
-        <v>2764.78694269504</v>
+        <v>2909.405634047503</v>
       </c>
       <c r="AD9" t="n">
-        <v>2233880.963904993</v>
+        <v>2350729.367898904</v>
       </c>
       <c r="AE9" t="n">
-        <v>3056494.486687672</v>
+        <v>3216371.628019913</v>
       </c>
       <c r="AF9" t="n">
-        <v>1.22640828341915e-06</v>
+        <v>1.803362836711205e-06</v>
       </c>
       <c r="AG9" t="n">
-        <v>26</v>
+        <v>25.88125</v>
       </c>
       <c r="AH9" t="n">
-        <v>2764786.94269504</v>
+        <v>2909405.634047503</v>
       </c>
     </row>
     <row r="10">
@@ -22024,28 +22024,28 @@
         <v>10</v>
       </c>
       <c r="AA10" t="n">
-        <v>2184.413736372363</v>
+        <v>2293.074315953772</v>
       </c>
       <c r="AB10" t="n">
-        <v>2988.811243637294</v>
+        <v>3137.485442387203</v>
       </c>
       <c r="AC10" t="n">
-        <v>2703.563293367476</v>
+        <v>2838.048235254125</v>
       </c>
       <c r="AD10" t="n">
-        <v>2184413.736372363</v>
+        <v>2293074.315953772</v>
       </c>
       <c r="AE10" t="n">
-        <v>2988811.243637295</v>
+        <v>3137485.442387203</v>
       </c>
       <c r="AF10" t="n">
-        <v>1.237377400985135e-06</v>
+        <v>1.819492293138933e-06</v>
       </c>
       <c r="AG10" t="n">
-        <v>26</v>
+        <v>25.65</v>
       </c>
       <c r="AH10" t="n">
-        <v>2703563.293367476</v>
+        <v>2838048.235254125</v>
       </c>
     </row>
     <row r="11">
@@ -22130,28 +22130,28 @@
         <v>10</v>
       </c>
       <c r="AA11" t="n">
-        <v>2140.960544554308</v>
+        <v>2249.450531935126</v>
       </c>
       <c r="AB11" t="n">
-        <v>2929.356669572306</v>
+        <v>3077.797456547364</v>
       </c>
       <c r="AC11" t="n">
-        <v>2649.782980406233</v>
+        <v>2784.056787010228</v>
       </c>
       <c r="AD11" t="n">
-        <v>2140960.544554308</v>
+        <v>2249450.531935126</v>
       </c>
       <c r="AE11" t="n">
-        <v>2929356.669572306</v>
+        <v>3077797.456547364</v>
       </c>
       <c r="AF11" t="n">
-        <v>1.24590893686979e-06</v>
+        <v>1.832037425916054e-06</v>
       </c>
       <c r="AG11" t="n">
-        <v>26</v>
+        <v>25.47708333333334</v>
       </c>
       <c r="AH11" t="n">
-        <v>2649782.980406233</v>
+        <v>2784056.787010228</v>
       </c>
     </row>
     <row r="12">
@@ -22236,28 +22236,28 @@
         <v>10</v>
       </c>
       <c r="AA12" t="n">
-        <v>2101.675894112129</v>
+        <v>2210.165881492947</v>
       </c>
       <c r="AB12" t="n">
-        <v>2875.605677720856</v>
+        <v>3024.046464695911</v>
       </c>
       <c r="AC12" t="n">
-        <v>2601.161907777094</v>
+        <v>2735.435714381089</v>
       </c>
       <c r="AD12" t="n">
-        <v>2101675.894112129</v>
+        <v>2210165.881492947</v>
       </c>
       <c r="AE12" t="n">
-        <v>2875605.677720856</v>
+        <v>3024046.464695911</v>
       </c>
       <c r="AF12" t="n">
-        <v>1.254135775044278e-06</v>
+        <v>1.84413451823685e-06</v>
       </c>
       <c r="AG12" t="n">
-        <v>26</v>
+        <v>25.30833333333333</v>
       </c>
       <c r="AH12" t="n">
-        <v>2601161.907777094</v>
+        <v>2735435.714381089</v>
       </c>
     </row>
     <row r="13">
@@ -22342,28 +22342,28 @@
         <v>10</v>
       </c>
       <c r="AA13" t="n">
-        <v>2064.516703696002</v>
+        <v>2173.006691076817</v>
       </c>
       <c r="AB13" t="n">
-        <v>2824.76283404573</v>
+        <v>2973.203621020607</v>
       </c>
       <c r="AC13" t="n">
-        <v>2555.171433743942</v>
+        <v>2689.445240347891</v>
       </c>
       <c r="AD13" t="n">
-        <v>2064516.703696002</v>
+        <v>2173006.691076817</v>
       </c>
       <c r="AE13" t="n">
-        <v>2824762.83404573</v>
+        <v>2973203.621020607</v>
       </c>
       <c r="AF13" t="n">
-        <v>1.260229729247604e-06</v>
+        <v>1.853095327363365e-06</v>
       </c>
       <c r="AG13" t="n">
-        <v>26</v>
+        <v>25.18541666666667</v>
       </c>
       <c r="AH13" t="n">
-        <v>2555171.433743942</v>
+        <v>2689445.240347891</v>
       </c>
     </row>
     <row r="14">
@@ -22448,28 +22448,28 @@
         <v>10</v>
       </c>
       <c r="AA14" t="n">
-        <v>2030.280469099562</v>
+        <v>2130.582632067874</v>
       </c>
       <c r="AB14" t="n">
-        <v>2777.919307474809</v>
+        <v>2915.157151867181</v>
       </c>
       <c r="AC14" t="n">
-        <v>2512.798587603648</v>
+        <v>2636.938644741736</v>
       </c>
       <c r="AD14" t="n">
-        <v>2030280.469099562</v>
+        <v>2130582.632067874</v>
       </c>
       <c r="AE14" t="n">
-        <v>2777919.307474809</v>
+        <v>2915157.151867181</v>
       </c>
       <c r="AF14" t="n">
-        <v>1.266171334595845e-06</v>
+        <v>1.861832116261717e-06</v>
       </c>
       <c r="AG14" t="n">
-        <v>26</v>
+        <v>25.06666666666666</v>
       </c>
       <c r="AH14" t="n">
-        <v>2512798.587603648</v>
+        <v>2636938.644741735</v>
       </c>
     </row>
     <row r="15">
@@ -22554,28 +22554,28 @@
         <v>10</v>
       </c>
       <c r="AA15" t="n">
-        <v>1987.697831604223</v>
+        <v>2096.273070331059</v>
       </c>
       <c r="AB15" t="n">
-        <v>2719.655864240305</v>
+        <v>2868.213295867833</v>
       </c>
       <c r="AC15" t="n">
-        <v>2460.095725618189</v>
+        <v>2594.47504447285</v>
       </c>
       <c r="AD15" t="n">
-        <v>1987697.831604223</v>
+        <v>2096273.070331058</v>
       </c>
       <c r="AE15" t="n">
-        <v>2719655.864240305</v>
+        <v>2868213.295867832</v>
       </c>
       <c r="AF15" t="n">
-        <v>1.270589451393256e-06</v>
+        <v>1.868328702878441e-06</v>
       </c>
       <c r="AG15" t="n">
-        <v>25</v>
+        <v>24.97916666666667</v>
       </c>
       <c r="AH15" t="n">
-        <v>2460095.725618189</v>
+        <v>2594475.04447285</v>
       </c>
     </row>
     <row r="16">
@@ -22660,28 +22660,28 @@
         <v>10</v>
       </c>
       <c r="AA16" t="n">
-        <v>1952.411345491953</v>
+        <v>2060.986584218788</v>
       </c>
       <c r="AB16" t="n">
-        <v>2671.375337211598</v>
+        <v>2819.932768839126</v>
       </c>
       <c r="AC16" t="n">
-        <v>2416.423024326957</v>
+        <v>2550.802343181618</v>
       </c>
       <c r="AD16" t="n">
-        <v>1952411.345491953</v>
+        <v>2060986.584218788</v>
       </c>
       <c r="AE16" t="n">
-        <v>2671375.337211599</v>
+        <v>2819932.768839126</v>
       </c>
       <c r="AF16" t="n">
-        <v>1.2747028704805e-06</v>
+        <v>1.874377249038839e-06</v>
       </c>
       <c r="AG16" t="n">
-        <v>25</v>
+        <v>24.89791666666667</v>
       </c>
       <c r="AH16" t="n">
-        <v>2416423.024326957</v>
+        <v>2550802.343181618</v>
       </c>
     </row>
     <row r="17">
@@ -22766,28 +22766,28 @@
         <v>10</v>
       </c>
       <c r="AA17" t="n">
-        <v>1935.760116056857</v>
+        <v>2044.335354783692</v>
       </c>
       <c r="AB17" t="n">
-        <v>2648.592390498102</v>
+        <v>2797.14982212563</v>
       </c>
       <c r="AC17" t="n">
-        <v>2395.81445007173</v>
+        <v>2530.193768926391</v>
       </c>
       <c r="AD17" t="n">
-        <v>1935760.116056857</v>
+        <v>2044335.354783692</v>
       </c>
       <c r="AE17" t="n">
-        <v>2648592.390498102</v>
+        <v>2797149.82212563</v>
       </c>
       <c r="AF17" t="n">
-        <v>1.276835754451664e-06</v>
+        <v>1.877513532233119e-06</v>
       </c>
       <c r="AG17" t="n">
-        <v>25</v>
+        <v>24.85833333333333</v>
       </c>
       <c r="AH17" t="n">
-        <v>2395814.45007173</v>
+        <v>2530193.768926391</v>
       </c>
     </row>
     <row r="18">
@@ -22872,28 +22872,28 @@
         <v>10</v>
       </c>
       <c r="AA18" t="n">
-        <v>1933.595146648527</v>
+        <v>2042.170385375362</v>
       </c>
       <c r="AB18" t="n">
-        <v>2645.630183841916</v>
+        <v>2794.187615469443</v>
       </c>
       <c r="AC18" t="n">
-        <v>2393.134952261327</v>
+        <v>2527.514271115988</v>
       </c>
       <c r="AD18" t="n">
-        <v>1933595.146648527</v>
+        <v>2042170.385375362</v>
       </c>
       <c r="AE18" t="n">
-        <v>2645630.183841916</v>
+        <v>2794187.615469443</v>
       </c>
       <c r="AF18" t="n">
-        <v>1.27759749872708e-06</v>
+        <v>1.878633633373934e-06</v>
       </c>
       <c r="AG18" t="n">
-        <v>25</v>
+        <v>24.84375</v>
       </c>
       <c r="AH18" t="n">
-        <v>2393134.952261327</v>
+        <v>2527514.271115988</v>
       </c>
     </row>
     <row r="19">
@@ -22978,28 +22978,28 @@
         <v>10</v>
       </c>
       <c r="AA19" t="n">
-        <v>1940.046906293127</v>
+        <v>2048.622145019962</v>
       </c>
       <c r="AB19" t="n">
-        <v>2654.457766019205</v>
+        <v>2803.015197646732</v>
       </c>
       <c r="AC19" t="n">
-        <v>2401.120042385205</v>
+        <v>2535.499361239866</v>
       </c>
       <c r="AD19" t="n">
-        <v>1940046.906293127</v>
+        <v>2048622.145019962</v>
       </c>
       <c r="AE19" t="n">
-        <v>2654457.766019205</v>
+        <v>2803015.197646732</v>
       </c>
       <c r="AF19" t="n">
-        <v>1.277749847582163e-06</v>
+        <v>1.878857653602096e-06</v>
       </c>
       <c r="AG19" t="n">
-        <v>25</v>
+        <v>24.83958333333333</v>
       </c>
       <c r="AH19" t="n">
-        <v>2401120.042385205</v>
+        <v>2535499.361239866</v>
       </c>
     </row>
     <row r="20">
@@ -23084,28 +23084,28 @@
         <v>10</v>
       </c>
       <c r="AA20" t="n">
-        <v>1945.052621938606</v>
+        <v>2053.627860665441</v>
       </c>
       <c r="AB20" t="n">
-        <v>2661.306807001938</v>
+        <v>2809.864238629465</v>
       </c>
       <c r="AC20" t="n">
-        <v>2407.315420509235</v>
+        <v>2541.694739363896</v>
       </c>
       <c r="AD20" t="n">
-        <v>1945052.621938606</v>
+        <v>2053627.860665441</v>
       </c>
       <c r="AE20" t="n">
-        <v>2661306.807001938</v>
+        <v>2809864.238629465</v>
       </c>
       <c r="AF20" t="n">
-        <v>1.278663940712662e-06</v>
+        <v>1.880201774971074e-06</v>
       </c>
       <c r="AG20" t="n">
-        <v>25</v>
+        <v>24.82291666666667</v>
       </c>
       <c r="AH20" t="n">
-        <v>2407315.420509235</v>
+        <v>2541694.739363896</v>
       </c>
     </row>
   </sheetData>
@@ -23381,28 +23381,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>12642.66609293653</v>
+        <v>12934.19799696456</v>
       </c>
       <c r="AB2" t="n">
-        <v>17298.25350342039</v>
+        <v>17697.14031599145</v>
       </c>
       <c r="AC2" t="n">
-        <v>15647.33246730457</v>
+        <v>16008.15008232499</v>
       </c>
       <c r="AD2" t="n">
-        <v>12642666.09293653</v>
+        <v>12934197.99696456</v>
       </c>
       <c r="AE2" t="n">
-        <v>17298253.50342039</v>
+        <v>17697140.31599145</v>
       </c>
       <c r="AF2" t="n">
-        <v>4.623271896862581e-07</v>
+        <v>6.688822671219773e-07</v>
       </c>
       <c r="AG2" t="n">
-        <v>67</v>
+        <v>66.26458333333333</v>
       </c>
       <c r="AH2" t="n">
-        <v>15647332.46730457</v>
+        <v>16008150.08232499</v>
       </c>
     </row>
     <row r="3">
@@ -23487,28 +23487,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>4572.156204090757</v>
+        <v>4735.128772194438</v>
       </c>
       <c r="AB3" t="n">
-        <v>6255.825827733127</v>
+        <v>6478.812085254871</v>
       </c>
       <c r="AC3" t="n">
-        <v>5658.778590840736</v>
+        <v>5860.483352907773</v>
       </c>
       <c r="AD3" t="n">
-        <v>4572156.204090757</v>
+        <v>4735128.772194439</v>
       </c>
       <c r="AE3" t="n">
-        <v>6255825.827733127</v>
+        <v>6478812.085254871</v>
       </c>
       <c r="AF3" t="n">
-        <v>8.343652908014721e-07</v>
+        <v>1.207136763247487e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>37</v>
+        <v>36.72083333333333</v>
       </c>
       <c r="AH3" t="n">
-        <v>5658778.590840735</v>
+        <v>5860483.352907773</v>
       </c>
     </row>
     <row r="4">
@@ -23593,28 +23593,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>3565.138894161516</v>
+        <v>3702.450817494783</v>
       </c>
       <c r="AB4" t="n">
-        <v>4877.98031781961</v>
+        <v>5065.856549098718</v>
       </c>
       <c r="AC4" t="n">
-        <v>4412.432722575099</v>
+        <v>4582.378310026867</v>
       </c>
       <c r="AD4" t="n">
-        <v>3565138.894161516</v>
+        <v>3702450.817494783</v>
       </c>
       <c r="AE4" t="n">
-        <v>4877980.31781961</v>
+        <v>5065856.549098719</v>
       </c>
       <c r="AF4" t="n">
-        <v>9.709753287208532e-07</v>
+        <v>1.404780410243771e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>32</v>
+        <v>31.55</v>
       </c>
       <c r="AH4" t="n">
-        <v>4412432.722575098</v>
+        <v>4582378.310026867</v>
       </c>
     </row>
     <row r="5">
@@ -23699,28 +23699,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>3167.589742512278</v>
+        <v>3296.149078436623</v>
       </c>
       <c r="AB5" t="n">
-        <v>4334.036029902335</v>
+        <v>4509.936584951653</v>
       </c>
       <c r="AC5" t="n">
-        <v>3920.401714066064</v>
+        <v>4079.514567019448</v>
       </c>
       <c r="AD5" t="n">
-        <v>3167589.742512277</v>
+        <v>3296149.078436623</v>
       </c>
       <c r="AE5" t="n">
-        <v>4334036.029902335</v>
+        <v>4509936.584951652</v>
       </c>
       <c r="AF5" t="n">
-        <v>1.043471290716822e-06</v>
+        <v>1.509665574903801e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>30</v>
+        <v>29.35833333333333</v>
       </c>
       <c r="AH5" t="n">
-        <v>3920401.714066064</v>
+        <v>4079514.567019448</v>
       </c>
     </row>
     <row r="6">
@@ -23805,28 +23805,28 @@
         <v>10</v>
       </c>
       <c r="AA6" t="n">
-        <v>2952.954899187796</v>
+        <v>3073.017580758384</v>
       </c>
       <c r="AB6" t="n">
-        <v>4040.363168244764</v>
+        <v>4204.638225961334</v>
       </c>
       <c r="AC6" t="n">
-        <v>3654.756578152653</v>
+        <v>3803.35345492224</v>
       </c>
       <c r="AD6" t="n">
-        <v>2952954.899187796</v>
+        <v>3073017.580758383</v>
       </c>
       <c r="AE6" t="n">
-        <v>4040363.168244764</v>
+        <v>4204638.225961334</v>
       </c>
       <c r="AF6" t="n">
-        <v>1.08832173373664e-06</v>
+        <v>1.574553962776639e-06</v>
       </c>
       <c r="AG6" t="n">
-        <v>29</v>
+        <v>28.14791666666667</v>
       </c>
       <c r="AH6" t="n">
-        <v>3654756.578152653</v>
+        <v>3803353.45492224</v>
       </c>
     </row>
     <row r="7">
@@ -23911,28 +23911,28 @@
         <v>10</v>
       </c>
       <c r="AA7" t="n">
-        <v>2815.730139617631</v>
+        <v>2935.707480333647</v>
       </c>
       <c r="AB7" t="n">
-        <v>3852.606198271727</v>
+        <v>4016.7644888661</v>
       </c>
       <c r="AC7" t="n">
-        <v>3484.918869875288</v>
+        <v>3633.410123612934</v>
       </c>
       <c r="AD7" t="n">
-        <v>2815730.139617631</v>
+        <v>2935707.480333647</v>
       </c>
       <c r="AE7" t="n">
-        <v>3852606.198271727</v>
+        <v>4016764.4888661</v>
       </c>
       <c r="AF7" t="n">
-        <v>1.118025961572716e-06</v>
+        <v>1.617529222941601e-06</v>
       </c>
       <c r="AG7" t="n">
-        <v>28</v>
+        <v>27.40208333333333</v>
       </c>
       <c r="AH7" t="n">
-        <v>3484918.869875288</v>
+        <v>3633410.123612934</v>
       </c>
     </row>
     <row r="8">
@@ -24017,28 +24017,28 @@
         <v>10</v>
       </c>
       <c r="AA8" t="n">
-        <v>2713.40340159897</v>
+        <v>2833.465993661007</v>
       </c>
       <c r="AB8" t="n">
-        <v>3712.598240977512</v>
+        <v>3876.873176224534</v>
       </c>
       <c r="AC8" t="n">
-        <v>3358.273075522836</v>
+        <v>3506.869841511195</v>
       </c>
       <c r="AD8" t="n">
-        <v>2713403.40159897</v>
+        <v>2833465.993661007</v>
       </c>
       <c r="AE8" t="n">
-        <v>3712598.240977512</v>
+        <v>3876873.176224534</v>
       </c>
       <c r="AF8" t="n">
-        <v>1.140230607133348e-06</v>
+        <v>1.649654293658973e-06</v>
       </c>
       <c r="AG8" t="n">
-        <v>27</v>
+        <v>26.86875</v>
       </c>
       <c r="AH8" t="n">
-        <v>3358273.075522836</v>
+        <v>3506869.841511196</v>
       </c>
     </row>
     <row r="9">
@@ -24123,28 +24123,28 @@
         <v>10</v>
       </c>
       <c r="AA9" t="n">
-        <v>2644.574311977389</v>
+        <v>2764.466311838834</v>
       </c>
       <c r="AB9" t="n">
-        <v>3618.423244032133</v>
+        <v>3782.464767504308</v>
       </c>
       <c r="AC9" t="n">
-        <v>3273.086008110488</v>
+        <v>3421.471638816197</v>
       </c>
       <c r="AD9" t="n">
-        <v>2644574.311977389</v>
+        <v>2764466.311838834</v>
       </c>
       <c r="AE9" t="n">
-        <v>3618423.244032133</v>
+        <v>3782464.767504308</v>
       </c>
       <c r="AF9" t="n">
-        <v>1.156700278012756e-06</v>
+        <v>1.67348216068113e-06</v>
       </c>
       <c r="AG9" t="n">
-        <v>27</v>
+        <v>26.48541666666667</v>
       </c>
       <c r="AH9" t="n">
-        <v>3273086.008110488</v>
+        <v>3421471.638816197</v>
       </c>
     </row>
     <row r="10">
@@ -24229,28 +24229,28 @@
         <v>10</v>
       </c>
       <c r="AA10" t="n">
-        <v>2588.465532795498</v>
+        <v>2699.946219157757</v>
       </c>
       <c r="AB10" t="n">
-        <v>3541.652737010829</v>
+        <v>3694.185530272454</v>
       </c>
       <c r="AC10" t="n">
-        <v>3203.642370531216</v>
+        <v>3341.617648085067</v>
       </c>
       <c r="AD10" t="n">
-        <v>2588465.532795498</v>
+        <v>2699946.219157757</v>
       </c>
       <c r="AE10" t="n">
-        <v>3541652.737010829</v>
+        <v>3694185.530272454</v>
       </c>
       <c r="AF10" t="n">
-        <v>1.169493683070869e-06</v>
+        <v>1.691991307385841e-06</v>
       </c>
       <c r="AG10" t="n">
-        <v>27</v>
+        <v>26.19583333333333</v>
       </c>
       <c r="AH10" t="n">
-        <v>3203642.370531216</v>
+        <v>3341617.648085067</v>
       </c>
     </row>
     <row r="11">
@@ -24335,28 +24335,28 @@
         <v>10</v>
       </c>
       <c r="AA11" t="n">
-        <v>2528.586088218432</v>
+        <v>2648.563339425897</v>
       </c>
       <c r="AB11" t="n">
-        <v>3459.723039245828</v>
+        <v>3623.881207370652</v>
       </c>
       <c r="AC11" t="n">
-        <v>3129.531928131858</v>
+        <v>3278.023071088279</v>
       </c>
       <c r="AD11" t="n">
-        <v>2528586.088218431</v>
+        <v>2648563.339425897</v>
       </c>
       <c r="AE11" t="n">
-        <v>3459723.039245828</v>
+        <v>3623881.207370652</v>
       </c>
       <c r="AF11" t="n">
-        <v>1.180816581800462e-06</v>
+        <v>1.708372965963574e-06</v>
       </c>
       <c r="AG11" t="n">
-        <v>26</v>
+        <v>25.94375</v>
       </c>
       <c r="AH11" t="n">
-        <v>3129531.928131858</v>
+        <v>3278023.071088279</v>
       </c>
     </row>
     <row r="12">
@@ -24441,28 +24441,28 @@
         <v>10</v>
       </c>
       <c r="AA12" t="n">
-        <v>2488.707776908043</v>
+        <v>2608.685028115508</v>
       </c>
       <c r="AB12" t="n">
-        <v>3405.159774404023</v>
+        <v>3569.317942528847</v>
       </c>
       <c r="AC12" t="n">
-        <v>3080.176104706533</v>
+        <v>3228.667247662955</v>
       </c>
       <c r="AD12" t="n">
-        <v>2488707.776908043</v>
+        <v>2608685.028115509</v>
       </c>
       <c r="AE12" t="n">
-        <v>3405159.774404023</v>
+        <v>3569317.942528847</v>
       </c>
       <c r="AF12" t="n">
-        <v>1.189786670404426e-06</v>
+        <v>1.721350643538142e-06</v>
       </c>
       <c r="AG12" t="n">
-        <v>26</v>
+        <v>25.74791666666667</v>
       </c>
       <c r="AH12" t="n">
-        <v>3080176.104706533</v>
+        <v>3228667.247662954</v>
       </c>
     </row>
     <row r="13">
@@ -24547,28 +24547,28 @@
         <v>10</v>
       </c>
       <c r="AA13" t="n">
-        <v>2454.548450435924</v>
+        <v>2566.114388144204</v>
       </c>
       <c r="AB13" t="n">
-        <v>3358.421476921741</v>
+        <v>3511.070914836017</v>
       </c>
       <c r="AC13" t="n">
-        <v>3037.89844473835</v>
+        <v>3175.979234542913</v>
       </c>
       <c r="AD13" t="n">
-        <v>2454548.450435924</v>
+        <v>2566114.388144203</v>
       </c>
       <c r="AE13" t="n">
-        <v>3358421.476921741</v>
+        <v>3511070.914836016</v>
       </c>
       <c r="AF13" t="n">
-        <v>1.196403948882759e-06</v>
+        <v>1.730924340109544e-06</v>
       </c>
       <c r="AG13" t="n">
-        <v>26</v>
+        <v>25.60625</v>
       </c>
       <c r="AH13" t="n">
-        <v>3037898.44473835</v>
+        <v>3175979.234542913</v>
       </c>
     </row>
     <row r="14">
@@ -24653,28 +24653,28 @@
         <v>10</v>
       </c>
       <c r="AA14" t="n">
-        <v>2423.953220832553</v>
+        <v>2535.348566340241</v>
       </c>
       <c r="AB14" t="n">
-        <v>3316.559734012139</v>
+        <v>3468.975760151567</v>
       </c>
       <c r="AC14" t="n">
-        <v>3000.031927818717</v>
+        <v>3137.901582340628</v>
       </c>
       <c r="AD14" t="n">
-        <v>2423953.220832553</v>
+        <v>2535348.566340241</v>
       </c>
       <c r="AE14" t="n">
-        <v>3316559.734012139</v>
+        <v>3468975.760151567</v>
       </c>
       <c r="AF14" t="n">
-        <v>1.202580075462538e-06</v>
+        <v>1.739859790242853e-06</v>
       </c>
       <c r="AG14" t="n">
-        <v>26</v>
+        <v>25.475</v>
       </c>
       <c r="AH14" t="n">
-        <v>3000031.927818717</v>
+        <v>3137901.582340628</v>
       </c>
     </row>
     <row r="15">
@@ -24759,28 +24759,28 @@
         <v>10</v>
       </c>
       <c r="AA15" t="n">
-        <v>2395.48039529285</v>
+        <v>2506.875740800537</v>
       </c>
       <c r="AB15" t="n">
-        <v>3277.601957976304</v>
+        <v>3430.017984115732</v>
       </c>
       <c r="AC15" t="n">
-        <v>2964.792227250161</v>
+        <v>3102.661881772073</v>
       </c>
       <c r="AD15" t="n">
-        <v>2395480.39529285</v>
+        <v>2506875.740800537</v>
       </c>
       <c r="AE15" t="n">
-        <v>3277601.957976304</v>
+        <v>3430017.984115732</v>
       </c>
       <c r="AF15" t="n">
-        <v>1.207873898245205e-06</v>
+        <v>1.747518747499975e-06</v>
       </c>
       <c r="AG15" t="n">
-        <v>26</v>
+        <v>25.3625</v>
       </c>
       <c r="AH15" t="n">
-        <v>2964792.227250162</v>
+        <v>3102661.881772073</v>
       </c>
     </row>
     <row r="16">
@@ -24865,28 +24865,28 @@
         <v>10</v>
       </c>
       <c r="AA16" t="n">
-        <v>2362.851679363573</v>
+        <v>2474.247024871259</v>
       </c>
       <c r="AB16" t="n">
-        <v>3232.95790936451</v>
+        <v>3385.373935503938</v>
       </c>
       <c r="AC16" t="n">
-        <v>2924.408943979563</v>
+        <v>3062.278598501475</v>
       </c>
       <c r="AD16" t="n">
-        <v>2362851.679363573</v>
+        <v>2474247.024871259</v>
       </c>
       <c r="AE16" t="n">
-        <v>3232957.90936451</v>
+        <v>3385373.935503938</v>
       </c>
       <c r="AF16" t="n">
-        <v>1.212873619762168e-06</v>
+        <v>1.754752207131701e-06</v>
       </c>
       <c r="AG16" t="n">
-        <v>26</v>
+        <v>25.25625</v>
       </c>
       <c r="AH16" t="n">
-        <v>2924408.943979564</v>
+        <v>3062278.598501475</v>
       </c>
     </row>
     <row r="17">
@@ -24971,28 +24971,28 @@
         <v>10</v>
       </c>
       <c r="AA17" t="n">
-        <v>2336.348870403935</v>
+        <v>2447.744215911623</v>
       </c>
       <c r="AB17" t="n">
-        <v>3196.695596924521</v>
+        <v>3349.11162306395</v>
       </c>
       <c r="AC17" t="n">
-        <v>2891.607455744373</v>
+        <v>3029.477110266285</v>
       </c>
       <c r="AD17" t="n">
-        <v>2336348.870403935</v>
+        <v>2447744.215911623</v>
       </c>
       <c r="AE17" t="n">
-        <v>3196695.596924521</v>
+        <v>3349111.623063949</v>
       </c>
       <c r="AF17" t="n">
-        <v>1.217432189380576e-06</v>
+        <v>1.761347420325334e-06</v>
       </c>
       <c r="AG17" t="n">
-        <v>26</v>
+        <v>25.16458333333334</v>
       </c>
       <c r="AH17" t="n">
-        <v>2891607.455744373</v>
+        <v>3029477.110266285</v>
       </c>
     </row>
     <row r="18">
@@ -25077,28 +25077,28 @@
         <v>10</v>
       </c>
       <c r="AA18" t="n">
-        <v>2313.613580172023</v>
+        <v>2425.008925679711</v>
       </c>
       <c r="AB18" t="n">
-        <v>3165.588169819001</v>
+        <v>3318.00419595843</v>
       </c>
       <c r="AC18" t="n">
-        <v>2863.468877822258</v>
+        <v>3001.338532344168</v>
       </c>
       <c r="AD18" t="n">
-        <v>2313613.580172023</v>
+        <v>2425008.925679711</v>
       </c>
       <c r="AE18" t="n">
-        <v>3165588.169819002</v>
+        <v>3318004.19595843</v>
       </c>
       <c r="AF18" t="n">
-        <v>1.220520252670465e-06</v>
+        <v>1.765815145391988e-06</v>
       </c>
       <c r="AG18" t="n">
-        <v>26</v>
+        <v>25.1</v>
       </c>
       <c r="AH18" t="n">
-        <v>2863468.877822258</v>
+        <v>3001338.532344169</v>
       </c>
     </row>
     <row r="19">
@@ -25183,28 +25183,28 @@
         <v>10</v>
       </c>
       <c r="AA19" t="n">
-        <v>2290.262101717597</v>
+        <v>2393.246133726097</v>
       </c>
       <c r="AB19" t="n">
-        <v>3133.637646803132</v>
+        <v>3274.54494273201</v>
       </c>
       <c r="AC19" t="n">
-        <v>2834.567667880182</v>
+        <v>2962.026969250236</v>
       </c>
       <c r="AD19" t="n">
-        <v>2290262.101717596</v>
+        <v>2393246.133726098</v>
       </c>
       <c r="AE19" t="n">
-        <v>3133637.646803132</v>
+        <v>3274544.942732011</v>
       </c>
       <c r="AF19" t="n">
-        <v>1.22404946785891e-06</v>
+        <v>1.770921116896736e-06</v>
       </c>
       <c r="AG19" t="n">
-        <v>26</v>
+        <v>25.02708333333333</v>
       </c>
       <c r="AH19" t="n">
-        <v>2834567.667880182</v>
+        <v>2962026.969250236</v>
       </c>
     </row>
     <row r="20">
@@ -25289,28 +25289,28 @@
         <v>10</v>
       </c>
       <c r="AA20" t="n">
-        <v>2250.173677834335</v>
+        <v>2361.654274688043</v>
       </c>
       <c r="AB20" t="n">
-        <v>3078.786896669608</v>
+        <v>3231.319567461685</v>
       </c>
       <c r="AC20" t="n">
-        <v>2784.951796355893</v>
+        <v>2922.926963128517</v>
       </c>
       <c r="AD20" t="n">
-        <v>2250173.677834335</v>
+        <v>2361654.274688043</v>
       </c>
       <c r="AE20" t="n">
-        <v>3078786.896669608</v>
+        <v>3231319.567461685</v>
       </c>
       <c r="AF20" t="n">
-        <v>1.227284581781651e-06</v>
+        <v>1.775601590776088e-06</v>
       </c>
       <c r="AG20" t="n">
-        <v>25</v>
+        <v>24.9625</v>
       </c>
       <c r="AH20" t="n">
-        <v>2784951.796355893</v>
+        <v>2922926.963128517</v>
       </c>
     </row>
     <row r="21">
@@ -25395,28 +25395,28 @@
         <v>10</v>
       </c>
       <c r="AA21" t="n">
-        <v>2236.028088610753</v>
+        <v>2347.508685464461</v>
       </c>
       <c r="AB21" t="n">
-        <v>3059.432277434549</v>
+        <v>3211.964948226628</v>
       </c>
       <c r="AC21" t="n">
-        <v>2767.44435481625</v>
+        <v>2905.419521588874</v>
       </c>
       <c r="AD21" t="n">
-        <v>2236028.088610753</v>
+        <v>2347508.685464461</v>
       </c>
       <c r="AE21" t="n">
-        <v>3059432.277434549</v>
+        <v>3211964.948226628</v>
       </c>
       <c r="AF21" t="n">
-        <v>1.229049189375873e-06</v>
+        <v>1.778154576528462e-06</v>
       </c>
       <c r="AG21" t="n">
-        <v>25</v>
+        <v>24.925</v>
       </c>
       <c r="AH21" t="n">
-        <v>2767444.354816251</v>
+        <v>2905419.521588875</v>
       </c>
     </row>
     <row r="22">
@@ -25501,28 +25501,28 @@
         <v>10</v>
       </c>
       <c r="AA22" t="n">
-        <v>2217.319215146302</v>
+        <v>2328.79981200001</v>
       </c>
       <c r="AB22" t="n">
-        <v>3033.833971383242</v>
+        <v>3186.366642175319</v>
       </c>
       <c r="AC22" t="n">
-        <v>2744.289115167032</v>
+        <v>2882.264281939656</v>
       </c>
       <c r="AD22" t="n">
-        <v>2217319.215146302</v>
+        <v>2328799.81200001</v>
       </c>
       <c r="AE22" t="n">
-        <v>3033833.971383242</v>
+        <v>3186366.642175319</v>
       </c>
       <c r="AF22" t="n">
-        <v>1.231549050134355e-06</v>
+        <v>1.781771306344326e-06</v>
       </c>
       <c r="AG22" t="n">
-        <v>25</v>
+        <v>24.87708333333333</v>
       </c>
       <c r="AH22" t="n">
-        <v>2744289.115167032</v>
+        <v>2882264.281939656</v>
       </c>
     </row>
     <row r="23">
@@ -25607,28 +25607,28 @@
         <v>10</v>
       </c>
       <c r="AA23" t="n">
-        <v>2188.765615722331</v>
+        <v>2300.246212576042</v>
       </c>
       <c r="AB23" t="n">
-        <v>2994.765676955288</v>
+        <v>3147.298347747541</v>
       </c>
       <c r="AC23" t="n">
-        <v>2708.949443926701</v>
+        <v>2846.924610699371</v>
       </c>
       <c r="AD23" t="n">
-        <v>2188765.615722331</v>
+        <v>2300246.212576042</v>
       </c>
       <c r="AE23" t="n">
-        <v>2994765.676955288</v>
+        <v>3147298.347747541</v>
       </c>
       <c r="AF23" t="n">
-        <v>1.234195961525688e-06</v>
+        <v>1.785600784972887e-06</v>
       </c>
       <c r="AG23" t="n">
-        <v>25</v>
+        <v>24.82083333333334</v>
       </c>
       <c r="AH23" t="n">
-        <v>2708949.443926701</v>
+        <v>2846924.610699371</v>
       </c>
     </row>
     <row r="24">
@@ -25713,28 +25713,28 @@
         <v>10</v>
       </c>
       <c r="AA24" t="n">
-        <v>2177.457265780591</v>
+        <v>2288.937862634301</v>
       </c>
       <c r="AB24" t="n">
-        <v>2979.29309367581</v>
+        <v>3131.825764468062</v>
       </c>
       <c r="AC24" t="n">
-        <v>2694.953542279509</v>
+        <v>2832.928709052178</v>
       </c>
       <c r="AD24" t="n">
-        <v>2177457.265780591</v>
+        <v>2288937.862634301</v>
       </c>
       <c r="AE24" t="n">
-        <v>2979293.09367581</v>
+        <v>3131825.764468062</v>
       </c>
       <c r="AF24" t="n">
-        <v>1.235519417221355e-06</v>
+        <v>1.787515524287167e-06</v>
       </c>
       <c r="AG24" t="n">
-        <v>25</v>
+        <v>24.79583333333333</v>
       </c>
       <c r="AH24" t="n">
-        <v>2694953.542279509</v>
+        <v>2832928.709052179</v>
       </c>
     </row>
     <row r="25">
@@ -25819,28 +25819,28 @@
         <v>10</v>
       </c>
       <c r="AA25" t="n">
-        <v>2170.985931344273</v>
+        <v>2282.466528197984</v>
       </c>
       <c r="AB25" t="n">
-        <v>2970.438728404914</v>
+        <v>3122.971399197166</v>
       </c>
       <c r="AC25" t="n">
-        <v>2686.944225202888</v>
+        <v>2824.919391975558</v>
       </c>
       <c r="AD25" t="n">
-        <v>2170985.931344274</v>
+        <v>2282466.528197984</v>
       </c>
       <c r="AE25" t="n">
-        <v>2970438.728404914</v>
+        <v>3122971.399197166</v>
       </c>
       <c r="AF25" t="n">
-        <v>1.23669582228417e-06</v>
+        <v>1.78921751478875e-06</v>
       </c>
       <c r="AG25" t="n">
-        <v>25</v>
+        <v>24.77083333333333</v>
       </c>
       <c r="AH25" t="n">
-        <v>2686944.225202888</v>
+        <v>2824919.391975557</v>
       </c>
     </row>
     <row r="26">
@@ -25925,28 +25925,28 @@
         <v>10</v>
       </c>
       <c r="AA26" t="n">
-        <v>2166.637541145705</v>
+        <v>2278.118137999415</v>
       </c>
       <c r="AB26" t="n">
-        <v>2964.489069097796</v>
+        <v>3117.021739890047</v>
       </c>
       <c r="AC26" t="n">
-        <v>2681.562393029642</v>
+        <v>2819.537559802312</v>
       </c>
       <c r="AD26" t="n">
-        <v>2166637.541145705</v>
+        <v>2278118.137999415</v>
       </c>
       <c r="AE26" t="n">
-        <v>2964489.069097796</v>
+        <v>3117021.739890047</v>
       </c>
       <c r="AF26" t="n">
-        <v>1.23669582228417e-06</v>
+        <v>1.78921751478875e-06</v>
       </c>
       <c r="AG26" t="n">
-        <v>25</v>
+        <v>24.77291666666666</v>
       </c>
       <c r="AH26" t="n">
-        <v>2681562.393029642</v>
+        <v>2819537.559802311</v>
       </c>
     </row>
     <row r="27">
@@ -26031,28 +26031,28 @@
         <v>10</v>
       </c>
       <c r="AA27" t="n">
-        <v>2172.696774812171</v>
+        <v>2284.177371665881</v>
       </c>
       <c r="AB27" t="n">
-        <v>2972.779579914778</v>
+        <v>3125.31225070703</v>
       </c>
       <c r="AC27" t="n">
-        <v>2689.061669130057</v>
+        <v>2827.036835902726</v>
       </c>
       <c r="AD27" t="n">
-        <v>2172696.774812171</v>
+        <v>2284177.371665881</v>
       </c>
       <c r="AE27" t="n">
-        <v>2972779.579914778</v>
+        <v>3125312.25070703</v>
       </c>
       <c r="AF27" t="n">
-        <v>1.237431075448429e-06</v>
+        <v>1.790281258852239e-06</v>
       </c>
       <c r="AG27" t="n">
-        <v>25</v>
+        <v>24.75625</v>
       </c>
       <c r="AH27" t="n">
-        <v>2689061.669130057</v>
+        <v>2827036.835902726</v>
       </c>
     </row>
     <row r="28">
@@ -26137,28 +26137,28 @@
         <v>10</v>
       </c>
       <c r="AA28" t="n">
-        <v>2181.951053858396</v>
+        <v>2293.431650712107</v>
       </c>
       <c r="AB28" t="n">
-        <v>2985.441692775801</v>
+        <v>3137.974363568052</v>
       </c>
       <c r="AC28" t="n">
-        <v>2700.51532771101</v>
+        <v>2838.490494483679</v>
       </c>
       <c r="AD28" t="n">
-        <v>2181951.053858396</v>
+        <v>2293431.650712106</v>
       </c>
       <c r="AE28" t="n">
-        <v>2985441.692775801</v>
+        <v>3137974.363568053</v>
       </c>
       <c r="AF28" t="n">
-        <v>1.237431075448429e-06</v>
+        <v>1.790281258852239e-06</v>
       </c>
       <c r="AG28" t="n">
-        <v>25</v>
+        <v>24.75833333333334</v>
       </c>
       <c r="AH28" t="n">
-        <v>2700515.32771101</v>
+        <v>2838490.49448368</v>
       </c>
     </row>
   </sheetData>
@@ -26434,28 +26434,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>4834.466908976996</v>
+        <v>5012.404119906781</v>
       </c>
       <c r="AB2" t="n">
-        <v>6614.730906490066</v>
+        <v>6858.192448519929</v>
       </c>
       <c r="AC2" t="n">
-        <v>5983.430272607538</v>
+        <v>6203.656186766484</v>
       </c>
       <c r="AD2" t="n">
-        <v>4834466.908976996</v>
+        <v>5012404.11990678</v>
       </c>
       <c r="AE2" t="n">
-        <v>6614730.906490065</v>
+        <v>6858192.448519928</v>
       </c>
       <c r="AF2" t="n">
-        <v>7.695003887814104e-07</v>
+        <v>1.15554689432685e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>44</v>
+        <v>43.07083333333333</v>
       </c>
       <c r="AH2" t="n">
-        <v>5983430.272607539</v>
+        <v>6203656.186766484</v>
       </c>
     </row>
     <row r="3">
@@ -26540,28 +26540,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>2729.664494859419</v>
+        <v>2851.101722865954</v>
       </c>
       <c r="AB3" t="n">
-        <v>3734.847386165263</v>
+        <v>3901.003158956205</v>
       </c>
       <c r="AC3" t="n">
-        <v>3378.398793520738</v>
+        <v>3528.696892557597</v>
       </c>
       <c r="AD3" t="n">
-        <v>2729664.494859419</v>
+        <v>2851101.722865954</v>
       </c>
       <c r="AE3" t="n">
-        <v>3734847.386165263</v>
+        <v>3901003.158956205</v>
       </c>
       <c r="AF3" t="n">
-        <v>1.06890078813775e-06</v>
+        <v>1.605151867476143e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>32</v>
+        <v>31.00833333333334</v>
       </c>
       <c r="AH3" t="n">
-        <v>3378398.793520738</v>
+        <v>3528696.892557598</v>
       </c>
     </row>
     <row r="4">
@@ -26646,28 +26646,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>2310.379339552758</v>
+        <v>2423.635417471523</v>
       </c>
       <c r="AB4" t="n">
-        <v>3161.162939119097</v>
+        <v>3316.124901433083</v>
       </c>
       <c r="AC4" t="n">
-        <v>2859.465984929502</v>
+        <v>2999.638595050714</v>
       </c>
       <c r="AD4" t="n">
-        <v>2310379.339552758</v>
+        <v>2423635.417471523</v>
       </c>
       <c r="AE4" t="n">
-        <v>3161162.939119097</v>
+        <v>3316124.901433083</v>
       </c>
       <c r="AF4" t="n">
-        <v>1.173261394927207e-06</v>
+        <v>1.761868585003208e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>29</v>
+        <v>28.24791666666667</v>
       </c>
       <c r="AH4" t="n">
-        <v>2859465.984929502</v>
+        <v>2999638.595050714</v>
       </c>
     </row>
     <row r="5">
@@ -26752,28 +26752,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>2122.276257906877</v>
+        <v>2227.521867447017</v>
       </c>
       <c r="AB5" t="n">
-        <v>2903.792004288739</v>
+        <v>3047.793690370333</v>
       </c>
       <c r="AC5" t="n">
-        <v>2626.658170897096</v>
+        <v>2756.916538166583</v>
       </c>
       <c r="AD5" t="n">
-        <v>2122276.257906877</v>
+        <v>2227521.867447017</v>
       </c>
       <c r="AE5" t="n">
-        <v>2903792.00428874</v>
+        <v>3047793.690370332</v>
       </c>
       <c r="AF5" t="n">
-        <v>1.227191647521149e-06</v>
+        <v>1.842854815554542e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>28</v>
+        <v>27.00625</v>
       </c>
       <c r="AH5" t="n">
-        <v>2626658.170897096</v>
+        <v>2756916.538166584</v>
       </c>
     </row>
     <row r="6">
@@ -26858,28 +26858,28 @@
         <v>10</v>
       </c>
       <c r="AA6" t="n">
-        <v>2003.059572484436</v>
+        <v>2108.219841170001</v>
       </c>
       <c r="AB6" t="n">
-        <v>2740.67447582479</v>
+        <v>2884.559394784006</v>
       </c>
       <c r="AC6" t="n">
-        <v>2479.108350412857</v>
+        <v>2609.261094650358</v>
       </c>
       <c r="AD6" t="n">
-        <v>2003059.572484436</v>
+        <v>2108219.841170001</v>
       </c>
       <c r="AE6" t="n">
-        <v>2740674.47582479</v>
+        <v>2884559.394784006</v>
       </c>
       <c r="AF6" t="n">
-        <v>1.259963423433692e-06</v>
+        <v>1.892067687217004e-06</v>
       </c>
       <c r="AG6" t="n">
-        <v>27</v>
+        <v>26.30625</v>
       </c>
       <c r="AH6" t="n">
-        <v>2479108.350412857</v>
+        <v>2609261.094650358</v>
       </c>
     </row>
     <row r="7">
@@ -26964,28 +26964,28 @@
         <v>10</v>
       </c>
       <c r="AA7" t="n">
-        <v>1916.914244054854</v>
+        <v>2030.084891610496</v>
       </c>
       <c r="AB7" t="n">
-        <v>2622.806637003769</v>
+        <v>2777.651709725999</v>
       </c>
       <c r="AC7" t="n">
-        <v>2372.489652700364</v>
+        <v>2512.556529008408</v>
       </c>
       <c r="AD7" t="n">
-        <v>1916914.244054854</v>
+        <v>2030084.891610496</v>
       </c>
       <c r="AE7" t="n">
-        <v>2622806.637003769</v>
+        <v>2777651.709725999</v>
       </c>
       <c r="AF7" t="n">
-        <v>1.281599158987604e-06</v>
+        <v>1.92455773841164e-06</v>
       </c>
       <c r="AG7" t="n">
-        <v>26</v>
+        <v>25.85833333333333</v>
       </c>
       <c r="AH7" t="n">
-        <v>2372489.652700364</v>
+        <v>2512556.529008408</v>
       </c>
     </row>
     <row r="8">
@@ -27070,28 +27070,28 @@
         <v>10</v>
       </c>
       <c r="AA8" t="n">
-        <v>1852.249517168867</v>
+        <v>1957.495037200453</v>
       </c>
       <c r="AB8" t="n">
-        <v>2534.329504871952</v>
+        <v>2678.331068483818</v>
       </c>
       <c r="AC8" t="n">
-        <v>2292.456653880772</v>
+        <v>2422.714910368986</v>
       </c>
       <c r="AD8" t="n">
-        <v>1852249.517168867</v>
+        <v>1957495.037200453</v>
       </c>
       <c r="AE8" t="n">
-        <v>2534329.504871952</v>
+        <v>2678331.068483818</v>
       </c>
       <c r="AF8" t="n">
-        <v>1.297666874362201e-06</v>
+        <v>1.948686379372362e-06</v>
       </c>
       <c r="AG8" t="n">
-        <v>26</v>
+        <v>25.53958333333334</v>
       </c>
       <c r="AH8" t="n">
-        <v>2292456.653880772</v>
+        <v>2422714.910368986</v>
       </c>
     </row>
     <row r="9">
@@ -27176,28 +27176,28 @@
         <v>10</v>
       </c>
       <c r="AA9" t="n">
-        <v>1798.026091457439</v>
+        <v>1903.101019288433</v>
       </c>
       <c r="AB9" t="n">
-        <v>2460.138621644865</v>
+        <v>2603.906773481883</v>
       </c>
       <c r="AC9" t="n">
-        <v>2225.346444421319</v>
+        <v>2355.393565626881</v>
       </c>
       <c r="AD9" t="n">
-        <v>1798026.091457439</v>
+        <v>1903101.019288433</v>
       </c>
       <c r="AE9" t="n">
-        <v>2460138.621644865</v>
+        <v>2603906.773481883</v>
       </c>
       <c r="AF9" t="n">
-        <v>1.309757432465857e-06</v>
+        <v>1.966842584451717e-06</v>
       </c>
       <c r="AG9" t="n">
-        <v>26</v>
+        <v>25.30625</v>
       </c>
       <c r="AH9" t="n">
-        <v>2225346.444421319</v>
+        <v>2355393.565626882</v>
       </c>
     </row>
     <row r="10">
@@ -27282,28 +27282,28 @@
         <v>10</v>
       </c>
       <c r="AA10" t="n">
-        <v>1748.900493386432</v>
+        <v>1853.975421217426</v>
       </c>
       <c r="AB10" t="n">
-        <v>2392.922811095684</v>
+        <v>2536.690962932702</v>
       </c>
       <c r="AC10" t="n">
-        <v>2164.54561649297</v>
+        <v>2294.592737698532</v>
       </c>
       <c r="AD10" t="n">
-        <v>1748900.493386432</v>
+        <v>1853975.421217426</v>
       </c>
       <c r="AE10" t="n">
-        <v>2392922.811095684</v>
+        <v>2536690.962932703</v>
       </c>
       <c r="AF10" t="n">
-        <v>1.318666264752762e-06</v>
+        <v>1.980220840825978e-06</v>
       </c>
       <c r="AG10" t="n">
-        <v>26</v>
+        <v>25.13333333333334</v>
       </c>
       <c r="AH10" t="n">
-        <v>2164545.61649297</v>
+        <v>2294592.737698532</v>
       </c>
     </row>
     <row r="11">
@@ -27388,28 +27388,28 @@
         <v>10</v>
       </c>
       <c r="AA11" t="n">
-        <v>1708.37962043561</v>
+        <v>1805.529420742549</v>
       </c>
       <c r="AB11" t="n">
-        <v>2337.480365069622</v>
+        <v>2470.405007796277</v>
       </c>
       <c r="AC11" t="n">
-        <v>2114.394519701673</v>
+        <v>2234.633021087404</v>
       </c>
       <c r="AD11" t="n">
-        <v>1708379.62043561</v>
+        <v>1805529.420742549</v>
       </c>
       <c r="AE11" t="n">
-        <v>2337480.365069622</v>
+        <v>2470405.007796277</v>
       </c>
       <c r="AF11" t="n">
-        <v>1.325506975258778e-06</v>
+        <v>1.990493430541929e-06</v>
       </c>
       <c r="AG11" t="n">
-        <v>26</v>
+        <v>25.00625</v>
       </c>
       <c r="AH11" t="n">
-        <v>2114394.519701673</v>
+        <v>2234633.021087404</v>
       </c>
     </row>
     <row r="12">
@@ -27494,28 +27494,28 @@
         <v>10</v>
       </c>
       <c r="AA12" t="n">
-        <v>1698.77611031379</v>
+        <v>1803.936289490804</v>
       </c>
       <c r="AB12" t="n">
-        <v>2324.340418843982</v>
+        <v>2468.22521533365</v>
       </c>
       <c r="AC12" t="n">
-        <v>2102.508631501778</v>
+        <v>2232.661264958052</v>
       </c>
       <c r="AD12" t="n">
-        <v>1698776.11031379</v>
+        <v>1803936.289490805</v>
       </c>
       <c r="AE12" t="n">
-        <v>2324340.418843982</v>
+        <v>2468225.21533365</v>
       </c>
       <c r="AF12" t="n">
-        <v>1.326461493003804e-06</v>
+        <v>1.991926815153457e-06</v>
       </c>
       <c r="AG12" t="n">
-        <v>25</v>
+        <v>24.98541666666667</v>
       </c>
       <c r="AH12" t="n">
-        <v>2102508.631501778</v>
+        <v>2232661.264958052</v>
       </c>
     </row>
     <row r="13">
@@ -27600,28 +27600,28 @@
         <v>10</v>
       </c>
       <c r="AA13" t="n">
-        <v>1706.002467384234</v>
+        <v>1811.162646561249</v>
       </c>
       <c r="AB13" t="n">
-        <v>2334.227839392137</v>
+        <v>2478.112635881806</v>
       </c>
       <c r="AC13" t="n">
-        <v>2111.4524105099</v>
+        <v>2241.605043966174</v>
       </c>
       <c r="AD13" t="n">
-        <v>1706002.467384234</v>
+        <v>1811162.646561249</v>
       </c>
       <c r="AE13" t="n">
-        <v>2334227.839392137</v>
+        <v>2478112.635881806</v>
       </c>
       <c r="AF13" t="n">
-        <v>1.326461493003804e-06</v>
+        <v>1.991926815153457e-06</v>
       </c>
       <c r="AG13" t="n">
-        <v>25</v>
+        <v>24.9875</v>
       </c>
       <c r="AH13" t="n">
-        <v>2111452.4105099</v>
+        <v>2241605.043966174</v>
       </c>
     </row>
   </sheetData>
@@ -27897,28 +27897,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>3311.692181760335</v>
+        <v>3460.827237409271</v>
       </c>
       <c r="AB2" t="n">
-        <v>4531.203344632479</v>
+        <v>4735.256507145672</v>
       </c>
       <c r="AC2" t="n">
-        <v>4098.75165700442</v>
+        <v>4283.330272077759</v>
       </c>
       <c r="AD2" t="n">
-        <v>3311692.181760335</v>
+        <v>3460827.237409271</v>
       </c>
       <c r="AE2" t="n">
-        <v>4531203.344632478</v>
+        <v>4735256.507145672</v>
       </c>
       <c r="AF2" t="n">
-        <v>9.241935586773098e-07</v>
+        <v>1.417478865958757e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>38</v>
+        <v>37.35833333333333</v>
       </c>
       <c r="AH2" t="n">
-        <v>4098751.65700442</v>
+        <v>4283330.272077759</v>
       </c>
     </row>
     <row r="3">
@@ -28003,28 +28003,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>2129.173074374332</v>
+        <v>2246.875362054949</v>
       </c>
       <c r="AB3" t="n">
-        <v>2913.22853284558</v>
+        <v>3074.273995508829</v>
       </c>
       <c r="AC3" t="n">
-        <v>2635.194090412723</v>
+        <v>2780.869600148003</v>
       </c>
       <c r="AD3" t="n">
-        <v>2129173.074374332</v>
+        <v>2246875.362054949</v>
       </c>
       <c r="AE3" t="n">
-        <v>2913228.53284558</v>
+        <v>3074273.995508829</v>
       </c>
       <c r="AF3" t="n">
-        <v>1.184200676045913e-06</v>
+        <v>1.816263936908962e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>30</v>
+        <v>29.15416666666667</v>
       </c>
       <c r="AH3" t="n">
-        <v>2635194.090412723</v>
+        <v>2780869.600148003</v>
       </c>
     </row>
     <row r="4">
@@ -28109,28 +28109,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>1849.129845709809</v>
+        <v>1958.973941398343</v>
       </c>
       <c r="AB4" t="n">
-        <v>2530.061032751477</v>
+        <v>2680.354570452019</v>
       </c>
       <c r="AC4" t="n">
-        <v>2288.595558748637</v>
+        <v>2424.545292149344</v>
       </c>
       <c r="AD4" t="n">
-        <v>1849129.845709809</v>
+        <v>1958973.941398343</v>
       </c>
       <c r="AE4" t="n">
-        <v>2530061.032751477</v>
+        <v>2680354.570452019</v>
       </c>
       <c r="AF4" t="n">
-        <v>1.273189727688322e-06</v>
+        <v>1.952750605551575e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>28</v>
+        <v>27.11666666666666</v>
       </c>
       <c r="AH4" t="n">
-        <v>2288595.558748637</v>
+        <v>2424545.292149344</v>
       </c>
     </row>
     <row r="5">
@@ -28215,28 +28215,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>1705.725579536414</v>
+        <v>1807.796824087439</v>
       </c>
       <c r="AB5" t="n">
-        <v>2333.84898922332</v>
+        <v>2473.507369083532</v>
       </c>
       <c r="AC5" t="n">
-        <v>2111.109717269475</v>
+        <v>2237.439297367595</v>
       </c>
       <c r="AD5" t="n">
-        <v>1705725.579536414</v>
+        <v>1807796.824087439</v>
       </c>
       <c r="AE5" t="n">
-        <v>2333848.98922332</v>
+        <v>2473507.369083532</v>
       </c>
       <c r="AF5" t="n">
-        <v>1.318595686999346e-06</v>
+        <v>2.022391848024714e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>27</v>
+        <v>26.18333333333334</v>
       </c>
       <c r="AH5" t="n">
-        <v>2111109.717269475</v>
+        <v>2237439.297367595</v>
       </c>
     </row>
     <row r="6">
@@ -28321,28 +28321,28 @@
         <v>10</v>
       </c>
       <c r="AA6" t="n">
-        <v>1602.471189617336</v>
+        <v>1704.627685514382</v>
       </c>
       <c r="AB6" t="n">
-        <v>2192.571777673849</v>
+        <v>2332.34680218671</v>
       </c>
       <c r="AC6" t="n">
-        <v>1983.315804506474</v>
+        <v>2109.750896855306</v>
       </c>
       <c r="AD6" t="n">
-        <v>1602471.189617336</v>
+        <v>1704627.685514382</v>
       </c>
       <c r="AE6" t="n">
-        <v>2192571.777673849</v>
+        <v>2332346.80218671</v>
       </c>
       <c r="AF6" t="n">
-        <v>1.346767267593777e-06</v>
+        <v>2.065599918172283e-06</v>
       </c>
       <c r="AG6" t="n">
-        <v>26</v>
+        <v>25.63333333333334</v>
       </c>
       <c r="AH6" t="n">
-        <v>1983315.804506473</v>
+        <v>2109750.896855306</v>
       </c>
     </row>
     <row r="7">
@@ -28427,28 +28427,28 @@
         <v>10</v>
       </c>
       <c r="AA7" t="n">
-        <v>1533.33729180668</v>
+        <v>1635.323195503134</v>
       </c>
       <c r="AB7" t="n">
-        <v>2097.979728716994</v>
+        <v>2237.521341455008</v>
       </c>
       <c r="AC7" t="n">
-        <v>1897.751487941287</v>
+        <v>2023.975445007468</v>
       </c>
       <c r="AD7" t="n">
-        <v>1533337.29180668</v>
+        <v>1635323.195503134</v>
       </c>
       <c r="AE7" t="n">
-        <v>2097979.728716994</v>
+        <v>2237521.341455008</v>
       </c>
       <c r="AF7" t="n">
-        <v>1.363338785590502e-06</v>
+        <v>2.091016430023794e-06</v>
       </c>
       <c r="AG7" t="n">
-        <v>26</v>
+        <v>25.32291666666667</v>
       </c>
       <c r="AH7" t="n">
-        <v>1897751.487941287</v>
+        <v>2023975.445007468</v>
       </c>
     </row>
     <row r="8">
@@ -28533,28 +28533,28 @@
         <v>10</v>
       </c>
       <c r="AA8" t="n">
-        <v>1516.417266059714</v>
+        <v>1618.403169756167</v>
       </c>
       <c r="AB8" t="n">
-        <v>2074.829003031143</v>
+        <v>2214.370615769156</v>
       </c>
       <c r="AC8" t="n">
-        <v>1876.810235022645</v>
+        <v>2003.034192088826</v>
       </c>
       <c r="AD8" t="n">
-        <v>1516417.266059714</v>
+        <v>1618403.169756168</v>
       </c>
       <c r="AE8" t="n">
-        <v>2074829.003031143</v>
+        <v>2214370.615769156</v>
       </c>
       <c r="AF8" t="n">
-        <v>1.368807386529421e-06</v>
+        <v>2.099403878934792e-06</v>
       </c>
       <c r="AG8" t="n">
-        <v>26</v>
+        <v>25.22291666666666</v>
       </c>
       <c r="AH8" t="n">
-        <v>1876810.235022645</v>
+        <v>2003034.192088826</v>
       </c>
     </row>
     <row r="9">
@@ -28639,28 +28639,28 @@
         <v>10</v>
       </c>
       <c r="AA9" t="n">
-        <v>1523.760161014572</v>
+        <v>1625.746064711025</v>
       </c>
       <c r="AB9" t="n">
-        <v>2084.87587585404</v>
+        <v>2224.417488592054</v>
       </c>
       <c r="AC9" t="n">
-        <v>1885.8982484042</v>
+        <v>2012.122205470381</v>
       </c>
       <c r="AD9" t="n">
-        <v>1523760.161014572</v>
+        <v>1625746.064711025</v>
       </c>
       <c r="AE9" t="n">
-        <v>2084875.87585404</v>
+        <v>2224417.488592054</v>
       </c>
       <c r="AF9" t="n">
-        <v>1.36947024724929e-06</v>
+        <v>2.100420539408853e-06</v>
       </c>
       <c r="AG9" t="n">
-        <v>26</v>
+        <v>25.20833333333333</v>
       </c>
       <c r="AH9" t="n">
-        <v>1885898.2484042</v>
+        <v>2012122.205470381</v>
       </c>
     </row>
   </sheetData>
@@ -54029,28 +54029,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>2465.687196617819</v>
+        <v>2603.54519653032</v>
       </c>
       <c r="AB2" t="n">
-        <v>3373.66200085461</v>
+        <v>3562.285398200626</v>
       </c>
       <c r="AC2" t="n">
-        <v>3051.684434457276</v>
+        <v>3222.305879495182</v>
       </c>
       <c r="AD2" t="n">
-        <v>2465687.196617819</v>
+        <v>2603545.196530321</v>
       </c>
       <c r="AE2" t="n">
-        <v>3373662.00085461</v>
+        <v>3562285.398200626</v>
       </c>
       <c r="AF2" t="n">
-        <v>1.052719230049703e-06</v>
+        <v>1.644853031681025e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>34</v>
+        <v>33.92291666666667</v>
       </c>
       <c r="AH2" t="n">
-        <v>3051684.434457276</v>
+        <v>3222305.879495182</v>
       </c>
     </row>
     <row r="3">
@@ -54135,28 +54135,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>1715.430898126308</v>
+        <v>1830.284117768535</v>
       </c>
       <c r="AB3" t="n">
-        <v>2347.12823428645</v>
+        <v>2504.275476367388</v>
       </c>
       <c r="AC3" t="n">
-        <v>2123.121609821317</v>
+        <v>2265.27093967559</v>
       </c>
       <c r="AD3" t="n">
-        <v>1715430.898126308</v>
+        <v>1830284.117768535</v>
       </c>
       <c r="AE3" t="n">
-        <v>2347128.23428645</v>
+        <v>2504275.476367388</v>
       </c>
       <c r="AF3" t="n">
-        <v>1.279171290446325e-06</v>
+        <v>1.998679909201077e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>28</v>
+        <v>27.92083333333333</v>
       </c>
       <c r="AH3" t="n">
-        <v>2123121.609821317</v>
+        <v>2265270.93967559</v>
       </c>
     </row>
     <row r="4">
@@ -54241,28 +54241,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>1507.332567161261</v>
+        <v>1606.934696986428</v>
       </c>
       <c r="AB4" t="n">
-        <v>2062.398917209649</v>
+        <v>2198.678945372289</v>
       </c>
       <c r="AC4" t="n">
-        <v>1865.56645914622</v>
+        <v>1988.840112691238</v>
       </c>
       <c r="AD4" t="n">
-        <v>1507332.567161261</v>
+        <v>1606934.696986428</v>
       </c>
       <c r="AE4" t="n">
-        <v>2062398.917209649</v>
+        <v>2198678.945372289</v>
       </c>
       <c r="AF4" t="n">
-        <v>1.356826690415795e-06</v>
+        <v>2.120014939872222e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>27</v>
+        <v>26.32083333333334</v>
       </c>
       <c r="AH4" t="n">
-        <v>1865566.45914622</v>
+        <v>1988840.112691238</v>
       </c>
     </row>
     <row r="5">
@@ -54347,28 +54347,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>1390.298170144589</v>
+        <v>1489.985551315777</v>
       </c>
       <c r="AB5" t="n">
-        <v>1902.267292018242</v>
+        <v>2038.663964833531</v>
       </c>
       <c r="AC5" t="n">
-        <v>1720.717571516933</v>
+        <v>1844.096737312663</v>
       </c>
       <c r="AD5" t="n">
-        <v>1390298.170144589</v>
+        <v>1489985.551315777</v>
       </c>
       <c r="AE5" t="n">
-        <v>1902267.292018242</v>
+        <v>2038663.964833531</v>
       </c>
       <c r="AF5" t="n">
-        <v>1.393683006074594e-06</v>
+        <v>2.177602206084797e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>26</v>
+        <v>25.625</v>
       </c>
       <c r="AH5" t="n">
-        <v>1720717.571516933</v>
+        <v>1844096.737312663</v>
       </c>
     </row>
     <row r="6">
@@ -54453,28 +54453,28 @@
         <v>10</v>
       </c>
       <c r="AA6" t="n">
-        <v>1376.718740731932</v>
+        <v>1476.40612190312</v>
       </c>
       <c r="AB6" t="n">
-        <v>1883.6873176137</v>
+        <v>2020.083990428989</v>
       </c>
       <c r="AC6" t="n">
-        <v>1703.910843792402</v>
+        <v>1827.290009588133</v>
       </c>
       <c r="AD6" t="n">
-        <v>1376718.740731932</v>
+        <v>1476406.12190312</v>
       </c>
       <c r="AE6" t="n">
-        <v>1883687.3176137</v>
+        <v>2020083.990428989</v>
       </c>
       <c r="AF6" t="n">
-        <v>1.399511446690404e-06</v>
+        <v>2.186709029578878e-06</v>
       </c>
       <c r="AG6" t="n">
-        <v>26</v>
+        <v>25.51875</v>
       </c>
       <c r="AH6" t="n">
-        <v>1703910.843792402</v>
+        <v>1827290.009588133</v>
       </c>
     </row>
   </sheetData>
@@ -54750,28 +54750,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>1299.828228116184</v>
+        <v>1409.119229649083</v>
       </c>
       <c r="AB2" t="n">
-        <v>1778.482326082826</v>
+        <v>1928.019095958835</v>
       </c>
       <c r="AC2" t="n">
-        <v>1608.746468997102</v>
+        <v>1744.01165943232</v>
       </c>
       <c r="AD2" t="n">
-        <v>1299828.228116184</v>
+        <v>1409119.229649083</v>
       </c>
       <c r="AE2" t="n">
-        <v>1778482.326082826</v>
+        <v>1928019.095958835</v>
       </c>
       <c r="AF2" t="n">
-        <v>1.330071099844772e-06</v>
+        <v>2.167585126737273e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>29</v>
+        <v>28.81666666666666</v>
       </c>
       <c r="AH2" t="n">
-        <v>1608746.468997102</v>
+        <v>1744011.65943232</v>
       </c>
     </row>
     <row r="3">
@@ -54856,28 +54856,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>1110.143565335485</v>
+        <v>1212.14281070922</v>
       </c>
       <c r="AB3" t="n">
-        <v>1518.947402169556</v>
+        <v>1658.507269579018</v>
       </c>
       <c r="AC3" t="n">
-        <v>1373.981193962562</v>
+        <v>1500.221663499969</v>
       </c>
       <c r="AD3" t="n">
-        <v>1110143.565335485</v>
+        <v>1212142.81070922</v>
       </c>
       <c r="AE3" t="n">
-        <v>1518947.402169556</v>
+        <v>1658507.269579018</v>
       </c>
       <c r="AF3" t="n">
-        <v>1.429426251859736e-06</v>
+        <v>2.329501846676148e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>27</v>
+        <v>26.81666666666667</v>
       </c>
       <c r="AH3" t="n">
-        <v>1373981.193962561</v>
+        <v>1500221.663499969</v>
       </c>
     </row>
     <row r="4">
@@ -54962,28 +54962,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>1124.61435714989</v>
+        <v>1226.613602523625</v>
       </c>
       <c r="AB4" t="n">
-        <v>1538.746977936303</v>
+        <v>1678.306845345766</v>
       </c>
       <c r="AC4" t="n">
-        <v>1391.891126007009</v>
+        <v>1518.131595544417</v>
       </c>
       <c r="AD4" t="n">
-        <v>1124614.35714989</v>
+        <v>1226613.602523625</v>
       </c>
       <c r="AE4" t="n">
-        <v>1538746.977936303</v>
+        <v>1678306.845345766</v>
       </c>
       <c r="AF4" t="n">
-        <v>1.429242260837487e-06</v>
+        <v>2.329202000898484e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>27</v>
+        <v>26.82083333333334</v>
       </c>
       <c r="AH4" t="n">
-        <v>1391891.12600701</v>
+        <v>1518131.595544417</v>
       </c>
     </row>
   </sheetData>
@@ -55259,28 +55259,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>6890.411113370872</v>
+        <v>7097.755753005383</v>
       </c>
       <c r="AB2" t="n">
-        <v>9427.76446879881</v>
+        <v>9711.462552146673</v>
       </c>
       <c r="AC2" t="n">
-        <v>8527.991859846832</v>
+        <v>8784.614196292725</v>
       </c>
       <c r="AD2" t="n">
-        <v>6890411.113370872</v>
+        <v>7097755.753005383</v>
       </c>
       <c r="AE2" t="n">
-        <v>9427764.468798811</v>
+        <v>9711462.552146673</v>
       </c>
       <c r="AF2" t="n">
-        <v>6.408674457762533e-07</v>
+        <v>9.468052627908523e-07</v>
       </c>
       <c r="AG2" t="n">
-        <v>51</v>
+        <v>50.025</v>
       </c>
       <c r="AH2" t="n">
-        <v>8527991.859846832</v>
+        <v>8784614.196292724</v>
       </c>
     </row>
     <row r="3">
@@ -55365,28 +55365,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>3356.555855803596</v>
+        <v>3497.522840815785</v>
       </c>
       <c r="AB3" t="n">
-        <v>4592.587802704082</v>
+        <v>4785.465050622232</v>
       </c>
       <c r="AC3" t="n">
-        <v>4154.277668551295</v>
+        <v>4328.746982633048</v>
       </c>
       <c r="AD3" t="n">
-        <v>3356555.855803596</v>
+        <v>3497522.840815784</v>
       </c>
       <c r="AE3" t="n">
-        <v>4592587.802704082</v>
+        <v>4785465.050622232</v>
       </c>
       <c r="AF3" t="n">
-        <v>9.715335060339168e-07</v>
+        <v>1.435324953003947e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>33</v>
+        <v>32.99375</v>
       </c>
       <c r="AH3" t="n">
-        <v>4154277.668551296</v>
+        <v>4328746.982633048</v>
       </c>
     </row>
     <row r="4">
@@ -55471,28 +55471,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>2763.766329762464</v>
+        <v>2888.053672150189</v>
       </c>
       <c r="AB4" t="n">
-        <v>3781.507021146388</v>
+        <v>3951.562446171847</v>
       </c>
       <c r="AC4" t="n">
-        <v>3420.605298426471</v>
+        <v>3574.430872361783</v>
       </c>
       <c r="AD4" t="n">
-        <v>2763766.329762464</v>
+        <v>2888053.67215019</v>
       </c>
       <c r="AE4" t="n">
-        <v>3781507.021146388</v>
+        <v>3951562.446171847</v>
       </c>
       <c r="AF4" t="n">
-        <v>1.089705462421951e-06</v>
+        <v>1.609909933033569e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>30</v>
+        <v>29.41666666666667</v>
       </c>
       <c r="AH4" t="n">
-        <v>3420605.298426471</v>
+        <v>3574430.872361783</v>
       </c>
     </row>
     <row r="5">
@@ -55577,28 +55577,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>2505.760466598214</v>
+        <v>2630.047719477388</v>
       </c>
       <c r="AB5" t="n">
-        <v>3428.492016749688</v>
+        <v>3598.5473193056</v>
       </c>
       <c r="AC5" t="n">
-        <v>3101.281550589736</v>
+        <v>3255.107013743821</v>
       </c>
       <c r="AD5" t="n">
-        <v>2505760.466598214</v>
+        <v>2630047.719477388</v>
       </c>
       <c r="AE5" t="n">
-        <v>3428492.016749688</v>
+        <v>3598547.3193056</v>
       </c>
       <c r="AF5" t="n">
-        <v>1.150945616904292e-06</v>
+        <v>1.700384961746837e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>28</v>
+        <v>27.85</v>
       </c>
       <c r="AH5" t="n">
-        <v>3101281.550589736</v>
+        <v>3255107.013743821</v>
       </c>
     </row>
     <row r="6">
@@ -55683,28 +55683,28 @@
         <v>10</v>
       </c>
       <c r="AA6" t="n">
-        <v>2361.14380565928</v>
+        <v>2477.219203753805</v>
       </c>
       <c r="AB6" t="n">
-        <v>3230.621121216229</v>
+        <v>3389.440601774316</v>
       </c>
       <c r="AC6" t="n">
-        <v>2922.295175612451</v>
+        <v>3065.95714785061</v>
       </c>
       <c r="AD6" t="n">
-        <v>2361143.80565928</v>
+        <v>2477219.203753805</v>
       </c>
       <c r="AE6" t="n">
-        <v>3230621.121216229</v>
+        <v>3389440.601774316</v>
       </c>
       <c r="AF6" t="n">
-        <v>1.187566613805792e-06</v>
+        <v>1.7544881196206e-06</v>
       </c>
       <c r="AG6" t="n">
-        <v>27</v>
+        <v>26.99375</v>
       </c>
       <c r="AH6" t="n">
-        <v>2922295.175612451</v>
+        <v>3065957.14785061</v>
       </c>
     </row>
     <row r="7">
@@ -55789,28 +55789,28 @@
         <v>10</v>
       </c>
       <c r="AA7" t="n">
-        <v>2267.269974160462</v>
+        <v>2383.174780054395</v>
       </c>
       <c r="AB7" t="n">
-        <v>3102.178803538379</v>
+        <v>3260.76487232162</v>
       </c>
       <c r="AC7" t="n">
-        <v>2806.111212463855</v>
+        <v>2949.562049419364</v>
       </c>
       <c r="AD7" t="n">
-        <v>2267269.974160462</v>
+        <v>2383174.780054395</v>
       </c>
       <c r="AE7" t="n">
-        <v>3102178.803538379</v>
+        <v>3260764.87232162</v>
       </c>
       <c r="AF7" t="n">
-        <v>1.212955120061034e-06</v>
+        <v>1.791996611423839e-06</v>
       </c>
       <c r="AG7" t="n">
-        <v>27</v>
+        <v>26.42916666666666</v>
       </c>
       <c r="AH7" t="n">
-        <v>2806111.212463855</v>
+        <v>2949562.049419363</v>
       </c>
     </row>
     <row r="8">
@@ -55895,28 +55895,28 @@
         <v>10</v>
       </c>
       <c r="AA8" t="n">
-        <v>2194.387912468028</v>
+        <v>2302.166204431883</v>
       </c>
       <c r="AB8" t="n">
-        <v>3002.45835140115</v>
+        <v>3149.925365308766</v>
       </c>
       <c r="AC8" t="n">
-        <v>2715.907940320074</v>
+        <v>2849.300909391594</v>
       </c>
       <c r="AD8" t="n">
-        <v>2194387.912468028</v>
+        <v>2302166.204431883</v>
       </c>
       <c r="AE8" t="n">
-        <v>3002458.35140115</v>
+        <v>3149925.365308766</v>
       </c>
       <c r="AF8" t="n">
-        <v>1.231265618511784e-06</v>
+        <v>1.81904819036072e-06</v>
       </c>
       <c r="AG8" t="n">
-        <v>27</v>
+        <v>26.03541666666667</v>
       </c>
       <c r="AH8" t="n">
-        <v>2715907.940320074</v>
+        <v>2849300.909391595</v>
       </c>
     </row>
     <row r="9">
@@ -56001,28 +56001,28 @@
         <v>10</v>
       </c>
       <c r="AA9" t="n">
-        <v>2129.083253701413</v>
+        <v>2236.94679701129</v>
       </c>
       <c r="AB9" t="n">
-        <v>2913.105636238282</v>
+        <v>3060.689294798719</v>
       </c>
       <c r="AC9" t="n">
-        <v>2635.082922885139</v>
+        <v>2768.581404207418</v>
       </c>
       <c r="AD9" t="n">
-        <v>2129083.253701413</v>
+        <v>2236946.79701129</v>
       </c>
       <c r="AE9" t="n">
-        <v>2913105.636238283</v>
+        <v>3060689.294798719</v>
       </c>
       <c r="AF9" t="n">
-        <v>1.245421634120767e-06</v>
+        <v>1.839962016093436e-06</v>
       </c>
       <c r="AG9" t="n">
-        <v>26</v>
+        <v>25.73958333333333</v>
       </c>
       <c r="AH9" t="n">
-        <v>2635082.922885139</v>
+        <v>2768581.404207418</v>
       </c>
     </row>
     <row r="10">
@@ -56107,28 +56107,28 @@
         <v>10</v>
       </c>
       <c r="AA10" t="n">
-        <v>2080.809707153554</v>
+        <v>2188.673250463429</v>
       </c>
       <c r="AB10" t="n">
-        <v>2847.055640172934</v>
+        <v>2994.639298733191</v>
       </c>
       <c r="AC10" t="n">
-        <v>2575.336645742516</v>
+        <v>2708.835127064748</v>
       </c>
       <c r="AD10" t="n">
-        <v>2080809.707153554</v>
+        <v>2188673.250463429</v>
       </c>
       <c r="AE10" t="n">
-        <v>2847055.640172934</v>
+        <v>2994639.298733192</v>
       </c>
       <c r="AF10" t="n">
-        <v>1.256038645827504e-06</v>
+        <v>1.855647385392972e-06</v>
       </c>
       <c r="AG10" t="n">
-        <v>26</v>
+        <v>25.52083333333333</v>
       </c>
       <c r="AH10" t="n">
-        <v>2575336.645742516</v>
+        <v>2708835.127064748</v>
       </c>
     </row>
     <row r="11">
@@ -56213,28 +56213,28 @@
         <v>10</v>
       </c>
       <c r="AA11" t="n">
-        <v>2038.783241641888</v>
+        <v>2146.476192751171</v>
       </c>
       <c r="AB11" t="n">
-        <v>2789.553175983069</v>
+        <v>2936.903422768478</v>
       </c>
       <c r="AC11" t="n">
-        <v>2523.322136029717</v>
+        <v>2656.609482069297</v>
       </c>
       <c r="AD11" t="n">
-        <v>2038783.241641887</v>
+        <v>2146476.192751171</v>
       </c>
       <c r="AE11" t="n">
-        <v>2789553.175983069</v>
+        <v>2936903.422768478</v>
       </c>
       <c r="AF11" t="n">
-        <v>1.264501481245918e-06</v>
+        <v>1.868150215994051e-06</v>
       </c>
       <c r="AG11" t="n">
-        <v>26</v>
+        <v>25.35</v>
       </c>
       <c r="AH11" t="n">
-        <v>2523322.136029717</v>
+        <v>2656609.482069296</v>
       </c>
     </row>
     <row r="12">
@@ -56319,28 +56319,28 @@
         <v>10</v>
       </c>
       <c r="AA12" t="n">
-        <v>1994.783693934624</v>
+        <v>2102.476645043907</v>
       </c>
       <c r="AB12" t="n">
-        <v>2729.351053686943</v>
+        <v>2876.701300472353</v>
       </c>
       <c r="AC12" t="n">
-        <v>2468.865619791324</v>
+        <v>2602.152965830904</v>
       </c>
       <c r="AD12" t="n">
-        <v>1994783.693934624</v>
+        <v>2102476.645043907</v>
       </c>
       <c r="AE12" t="n">
-        <v>2729351.053686943</v>
+        <v>2876701.300472353</v>
       </c>
       <c r="AF12" t="n">
-        <v>1.272502707459691e-06</v>
+        <v>1.87997107401689e-06</v>
       </c>
       <c r="AG12" t="n">
-        <v>26</v>
+        <v>25.19166666666667</v>
       </c>
       <c r="AH12" t="n">
-        <v>2468865.619791324</v>
+        <v>2602152.965830904</v>
       </c>
     </row>
     <row r="13">
@@ -56425,28 +56425,28 @@
         <v>10</v>
       </c>
       <c r="AA13" t="n">
-        <v>1955.715398267108</v>
+        <v>2055.281835446314</v>
       </c>
       <c r="AB13" t="n">
-        <v>2675.896087983087</v>
+        <v>2812.127279892873</v>
       </c>
       <c r="AC13" t="n">
-        <v>2420.512320989727</v>
+        <v>2543.741799145322</v>
       </c>
       <c r="AD13" t="n">
-        <v>1955715.398267108</v>
+        <v>2055281.835446314</v>
       </c>
       <c r="AE13" t="n">
-        <v>2675896.087983087</v>
+        <v>2812127.279892873</v>
       </c>
       <c r="AF13" t="n">
-        <v>1.279119106059542e-06</v>
+        <v>1.889746014305007e-06</v>
       </c>
       <c r="AG13" t="n">
-        <v>26</v>
+        <v>25.06041666666667</v>
       </c>
       <c r="AH13" t="n">
-        <v>2420512.320989728</v>
+        <v>2543741.799145322</v>
       </c>
     </row>
     <row r="14">
@@ -56531,28 +56531,28 @@
         <v>10</v>
       </c>
       <c r="AA14" t="n">
-        <v>1913.631023714408</v>
+        <v>2021.409226169712</v>
       </c>
       <c r="AB14" t="n">
-        <v>2618.314390088512</v>
+        <v>2765.781281526571</v>
       </c>
       <c r="AC14" t="n">
-        <v>2368.426139525791</v>
+        <v>2501.818997816084</v>
       </c>
       <c r="AD14" t="n">
-        <v>1913631.023714409</v>
+        <v>2021409.226169712</v>
       </c>
       <c r="AE14" t="n">
-        <v>2618314.390088512</v>
+        <v>2765781.281526571</v>
       </c>
       <c r="AF14" t="n">
-        <v>1.283427458636189e-06</v>
+        <v>1.896111091701921e-06</v>
       </c>
       <c r="AG14" t="n">
-        <v>25</v>
+        <v>24.975</v>
       </c>
       <c r="AH14" t="n">
-        <v>2368426.139525791</v>
+        <v>2501818.997816084</v>
       </c>
     </row>
     <row r="15">
@@ -56637,28 +56637,28 @@
         <v>10</v>
       </c>
       <c r="AA15" t="n">
-        <v>1881.347165275717</v>
+        <v>1989.125367731021</v>
       </c>
       <c r="AB15" t="n">
-        <v>2574.14219070938</v>
+        <v>2721.609082147439</v>
       </c>
       <c r="AC15" t="n">
-        <v>2328.469672859332</v>
+        <v>2461.862531149625</v>
       </c>
       <c r="AD15" t="n">
-        <v>1881347.165275717</v>
+        <v>1989125.367731021</v>
       </c>
       <c r="AE15" t="n">
-        <v>2574142.19070938</v>
+        <v>2721609.082147439</v>
       </c>
       <c r="AF15" t="n">
-        <v>1.287428071743076e-06</v>
+        <v>1.90202152071334e-06</v>
       </c>
       <c r="AG15" t="n">
-        <v>25</v>
+        <v>24.9</v>
       </c>
       <c r="AH15" t="n">
-        <v>2328469.672859332</v>
+        <v>2461862.531149625</v>
       </c>
     </row>
     <row r="16">
@@ -56743,28 +56743,28 @@
         <v>10</v>
       </c>
       <c r="AA16" t="n">
-        <v>1875.158453368843</v>
+        <v>1982.936655824147</v>
       </c>
       <c r="AB16" t="n">
-        <v>2565.674522051695</v>
+        <v>2713.141413489754</v>
       </c>
       <c r="AC16" t="n">
-        <v>2320.810146613888</v>
+        <v>2454.203004904181</v>
       </c>
       <c r="AD16" t="n">
-        <v>1875158.453368843</v>
+        <v>1982936.655824147</v>
       </c>
       <c r="AE16" t="n">
-        <v>2565674.522051695</v>
+        <v>2713141.413489754</v>
       </c>
       <c r="AF16" t="n">
-        <v>1.288351290152358e-06</v>
+        <v>1.903385465869822e-06</v>
       </c>
       <c r="AG16" t="n">
-        <v>25</v>
+        <v>24.88125</v>
       </c>
       <c r="AH16" t="n">
-        <v>2320810.146613888</v>
+        <v>2454203.004904181</v>
       </c>
     </row>
     <row r="17">
@@ -56849,28 +56849,28 @@
         <v>10</v>
       </c>
       <c r="AA17" t="n">
-        <v>1879.330317905902</v>
+        <v>1987.108520361206</v>
       </c>
       <c r="AB17" t="n">
-        <v>2571.382651160972</v>
+        <v>2718.849542599032</v>
       </c>
       <c r="AC17" t="n">
-        <v>2325.973499892386</v>
+        <v>2459.366358182679</v>
       </c>
       <c r="AD17" t="n">
-        <v>1879330.317905902</v>
+        <v>1987108.520361206</v>
       </c>
       <c r="AE17" t="n">
-        <v>2571382.651160972</v>
+        <v>2718849.542599032</v>
       </c>
       <c r="AF17" t="n">
-        <v>1.289120638826759e-06</v>
+        <v>1.904522086833556e-06</v>
       </c>
       <c r="AG17" t="n">
-        <v>25</v>
+        <v>24.86666666666666</v>
       </c>
       <c r="AH17" t="n">
-        <v>2325973.499892386</v>
+        <v>2459366.358182679</v>
       </c>
     </row>
     <row r="18">
@@ -56955,28 +56955,28 @@
         <v>10</v>
       </c>
       <c r="AA18" t="n">
-        <v>1887.717102356623</v>
+        <v>1995.495304811927</v>
       </c>
       <c r="AB18" t="n">
-        <v>2582.857819645265</v>
+        <v>2730.324711083324</v>
       </c>
       <c r="AC18" t="n">
-        <v>2336.353494402038</v>
+        <v>2469.746352692331</v>
       </c>
       <c r="AD18" t="n">
-        <v>1887717.102356623</v>
+        <v>1995495.304811927</v>
       </c>
       <c r="AE18" t="n">
-        <v>2582857.819645265</v>
+        <v>2730324.711083325</v>
       </c>
       <c r="AF18" t="n">
-        <v>1.289428378296519e-06</v>
+        <v>1.90497673521905e-06</v>
       </c>
       <c r="AG18" t="n">
-        <v>25</v>
+        <v>24.8625</v>
       </c>
       <c r="AH18" t="n">
-        <v>2336353.494402038</v>
+        <v>2469746.352692331</v>
       </c>
     </row>
   </sheetData>
@@ -57252,28 +57252,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>11125.72949781328</v>
+        <v>11398.40101566073</v>
       </c>
       <c r="AB2" t="n">
-        <v>15222.71393145322</v>
+        <v>15595.7951315905</v>
       </c>
       <c r="AC2" t="n">
-        <v>13769.87947904794</v>
+        <v>14107.35433306685</v>
       </c>
       <c r="AD2" t="n">
-        <v>11125729.49781328</v>
+        <v>11398401.01566073</v>
       </c>
       <c r="AE2" t="n">
-        <v>15222713.93145322</v>
+        <v>15595795.1315905</v>
       </c>
       <c r="AF2" t="n">
-        <v>4.955309491125802e-07</v>
+        <v>7.195946905864278e-07</v>
       </c>
       <c r="AG2" t="n">
-        <v>63</v>
+        <v>62.33125</v>
       </c>
       <c r="AH2" t="n">
-        <v>13769879.47904794</v>
+        <v>14107354.33306685</v>
       </c>
     </row>
     <row r="3">
@@ -57358,28 +57358,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>4303.590335474016</v>
+        <v>4465.470327738299</v>
       </c>
       <c r="AB3" t="n">
-        <v>5888.362158001768</v>
+        <v>6109.853505059001</v>
       </c>
       <c r="AC3" t="n">
-        <v>5326.385138010053</v>
+        <v>5526.73766176919</v>
       </c>
       <c r="AD3" t="n">
-        <v>4303590.335474016</v>
+        <v>4465470.327738299</v>
       </c>
       <c r="AE3" t="n">
-        <v>5888362.158001768</v>
+        <v>6109853.505059001</v>
       </c>
       <c r="AF3" t="n">
-        <v>8.602844305060414e-07</v>
+        <v>1.249278394608753e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>36</v>
+        <v>35.90625</v>
       </c>
       <c r="AH3" t="n">
-        <v>5326385.138010053</v>
+        <v>5526737.66176919</v>
       </c>
     </row>
     <row r="4">
@@ -57464,28 +57464,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>3403.069566630057</v>
+        <v>3539.362699880771</v>
       </c>
       <c r="AB4" t="n">
-        <v>4656.229913896946</v>
+        <v>4842.712191639259</v>
       </c>
       <c r="AC4" t="n">
-        <v>4211.845865974173</v>
+        <v>4380.530536858274</v>
       </c>
       <c r="AD4" t="n">
-        <v>3403069.566630057</v>
+        <v>3539362.699880771</v>
       </c>
       <c r="AE4" t="n">
-        <v>4656229.913896945</v>
+        <v>4842712.191639259</v>
       </c>
       <c r="AF4" t="n">
-        <v>9.928411835002505e-07</v>
+        <v>1.441773204119306e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>32</v>
+        <v>31.11041666666667</v>
       </c>
       <c r="AH4" t="n">
-        <v>4211845.865974173</v>
+        <v>4380530.536858274</v>
       </c>
     </row>
     <row r="5">
@@ -57570,28 +57570,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>3039.773320151114</v>
+        <v>3167.537470561122</v>
       </c>
       <c r="AB5" t="n">
-        <v>4159.151961965197</v>
+        <v>4333.964509112688</v>
       </c>
       <c r="AC5" t="n">
-        <v>3762.208336121523</v>
+        <v>3920.337019120201</v>
       </c>
       <c r="AD5" t="n">
-        <v>3039773.320151114</v>
+        <v>3167537.470561122</v>
       </c>
       <c r="AE5" t="n">
-        <v>4159151.961965197</v>
+        <v>4333964.509112688</v>
       </c>
       <c r="AF5" t="n">
-        <v>1.062826404320459e-06</v>
+        <v>1.543403573346354e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>30</v>
+        <v>29.0625</v>
       </c>
       <c r="AH5" t="n">
-        <v>3762208.336121523</v>
+        <v>3920337.019120201</v>
       </c>
     </row>
     <row r="6">
@@ -57676,28 +57676,28 @@
         <v>10</v>
       </c>
       <c r="AA6" t="n">
-        <v>2831.880588082236</v>
+        <v>2959.644648983693</v>
       </c>
       <c r="AB6" t="n">
-        <v>3874.703954368502</v>
+        <v>4049.516379046444</v>
       </c>
       <c r="AC6" t="n">
-        <v>3504.907647144581</v>
+        <v>3663.036219362032</v>
       </c>
       <c r="AD6" t="n">
-        <v>2831880.588082236</v>
+        <v>2959644.648983693</v>
       </c>
       <c r="AE6" t="n">
-        <v>3874703.954368502</v>
+        <v>4049516.379046444</v>
       </c>
       <c r="AF6" t="n">
-        <v>1.106122346014317e-06</v>
+        <v>1.606276598376646e-06</v>
       </c>
       <c r="AG6" t="n">
-        <v>28</v>
+        <v>27.925</v>
       </c>
       <c r="AH6" t="n">
-        <v>3504907.647144581</v>
+        <v>3663036.219362032</v>
       </c>
     </row>
     <row r="7">
@@ -57782,28 +57782,28 @@
         <v>10</v>
       </c>
       <c r="AA7" t="n">
-        <v>2707.439881103384</v>
+        <v>2826.675048672686</v>
       </c>
       <c r="AB7" t="n">
-        <v>3704.438689143495</v>
+        <v>3867.581505696162</v>
       </c>
       <c r="AC7" t="n">
-        <v>3350.892259863855</v>
+        <v>3498.464954977111</v>
       </c>
       <c r="AD7" t="n">
-        <v>2707439.881103384</v>
+        <v>2826675.048672685</v>
       </c>
       <c r="AE7" t="n">
-        <v>3704438.689143495</v>
+        <v>3867581.505696162</v>
       </c>
       <c r="AF7" t="n">
-        <v>1.136073648145e-06</v>
+        <v>1.649770951308561e-06</v>
       </c>
       <c r="AG7" t="n">
-        <v>28</v>
+        <v>27.19166666666667</v>
       </c>
       <c r="AH7" t="n">
-        <v>3350892.259863855</v>
+        <v>3498464.95497711</v>
       </c>
     </row>
     <row r="8">
@@ -57888,28 +57888,28 @@
         <v>10</v>
       </c>
       <c r="AA8" t="n">
-        <v>2611.688665895627</v>
+        <v>2731.009084810948</v>
       </c>
       <c r="AB8" t="n">
-        <v>3573.427652250752</v>
+        <v>3736.687113456069</v>
       </c>
       <c r="AC8" t="n">
-        <v>3232.384732457014</v>
+        <v>3380.062939820982</v>
       </c>
       <c r="AD8" t="n">
-        <v>2611688.665895627</v>
+        <v>2731009.084810948</v>
       </c>
       <c r="AE8" t="n">
-        <v>3573427.652250752</v>
+        <v>3736687.113456069</v>
       </c>
       <c r="AF8" t="n">
-        <v>1.157128523900232e-06</v>
+        <v>1.680346189508223e-06</v>
       </c>
       <c r="AG8" t="n">
-        <v>27</v>
+        <v>26.69791666666667</v>
       </c>
       <c r="AH8" t="n">
-        <v>3232384.732457014</v>
+        <v>3380062.939820982</v>
       </c>
     </row>
     <row r="9">
@@ -57994,28 +57994,28 @@
         <v>10</v>
       </c>
       <c r="AA9" t="n">
-        <v>2544.902856995289</v>
+        <v>2655.694382578455</v>
       </c>
       <c r="AB9" t="n">
-        <v>3482.04836213136</v>
+        <v>3633.638215211402</v>
       </c>
       <c r="AC9" t="n">
-        <v>3149.726553534981</v>
+        <v>3286.848883794755</v>
       </c>
       <c r="AD9" t="n">
-        <v>2544902.856995289</v>
+        <v>2655694.382578455</v>
       </c>
       <c r="AE9" t="n">
-        <v>3482048.36213136</v>
+        <v>3633638.215211403</v>
       </c>
       <c r="AF9" t="n">
-        <v>1.173290365148967e-06</v>
+        <v>1.703815914605148e-06</v>
       </c>
       <c r="AG9" t="n">
-        <v>27</v>
+        <v>26.32708333333333</v>
       </c>
       <c r="AH9" t="n">
-        <v>3149726.553534981</v>
+        <v>3286848.883794755</v>
       </c>
     </row>
     <row r="10">
@@ -58100,28 +58100,28 @@
         <v>10</v>
       </c>
       <c r="AA10" t="n">
-        <v>2489.793774675185</v>
+        <v>2600.585300258351</v>
       </c>
       <c r="AB10" t="n">
-        <v>3406.645684459867</v>
+        <v>3558.23553753991</v>
       </c>
       <c r="AC10" t="n">
-        <v>3081.520201592136</v>
+        <v>3218.642531851909</v>
       </c>
       <c r="AD10" t="n">
-        <v>2489793.774675185</v>
+        <v>2600585.300258351</v>
       </c>
       <c r="AE10" t="n">
-        <v>3406645.684459866</v>
+        <v>3558235.53753991</v>
       </c>
       <c r="AF10" t="n">
-        <v>1.185448814528749e-06</v>
+        <v>1.721472038072558e-06</v>
       </c>
       <c r="AG10" t="n">
-        <v>27</v>
+        <v>26.05833333333333</v>
       </c>
       <c r="AH10" t="n">
-        <v>3081520.201592136</v>
+        <v>3218642.531851909</v>
       </c>
     </row>
     <row r="11">
@@ -58206,28 +58206,28 @@
         <v>10</v>
       </c>
       <c r="AA11" t="n">
-        <v>2433.470817967318</v>
+        <v>2552.705896028067</v>
       </c>
       <c r="AB11" t="n">
-        <v>3329.582130298675</v>
+        <v>3492.724824381794</v>
       </c>
       <c r="AC11" t="n">
-        <v>3011.811484880714</v>
+        <v>3159.384069212743</v>
       </c>
       <c r="AD11" t="n">
-        <v>2433470.817967318</v>
+        <v>2552705.896028067</v>
       </c>
       <c r="AE11" t="n">
-        <v>3329582.130298675</v>
+        <v>3492724.824381794</v>
       </c>
       <c r="AF11" t="n">
-        <v>1.195827978633441e-06</v>
+        <v>1.736544338593519e-06</v>
       </c>
       <c r="AG11" t="n">
-        <v>26</v>
+        <v>25.83125</v>
       </c>
       <c r="AH11" t="n">
-        <v>3011811.484880714</v>
+        <v>3159384.069212743</v>
       </c>
     </row>
     <row r="12">
@@ -58312,28 +58312,28 @@
         <v>10</v>
       </c>
       <c r="AA12" t="n">
-        <v>2393.08728224651</v>
+        <v>2503.964059175696</v>
       </c>
       <c r="AB12" t="n">
-        <v>3274.327595129607</v>
+        <v>3426.034092862299</v>
       </c>
       <c r="AC12" t="n">
-        <v>2961.830364997956</v>
+        <v>3099.058207508441</v>
       </c>
       <c r="AD12" t="n">
-        <v>2393087.28224651</v>
+        <v>2503964.059175696</v>
       </c>
       <c r="AE12" t="n">
-        <v>3274327.595129607</v>
+        <v>3426034.092862299</v>
       </c>
       <c r="AF12" t="n">
-        <v>1.204872678781815e-06</v>
+        <v>1.749678771904642e-06</v>
       </c>
       <c r="AG12" t="n">
-        <v>26</v>
+        <v>25.63958333333333</v>
       </c>
       <c r="AH12" t="n">
-        <v>2961830.364997956</v>
+        <v>3099058.207508441</v>
       </c>
     </row>
     <row r="13">
@@ -58418,28 +58418,28 @@
         <v>10</v>
       </c>
       <c r="AA13" t="n">
-        <v>2358.960277457893</v>
+        <v>2469.666462186488</v>
       </c>
       <c r="AB13" t="n">
-        <v>3227.633521600625</v>
+        <v>3379.10660755847</v>
       </c>
       <c r="AC13" t="n">
-        <v>2919.592708311039</v>
+        <v>3056.609415538872</v>
       </c>
       <c r="AD13" t="n">
-        <v>2358960.277457893</v>
+        <v>2469666.462186488</v>
       </c>
       <c r="AE13" t="n">
-        <v>3227633.521600625</v>
+        <v>3379106.60755847</v>
       </c>
       <c r="AF13" t="n">
-        <v>1.211989819882176e-06</v>
+        <v>1.760014063690443e-06</v>
       </c>
       <c r="AG13" t="n">
-        <v>26</v>
+        <v>25.4875</v>
       </c>
       <c r="AH13" t="n">
-        <v>2919592.708311039</v>
+        <v>3056609.415538872</v>
       </c>
     </row>
     <row r="14">
@@ -58524,28 +58524,28 @@
         <v>10</v>
       </c>
       <c r="AA14" t="n">
-        <v>2328.500601790055</v>
+        <v>2439.206786518648</v>
       </c>
       <c r="AB14" t="n">
-        <v>3185.957249565834</v>
+        <v>3337.43033552368</v>
       </c>
       <c r="AC14" t="n">
-        <v>2881.893961186235</v>
+        <v>3018.910668414069</v>
       </c>
       <c r="AD14" t="n">
-        <v>2328500.601790055</v>
+        <v>2439206.786518648</v>
       </c>
       <c r="AE14" t="n">
-        <v>3185957.249565835</v>
+        <v>3337430.33552368</v>
       </c>
       <c r="AF14" t="n">
-        <v>1.217179401934521e-06</v>
+        <v>1.767550213950923e-06</v>
       </c>
       <c r="AG14" t="n">
-        <v>26</v>
+        <v>25.37708333333333</v>
       </c>
       <c r="AH14" t="n">
-        <v>2881893.961186235</v>
+        <v>3018910.668414069</v>
       </c>
     </row>
     <row r="15">
@@ -58630,28 +58630,28 @@
         <v>10</v>
       </c>
       <c r="AA15" t="n">
-        <v>2296.46529164196</v>
+        <v>2407.171476370554</v>
       </c>
       <c r="AB15" t="n">
-        <v>3142.125124923071</v>
+        <v>3293.598210880916</v>
       </c>
       <c r="AC15" t="n">
-        <v>2842.245113000605</v>
+        <v>2979.261820228438</v>
       </c>
       <c r="AD15" t="n">
-        <v>2296465.29164196</v>
+        <v>2407171.476370554</v>
       </c>
       <c r="AE15" t="n">
-        <v>3142125.124923071</v>
+        <v>3293598.210880916</v>
       </c>
       <c r="AF15" t="n">
-        <v>1.22281380530564e-06</v>
+        <v>1.775732319948016e-06</v>
       </c>
       <c r="AG15" t="n">
-        <v>26</v>
+        <v>25.26041666666667</v>
       </c>
       <c r="AH15" t="n">
-        <v>2842245.113000605</v>
+        <v>2979261.820228438</v>
       </c>
     </row>
     <row r="16">
@@ -58736,28 +58736,28 @@
         <v>10</v>
       </c>
       <c r="AA16" t="n">
-        <v>2268.373709991654</v>
+        <v>2379.079894720248</v>
       </c>
       <c r="AB16" t="n">
-        <v>3103.688983596004</v>
+        <v>3255.16206955385</v>
       </c>
       <c r="AC16" t="n">
-        <v>2807.477263056332</v>
+        <v>2944.493970284165</v>
       </c>
       <c r="AD16" t="n">
-        <v>2268373.709991654</v>
+        <v>2379079.894720248</v>
       </c>
       <c r="AE16" t="n">
-        <v>3103688.983596004</v>
+        <v>3255162.069553849</v>
       </c>
       <c r="AF16" t="n">
-        <v>1.227410292266289e-06</v>
+        <v>1.782407195893013e-06</v>
       </c>
       <c r="AG16" t="n">
-        <v>26</v>
+        <v>25.16666666666667</v>
       </c>
       <c r="AH16" t="n">
-        <v>2807477.263056332</v>
+        <v>2944493.970284165</v>
       </c>
     </row>
     <row r="17">
@@ -58842,28 +58842,28 @@
         <v>10</v>
       </c>
       <c r="AA17" t="n">
-        <v>2240.72944749168</v>
+        <v>2351.435632220274</v>
       </c>
       <c r="AB17" t="n">
-        <v>3065.864884064749</v>
+        <v>3217.337970022594</v>
       </c>
       <c r="AC17" t="n">
-        <v>2773.263042497884</v>
+        <v>2910.279749725718</v>
       </c>
       <c r="AD17" t="n">
-        <v>2240729.44749168</v>
+        <v>2351435.632220274</v>
       </c>
       <c r="AE17" t="n">
-        <v>3065864.884064749</v>
+        <v>3217337.970022594</v>
       </c>
       <c r="AF17" t="n">
-        <v>1.231413684135242e-06</v>
+        <v>1.788220797522526e-06</v>
       </c>
       <c r="AG17" t="n">
-        <v>26</v>
+        <v>25.08541666666666</v>
       </c>
       <c r="AH17" t="n">
-        <v>2773263.042497884</v>
+        <v>2910279.749725718</v>
       </c>
     </row>
     <row r="18">
@@ -58948,28 +58948,28 @@
         <v>10</v>
       </c>
       <c r="AA18" t="n">
-        <v>2215.983688727491</v>
+        <v>2318.331572324522</v>
       </c>
       <c r="AB18" t="n">
-        <v>3032.006645217757</v>
+        <v>3172.043534825175</v>
       </c>
       <c r="AC18" t="n">
-        <v>2742.636186446113</v>
+        <v>2869.308151852403</v>
       </c>
       <c r="AD18" t="n">
-        <v>2215983.688727491</v>
+        <v>2318331.572324522</v>
       </c>
       <c r="AE18" t="n">
-        <v>3032006.645217757</v>
+        <v>3172043.534825175</v>
       </c>
       <c r="AF18" t="n">
-        <v>1.23452743336665e-06</v>
+        <v>1.792742487678814e-06</v>
       </c>
       <c r="AG18" t="n">
-        <v>26</v>
+        <v>25.02291666666666</v>
       </c>
       <c r="AH18" t="n">
-        <v>2742636.186446113</v>
+        <v>2869308.151852403</v>
       </c>
     </row>
     <row r="19">
@@ -59054,28 +59054,28 @@
         <v>10</v>
       </c>
       <c r="AA19" t="n">
-        <v>2181.28114538963</v>
+        <v>2292.072581464247</v>
       </c>
       <c r="AB19" t="n">
-        <v>2984.525094454559</v>
+        <v>3136.114825065228</v>
       </c>
       <c r="AC19" t="n">
-        <v>2699.686208247094</v>
+        <v>2836.808427725686</v>
       </c>
       <c r="AD19" t="n">
-        <v>2181281.14538963</v>
+        <v>2292072.581464247</v>
       </c>
       <c r="AE19" t="n">
-        <v>2984525.094454559</v>
+        <v>3136114.825065228</v>
       </c>
       <c r="AF19" t="n">
-        <v>1.238382551462678e-06</v>
+        <v>1.798340770729457e-06</v>
       </c>
       <c r="AG19" t="n">
-        <v>25</v>
+        <v>24.94375</v>
       </c>
       <c r="AH19" t="n">
-        <v>2699686.208247094</v>
+        <v>2836808.427725686</v>
       </c>
     </row>
     <row r="20">
@@ -59160,28 +59160,28 @@
         <v>10</v>
       </c>
       <c r="AA20" t="n">
-        <v>2158.479017053616</v>
+        <v>2269.270453128233</v>
       </c>
       <c r="AB20" t="n">
-        <v>2953.326216506319</v>
+        <v>3104.915947116986</v>
       </c>
       <c r="AC20" t="n">
-        <v>2671.464907422334</v>
+        <v>2808.587126900925</v>
       </c>
       <c r="AD20" t="n">
-        <v>2158479.017053616</v>
+        <v>2269270.453128233</v>
       </c>
       <c r="AE20" t="n">
-        <v>2953326.216506319</v>
+        <v>3104915.947116986</v>
       </c>
       <c r="AF20" t="n">
-        <v>1.240754931829465e-06</v>
+        <v>1.801785867991391e-06</v>
       </c>
       <c r="AG20" t="n">
-        <v>25</v>
+        <v>24.89583333333333</v>
       </c>
       <c r="AH20" t="n">
-        <v>2671464.907422334</v>
+        <v>2808587.126900925</v>
       </c>
     </row>
     <row r="21">
@@ -59266,28 +59266,28 @@
         <v>10</v>
       </c>
       <c r="AA21" t="n">
-        <v>2136.514398709342</v>
+        <v>2247.305834783959</v>
       </c>
       <c r="AB21" t="n">
-        <v>2923.273256677111</v>
+        <v>3074.862987287777</v>
       </c>
       <c r="AC21" t="n">
-        <v>2644.280159899632</v>
+        <v>2781.402379378222</v>
       </c>
       <c r="AD21" t="n">
-        <v>2136514.398709341</v>
+        <v>2247305.834783959</v>
       </c>
       <c r="AE21" t="n">
-        <v>2923273.256677111</v>
+        <v>3074862.987287777</v>
       </c>
       <c r="AF21" t="n">
-        <v>1.243127312196252e-06</v>
+        <v>1.805230965253325e-06</v>
       </c>
       <c r="AG21" t="n">
-        <v>25</v>
+        <v>24.84791666666667</v>
       </c>
       <c r="AH21" t="n">
-        <v>2644280.159899632</v>
+        <v>2781402.379378222</v>
       </c>
     </row>
     <row r="22">
@@ -59372,28 +59372,28 @@
         <v>10</v>
       </c>
       <c r="AA22" t="n">
-        <v>2118.926109420094</v>
+        <v>2229.717545494711</v>
       </c>
       <c r="AB22" t="n">
-        <v>2899.208183331003</v>
+        <v>3050.797913941667</v>
       </c>
       <c r="AC22" t="n">
-        <v>2622.511823378133</v>
+        <v>2759.634042856724</v>
       </c>
       <c r="AD22" t="n">
-        <v>2118926.109420094</v>
+        <v>2229717.545494711</v>
       </c>
       <c r="AE22" t="n">
-        <v>2899208.183331002</v>
+        <v>3050797.913941667</v>
       </c>
       <c r="AF22" t="n">
-        <v>1.244610049925493e-06</v>
+        <v>1.807384151042033e-06</v>
       </c>
       <c r="AG22" t="n">
-        <v>25</v>
+        <v>24.81875</v>
       </c>
       <c r="AH22" t="n">
-        <v>2622511.823378133</v>
+        <v>2759634.042856724</v>
       </c>
     </row>
     <row r="23">
@@ -59478,28 +59478,28 @@
         <v>10</v>
       </c>
       <c r="AA23" t="n">
-        <v>2108.821546192071</v>
+        <v>2219.612982266688</v>
       </c>
       <c r="AB23" t="n">
-        <v>2885.382674140554</v>
+        <v>3036.972404751217</v>
       </c>
       <c r="AC23" t="n">
-        <v>2610.005801380596</v>
+        <v>2747.128020859187</v>
       </c>
       <c r="AD23" t="n">
-        <v>2108821.546192071</v>
+        <v>2219612.982266688</v>
       </c>
       <c r="AE23" t="n">
-        <v>2885382.674140554</v>
+        <v>3036972.404751217</v>
       </c>
       <c r="AF23" t="n">
-        <v>1.246389335200583e-06</v>
+        <v>1.809967973988484e-06</v>
       </c>
       <c r="AG23" t="n">
-        <v>25</v>
+        <v>24.78333333333333</v>
       </c>
       <c r="AH23" t="n">
-        <v>2610005.801380597</v>
+        <v>2747128.020859187</v>
       </c>
     </row>
     <row r="24">
@@ -59584,28 +59584,28 @@
         <v>10</v>
       </c>
       <c r="AA24" t="n">
-        <v>2109.101170438424</v>
+        <v>2219.892606513041</v>
       </c>
       <c r="AB24" t="n">
-        <v>2885.765268370565</v>
+        <v>3037.354998981229</v>
       </c>
       <c r="AC24" t="n">
-        <v>2610.35188135427</v>
+        <v>2747.47410083286</v>
       </c>
       <c r="AD24" t="n">
-        <v>2109101.170438424</v>
+        <v>2219892.606513041</v>
       </c>
       <c r="AE24" t="n">
-        <v>2885765.268370565</v>
+        <v>3037354.998981229</v>
       </c>
       <c r="AF24" t="n">
-        <v>1.246241061427659e-06</v>
+        <v>1.809752655409613e-06</v>
       </c>
       <c r="AG24" t="n">
-        <v>25</v>
+        <v>24.78541666666667</v>
       </c>
       <c r="AH24" t="n">
-        <v>2610351.88135427</v>
+        <v>2747474.10083286</v>
       </c>
     </row>
     <row r="25">
@@ -59690,28 +59690,28 @@
         <v>10</v>
       </c>
       <c r="AA25" t="n">
-        <v>2112.085578069847</v>
+        <v>2222.877014144464</v>
       </c>
       <c r="AB25" t="n">
-        <v>2889.848666554651</v>
+        <v>3041.438397165314</v>
       </c>
       <c r="AC25" t="n">
-        <v>2614.045565746751</v>
+        <v>2751.167785225342</v>
       </c>
       <c r="AD25" t="n">
-        <v>2112085.578069847</v>
+        <v>2222877.014144464</v>
       </c>
       <c r="AE25" t="n">
-        <v>2889848.666554651</v>
+        <v>3041438.397165314</v>
       </c>
       <c r="AF25" t="n">
-        <v>1.247130704065204e-06</v>
+        <v>1.811044566882838e-06</v>
       </c>
       <c r="AG25" t="n">
-        <v>25</v>
+        <v>24.76875</v>
       </c>
       <c r="AH25" t="n">
-        <v>2614045.565746751</v>
+        <v>2751167.785225342</v>
       </c>
     </row>
     <row r="26">
@@ -59796,28 +59796,28 @@
         <v>10</v>
       </c>
       <c r="AA26" t="n">
-        <v>2121.102238941221</v>
+        <v>2231.893675015839</v>
       </c>
       <c r="AB26" t="n">
-        <v>2902.185659745869</v>
+        <v>3053.775390356533</v>
       </c>
       <c r="AC26" t="n">
-        <v>2625.205133622879</v>
+        <v>2762.327353101469</v>
       </c>
       <c r="AD26" t="n">
-        <v>2121102.238941221</v>
+        <v>2231893.675015839</v>
       </c>
       <c r="AE26" t="n">
-        <v>2902185.659745869</v>
+        <v>3053775.390356533</v>
       </c>
       <c r="AF26" t="n">
-        <v>1.247130704065204e-06</v>
+        <v>1.811044566882838e-06</v>
       </c>
       <c r="AG26" t="n">
-        <v>25</v>
+        <v>24.76875</v>
       </c>
       <c r="AH26" t="n">
-        <v>2625205.133622879</v>
+        <v>2762327.353101469</v>
       </c>
     </row>
   </sheetData>
@@ -60093,28 +60093,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>984.9359777353836</v>
+        <v>1084.470021973018</v>
       </c>
       <c r="AB2" t="n">
-        <v>1347.63285704618</v>
+        <v>1483.819727504233</v>
       </c>
       <c r="AC2" t="n">
-        <v>1219.016668584286</v>
+        <v>1342.206055265296</v>
       </c>
       <c r="AD2" t="n">
-        <v>984935.9777353837</v>
+        <v>1084470.021973019</v>
       </c>
       <c r="AE2" t="n">
-        <v>1347632.85704618</v>
+        <v>1483819.727504233</v>
       </c>
       <c r="AF2" t="n">
-        <v>1.404536382226609e-06</v>
+        <v>2.341278468239933e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>29</v>
+        <v>28.25833333333333</v>
       </c>
       <c r="AH2" t="n">
-        <v>1219016.668584286</v>
+        <v>1342206.055265296</v>
       </c>
     </row>
     <row r="3">
@@ -60199,28 +60199,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>1002.029718956605</v>
+        <v>1101.56376319424</v>
       </c>
       <c r="AB3" t="n">
-        <v>1371.021267907695</v>
+        <v>1507.208138365748</v>
       </c>
       <c r="AC3" t="n">
-        <v>1240.172922339019</v>
+        <v>1363.362309020029</v>
       </c>
       <c r="AD3" t="n">
-        <v>1002029.718956605</v>
+        <v>1101563.76319424</v>
       </c>
       <c r="AE3" t="n">
-        <v>1371021.267907695</v>
+        <v>1507208.138365748</v>
       </c>
       <c r="AF3" t="n">
-        <v>1.404345859114533e-06</v>
+        <v>2.340960877563287e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>29</v>
+        <v>28.2625</v>
       </c>
       <c r="AH3" t="n">
-        <v>1240172.922339019</v>
+        <v>1363362.309020028</v>
       </c>
     </row>
   </sheetData>
@@ -60496,28 +60496,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>3776.156834138396</v>
+        <v>3934.837061454121</v>
       </c>
       <c r="AB2" t="n">
-        <v>5166.704372750478</v>
+        <v>5383.817660241425</v>
       </c>
       <c r="AC2" t="n">
-        <v>4673.601358930106</v>
+        <v>4869.993658983325</v>
       </c>
       <c r="AD2" t="n">
-        <v>3776156.834138396</v>
+        <v>3934837.061454121</v>
       </c>
       <c r="AE2" t="n">
-        <v>5166704.372750478</v>
+        <v>5383817.660241425</v>
       </c>
       <c r="AF2" t="n">
-        <v>8.689179413398696e-07</v>
+        <v>1.322411968658059e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>40</v>
+        <v>39.15625</v>
       </c>
       <c r="AH2" t="n">
-        <v>4673601.358930106</v>
+        <v>4869993.658983325</v>
       </c>
     </row>
     <row r="3">
@@ -60602,28 +60602,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>2323.107064974021</v>
+        <v>2450.017038877932</v>
       </c>
       <c r="AB3" t="n">
-        <v>3178.577574548086</v>
+        <v>3352.221399716327</v>
       </c>
       <c r="AC3" t="n">
-        <v>2875.218591994741</v>
+        <v>3032.290094199557</v>
       </c>
       <c r="AD3" t="n">
-        <v>2323107.064974021</v>
+        <v>2450017.038877931</v>
       </c>
       <c r="AE3" t="n">
-        <v>3178577.574548086</v>
+        <v>3352221.399716327</v>
       </c>
       <c r="AF3" t="n">
-        <v>1.142934912880614e-06</v>
+        <v>1.739440212110084e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>30</v>
+        <v>29.76666666666667</v>
       </c>
       <c r="AH3" t="n">
-        <v>2875218.591994741</v>
+        <v>3032290.094199557</v>
       </c>
     </row>
     <row r="4">
@@ -60708,28 +60708,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>2003.267509789546</v>
+        <v>2114.292491250376</v>
       </c>
       <c r="AB4" t="n">
-        <v>2740.958984819188</v>
+        <v>2892.868262530389</v>
       </c>
       <c r="AC4" t="n">
-        <v>2479.365706268141</v>
+        <v>2616.776975720595</v>
       </c>
       <c r="AD4" t="n">
-        <v>2003267.509789546</v>
+        <v>2114292.491250376</v>
       </c>
       <c r="AE4" t="n">
-        <v>2740958.984819188</v>
+        <v>2892868.262530389</v>
       </c>
       <c r="AF4" t="n">
-        <v>1.23748546503919e-06</v>
+        <v>1.883337323527677e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>28</v>
+        <v>27.49166666666667</v>
       </c>
       <c r="AH4" t="n">
-        <v>2479365.706268141</v>
+        <v>2616776.975720595</v>
       </c>
     </row>
     <row r="5">
@@ -60814,28 +60814,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>1848.685175060039</v>
+        <v>1959.624815666298</v>
       </c>
       <c r="AB5" t="n">
-        <v>2529.452614750978</v>
+        <v>2681.245125339981</v>
       </c>
       <c r="AC5" t="n">
-        <v>2288.045207308186</v>
+        <v>2425.350853728701</v>
       </c>
       <c r="AD5" t="n">
-        <v>1848685.175060039</v>
+        <v>1959624.815666298</v>
       </c>
       <c r="AE5" t="n">
-        <v>2529452.614750978</v>
+        <v>2681245.125339981</v>
       </c>
       <c r="AF5" t="n">
-        <v>1.285658889714113e-06</v>
+        <v>1.95665277753146e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>27</v>
+        <v>26.4625</v>
       </c>
       <c r="AH5" t="n">
-        <v>2288045.207308186</v>
+        <v>2425350.853728701</v>
       </c>
     </row>
     <row r="6">
@@ -60920,28 +60920,28 @@
         <v>10</v>
       </c>
       <c r="AA6" t="n">
-        <v>1740.084836111282</v>
+        <v>1851.109728063561</v>
       </c>
       <c r="AB6" t="n">
-        <v>2380.860839892474</v>
+        <v>2532.769995134126</v>
       </c>
       <c r="AC6" t="n">
-        <v>2153.634822892311</v>
+        <v>2291.045981563539</v>
       </c>
       <c r="AD6" t="n">
-        <v>1740084.836111282</v>
+        <v>1851109.728063561</v>
       </c>
       <c r="AE6" t="n">
-        <v>2380860.839892474</v>
+        <v>2532769.995134126</v>
       </c>
       <c r="AF6" t="n">
-        <v>1.315706042731691e-06</v>
+        <v>2.002381738672802e-06</v>
       </c>
       <c r="AG6" t="n">
-        <v>26</v>
+        <v>25.85833333333333</v>
       </c>
       <c r="AH6" t="n">
-        <v>2153634.822892311</v>
+        <v>2291045.981563539</v>
       </c>
     </row>
     <row r="7">
@@ -61026,28 +61026,28 @@
         <v>10</v>
       </c>
       <c r="AA7" t="n">
-        <v>1662.438621740632</v>
+        <v>1765.521062225646</v>
       </c>
       <c r="AB7" t="n">
-        <v>2274.621863881333</v>
+        <v>2415.663806629244</v>
       </c>
       <c r="AC7" t="n">
-        <v>2057.535145644334</v>
+        <v>2185.116243329995</v>
       </c>
       <c r="AD7" t="n">
-        <v>1662438.621740632</v>
+        <v>1765521.062225646</v>
       </c>
       <c r="AE7" t="n">
-        <v>2274621.863881332</v>
+        <v>2415663.806629244</v>
       </c>
       <c r="AF7" t="n">
-        <v>1.335302012090982e-06</v>
+        <v>2.032204974199765e-06</v>
       </c>
       <c r="AG7" t="n">
-        <v>26</v>
+        <v>25.47708333333334</v>
       </c>
       <c r="AH7" t="n">
-        <v>2057535.145644334</v>
+        <v>2185116.243329995</v>
       </c>
     </row>
     <row r="8">
@@ -61132,28 +61132,28 @@
         <v>10</v>
       </c>
       <c r="AA8" t="n">
-        <v>1601.368698649846</v>
+        <v>1704.45113913486</v>
       </c>
       <c r="AB8" t="n">
-        <v>2191.06330089366</v>
+        <v>2332.105243641572</v>
       </c>
       <c r="AC8" t="n">
-        <v>1981.951294633026</v>
+        <v>2109.532392318687</v>
       </c>
       <c r="AD8" t="n">
-        <v>1601368.698649846</v>
+        <v>1704451.13913486</v>
       </c>
       <c r="AE8" t="n">
-        <v>2191063.30089366</v>
+        <v>2332105.243641572</v>
       </c>
       <c r="AF8" t="n">
-        <v>1.349509089876467e-06</v>
+        <v>2.053826819956812e-06</v>
       </c>
       <c r="AG8" t="n">
-        <v>26</v>
+        <v>25.20833333333333</v>
       </c>
       <c r="AH8" t="n">
-        <v>1981951.294633026</v>
+        <v>2109532.392318686</v>
       </c>
     </row>
     <row r="9">
@@ -61238,28 +61238,28 @@
         <v>10</v>
       </c>
       <c r="AA9" t="n">
-        <v>1583.351612519187</v>
+        <v>1686.434053004201</v>
       </c>
       <c r="AB9" t="n">
-        <v>2166.411528791951</v>
+        <v>2307.453471539863</v>
       </c>
       <c r="AC9" t="n">
-        <v>1959.652253061724</v>
+        <v>2087.233350747385</v>
       </c>
       <c r="AD9" t="n">
-        <v>1583351.612519187</v>
+        <v>1686434.053004201</v>
       </c>
       <c r="AE9" t="n">
-        <v>2166411.528791951</v>
+        <v>2307453.471539862</v>
       </c>
       <c r="AF9" t="n">
-        <v>1.354081482726968e-06</v>
+        <v>2.060785574913104e-06</v>
       </c>
       <c r="AG9" t="n">
-        <v>26</v>
+        <v>25.12291666666667</v>
       </c>
       <c r="AH9" t="n">
-        <v>1959652.253061724</v>
+        <v>2087233.350747385</v>
       </c>
     </row>
     <row r="10">
@@ -61344,28 +61344,28 @@
         <v>10</v>
       </c>
       <c r="AA10" t="n">
-        <v>1588.000946107242</v>
+        <v>1691.083386592256</v>
       </c>
       <c r="AB10" t="n">
-        <v>2172.77295212125</v>
+        <v>2313.814894869161</v>
       </c>
       <c r="AC10" t="n">
-        <v>1965.406551076788</v>
+        <v>2092.987648762449</v>
       </c>
       <c r="AD10" t="n">
-        <v>1588000.946107242</v>
+        <v>1691083.386592256</v>
       </c>
       <c r="AE10" t="n">
-        <v>2172772.95212125</v>
+        <v>2313814.894869161</v>
       </c>
       <c r="AF10" t="n">
-        <v>1.354734681705611e-06</v>
+        <v>2.061779682764003e-06</v>
       </c>
       <c r="AG10" t="n">
-        <v>26</v>
+        <v>25.11458333333333</v>
       </c>
       <c r="AH10" t="n">
-        <v>1965406.551076788</v>
+        <v>2092987.648762449</v>
       </c>
     </row>
   </sheetData>
@@ -61641,28 +61641,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>5450.967128126062</v>
+        <v>5638.619622445187</v>
       </c>
       <c r="AB2" t="n">
-        <v>7458.253704399992</v>
+        <v>7715.008125771206</v>
       </c>
       <c r="AC2" t="n">
-        <v>6746.448438576593</v>
+        <v>6978.698578329222</v>
       </c>
       <c r="AD2" t="n">
-        <v>5450967.128126062</v>
+        <v>5638619.622445187</v>
       </c>
       <c r="AE2" t="n">
-        <v>7458253.704399992</v>
+        <v>7715008.125771206</v>
       </c>
       <c r="AF2" t="n">
-        <v>7.238530885504078e-07</v>
+        <v>1.080648016797289e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>46</v>
+        <v>45.25416666666666</v>
       </c>
       <c r="AH2" t="n">
-        <v>6746448.438576593</v>
+        <v>6978698.578329222</v>
       </c>
     </row>
     <row r="3">
@@ -61747,28 +61747,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>2931.278909903704</v>
+        <v>3061.938448352204</v>
       </c>
       <c r="AB3" t="n">
-        <v>4010.705123429113</v>
+        <v>4189.479268226373</v>
       </c>
       <c r="AC3" t="n">
-        <v>3627.929055508881</v>
+        <v>3789.641246837772</v>
       </c>
       <c r="AD3" t="n">
-        <v>2931278.909903704</v>
+        <v>3061938.448352204</v>
       </c>
       <c r="AE3" t="n">
-        <v>4010705.123429113</v>
+        <v>4189479.268226373</v>
       </c>
       <c r="AF3" t="n">
-        <v>1.034682271014386e-06</v>
+        <v>1.544688227311676e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>32</v>
+        <v>31.65833333333333</v>
       </c>
       <c r="AH3" t="n">
-        <v>3627929.055508881</v>
+        <v>3789641.246837772</v>
       </c>
     </row>
     <row r="4">
@@ -61853,28 +61853,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>2463.189135075767</v>
+        <v>2585.597111516664</v>
       </c>
       <c r="AB4" t="n">
-        <v>3370.244042846079</v>
+        <v>3537.728036471311</v>
       </c>
       <c r="AC4" t="n">
-        <v>3048.592681563944</v>
+        <v>3200.09223790284</v>
       </c>
       <c r="AD4" t="n">
-        <v>2463189.135075768</v>
+        <v>2585597.111516664</v>
       </c>
       <c r="AE4" t="n">
-        <v>3370244.042846079</v>
+        <v>3537728.036471311</v>
       </c>
       <c r="AF4" t="n">
-        <v>1.142851455402457e-06</v>
+        <v>1.706175159448195e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>29</v>
+        <v>28.66041666666666</v>
       </c>
       <c r="AH4" t="n">
-        <v>3048592.681563944</v>
+        <v>3200092.23790284</v>
       </c>
     </row>
     <row r="5">
@@ -61959,28 +61959,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>2254.726974401138</v>
+        <v>2368.883478342982</v>
       </c>
       <c r="AB5" t="n">
-        <v>3085.016917909576</v>
+        <v>3241.21088283233</v>
       </c>
       <c r="AC5" t="n">
-        <v>2790.587233112607</v>
+        <v>2931.874265242736</v>
       </c>
       <c r="AD5" t="n">
-        <v>2254726.974401138</v>
+        <v>2368883.478342982</v>
       </c>
       <c r="AE5" t="n">
-        <v>3085016.917909576</v>
+        <v>3241210.88283233</v>
       </c>
       <c r="AF5" t="n">
-        <v>1.199451610024123e-06</v>
+        <v>1.790674135566142e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>28</v>
+        <v>27.30625</v>
       </c>
       <c r="AH5" t="n">
-        <v>2790587.233112608</v>
+        <v>2931874.265242736</v>
       </c>
     </row>
     <row r="6">
@@ -62065,28 +62065,28 @@
         <v>10</v>
       </c>
       <c r="AA6" t="n">
-        <v>2126.733293784363</v>
+        <v>2240.975049072231</v>
       </c>
       <c r="AB6" t="n">
-        <v>2909.890317406861</v>
+        <v>3066.200926982436</v>
       </c>
       <c r="AC6" t="n">
-        <v>2632.17446957026</v>
+        <v>2773.567013951146</v>
       </c>
       <c r="AD6" t="n">
-        <v>2126733.293784363</v>
+        <v>2240975.049072231</v>
       </c>
       <c r="AE6" t="n">
-        <v>2909890.317406861</v>
+        <v>3066200.926982436</v>
       </c>
       <c r="AF6" t="n">
-        <v>1.234040593404029e-06</v>
+        <v>1.842312398749331e-06</v>
       </c>
       <c r="AG6" t="n">
-        <v>27</v>
+        <v>26.54375</v>
       </c>
       <c r="AH6" t="n">
-        <v>2632174.46957026</v>
+        <v>2773567.013951146</v>
       </c>
     </row>
     <row r="7">
@@ -62171,28 +62171,28 @@
         <v>10</v>
       </c>
       <c r="AA7" t="n">
-        <v>2042.483857745852</v>
+        <v>2148.559481389237</v>
       </c>
       <c r="AB7" t="n">
-        <v>2794.616522196173</v>
+        <v>2939.753870191289</v>
       </c>
       <c r="AC7" t="n">
-        <v>2527.902243586692</v>
+        <v>2659.187886790702</v>
       </c>
       <c r="AD7" t="n">
-        <v>2042483.857745852</v>
+        <v>2148559.481389237</v>
       </c>
       <c r="AE7" t="n">
-        <v>2794616.522196173</v>
+        <v>2939753.870191289</v>
       </c>
       <c r="AF7" t="n">
-        <v>1.257466768511329e-06</v>
+        <v>1.877285586087036e-06</v>
       </c>
       <c r="AG7" t="n">
-        <v>27</v>
+        <v>26.04791666666667</v>
       </c>
       <c r="AH7" t="n">
-        <v>2527902.243586692</v>
+        <v>2659187.886790702</v>
       </c>
     </row>
     <row r="8">
@@ -62277,28 +62277,28 @@
         <v>10</v>
       </c>
       <c r="AA8" t="n">
-        <v>1968.205728127281</v>
+        <v>2074.366603116686</v>
       </c>
       <c r="AB8" t="n">
-        <v>2692.985908332238</v>
+        <v>2838.239900980003</v>
       </c>
       <c r="AC8" t="n">
-        <v>2435.971112870469</v>
+        <v>2567.36226832519</v>
       </c>
       <c r="AD8" t="n">
-        <v>1968205.72812728</v>
+        <v>2074366.603116686</v>
       </c>
       <c r="AE8" t="n">
-        <v>2692985.908332238</v>
+        <v>2838239.900980003</v>
       </c>
       <c r="AF8" t="n">
-        <v>1.274289592246102e-06</v>
+        <v>1.902400559544315e-06</v>
       </c>
       <c r="AG8" t="n">
-        <v>26</v>
+        <v>25.70416666666667</v>
       </c>
       <c r="AH8" t="n">
-        <v>2435971.112870469</v>
+        <v>2567362.26832519</v>
       </c>
     </row>
     <row r="9">
@@ -62383,28 +62383,28 @@
         <v>10</v>
       </c>
       <c r="AA9" t="n">
-        <v>1909.556524079945</v>
+        <v>2015.546806868758</v>
       </c>
       <c r="AB9" t="n">
-        <v>2612.739479934402</v>
+        <v>2757.76006080732</v>
       </c>
       <c r="AC9" t="n">
-        <v>2363.383290972353</v>
+        <v>2494.563311144423</v>
       </c>
       <c r="AD9" t="n">
-        <v>1909556.524079945</v>
+        <v>2015546.806868758</v>
       </c>
       <c r="AE9" t="n">
-        <v>2612739.479934402</v>
+        <v>2757760.06080732</v>
       </c>
       <c r="AF9" t="n">
-        <v>1.287339072339431e-06</v>
+        <v>1.921882267927063e-06</v>
       </c>
       <c r="AG9" t="n">
-        <v>26</v>
+        <v>25.44375</v>
       </c>
       <c r="AH9" t="n">
-        <v>2363383.290972353</v>
+        <v>2494563.311144423</v>
       </c>
     </row>
     <row r="10">
@@ -62489,28 +62489,28 @@
         <v>10</v>
       </c>
       <c r="AA10" t="n">
-        <v>1862.89981488116</v>
+        <v>1968.890097669974</v>
       </c>
       <c r="AB10" t="n">
-        <v>2548.901712059885</v>
+        <v>2693.922292932803</v>
       </c>
       <c r="AC10" t="n">
-        <v>2305.63811006691</v>
+        <v>2436.818130238981</v>
       </c>
       <c r="AD10" t="n">
-        <v>1862899.81488116</v>
+        <v>1968890.097669974</v>
       </c>
       <c r="AE10" t="n">
-        <v>2548901.712059885</v>
+        <v>2693922.292932803</v>
       </c>
       <c r="AF10" t="n">
-        <v>1.296929654094768e-06</v>
+        <v>1.936200149991493e-06</v>
       </c>
       <c r="AG10" t="n">
-        <v>26</v>
+        <v>25.25625</v>
       </c>
       <c r="AH10" t="n">
-        <v>2305638.11006691</v>
+        <v>2436818.130238981</v>
       </c>
     </row>
     <row r="11">
@@ -62595,28 +62595,28 @@
         <v>10</v>
       </c>
       <c r="AA11" t="n">
-        <v>1812.281550990372</v>
+        <v>1918.271833779185</v>
       </c>
       <c r="AB11" t="n">
-        <v>2479.643570284313</v>
+        <v>2624.66415115723</v>
       </c>
       <c r="AC11" t="n">
-        <v>2242.989868137985</v>
+        <v>2374.169888310056</v>
       </c>
       <c r="AD11" t="n">
-        <v>1812281.550990372</v>
+        <v>1918271.833779186</v>
       </c>
       <c r="AE11" t="n">
-        <v>2479643.570284313</v>
+        <v>2624664.15115723</v>
       </c>
       <c r="AF11" t="n">
-        <v>1.305734122591472e-06</v>
+        <v>1.949344435165396e-06</v>
       </c>
       <c r="AG11" t="n">
-        <v>26</v>
+        <v>25.08541666666666</v>
       </c>
       <c r="AH11" t="n">
-        <v>2242989.868137985</v>
+        <v>2374169.888310056</v>
       </c>
     </row>
     <row r="12">
@@ -62701,28 +62701,28 @@
         <v>10</v>
       </c>
       <c r="AA12" t="n">
-        <v>1768.489740652673</v>
+        <v>1874.565274787506</v>
       </c>
       <c r="AB12" t="n">
-        <v>2419.72568342195</v>
+        <v>2564.862908947518</v>
       </c>
       <c r="AC12" t="n">
-        <v>2188.790460302485</v>
+        <v>2320.075992725268</v>
       </c>
       <c r="AD12" t="n">
-        <v>1768489.740652673</v>
+        <v>1874565.274787506</v>
       </c>
       <c r="AE12" t="n">
-        <v>2419725.68342195</v>
+        <v>2564862.908947518</v>
       </c>
       <c r="AF12" t="n">
-        <v>1.311236915401911e-06</v>
+        <v>1.957559613399085e-06</v>
       </c>
       <c r="AG12" t="n">
-        <v>25</v>
+        <v>24.97916666666667</v>
       </c>
       <c r="AH12" t="n">
-        <v>2188790.460302485</v>
+        <v>2320075.992725268</v>
       </c>
     </row>
     <row r="13">
@@ -62807,28 +62807,28 @@
         <v>10</v>
       </c>
       <c r="AA13" t="n">
-        <v>1756.617835792259</v>
+        <v>1862.693369927092</v>
       </c>
       <c r="AB13" t="n">
-        <v>2403.482019440454</v>
+        <v>2548.619244966022</v>
       </c>
       <c r="AC13" t="n">
-        <v>2174.097068813257</v>
+        <v>2305.38260123604</v>
       </c>
       <c r="AD13" t="n">
-        <v>1756617.835792259</v>
+        <v>1862693.369927092</v>
       </c>
       <c r="AE13" t="n">
-        <v>2403482.019440454</v>
+        <v>2548619.244966022</v>
       </c>
       <c r="AF13" t="n">
-        <v>1.313438032526087e-06</v>
+        <v>1.960845684692561e-06</v>
       </c>
       <c r="AG13" t="n">
-        <v>25</v>
+        <v>24.9375</v>
       </c>
       <c r="AH13" t="n">
-        <v>2174097.068813257</v>
+        <v>2305382.60123604</v>
       </c>
     </row>
     <row r="14">
@@ -62913,28 +62913,28 @@
         <v>10</v>
       </c>
       <c r="AA14" t="n">
-        <v>1761.493392831468</v>
+        <v>1867.568926966302</v>
       </c>
       <c r="AB14" t="n">
-        <v>2410.152971675896</v>
+        <v>2555.290197201464</v>
       </c>
       <c r="AC14" t="n">
-        <v>2180.13135473009</v>
+        <v>2311.416887152873</v>
       </c>
       <c r="AD14" t="n">
-        <v>1761493.392831468</v>
+        <v>1867568.926966302</v>
       </c>
       <c r="AE14" t="n">
-        <v>2410152.971675897</v>
+        <v>2555290.197201464</v>
       </c>
       <c r="AF14" t="n">
-        <v>1.313280809874361e-06</v>
+        <v>1.960610965314455e-06</v>
       </c>
       <c r="AG14" t="n">
-        <v>25</v>
+        <v>24.94166666666667</v>
       </c>
       <c r="AH14" t="n">
-        <v>2180131.35473009</v>
+        <v>2311416.887152873</v>
       </c>
     </row>
     <row r="15">
@@ -63019,28 +63019,28 @@
         <v>10</v>
       </c>
       <c r="AA15" t="n">
-        <v>1767.697334288192</v>
+        <v>1873.772868423026</v>
       </c>
       <c r="AB15" t="n">
-        <v>2418.641478075566</v>
+        <v>2563.778703601133</v>
       </c>
       <c r="AC15" t="n">
-        <v>2187.809729992668</v>
+        <v>2319.095262415451</v>
       </c>
       <c r="AD15" t="n">
-        <v>1767697.334288192</v>
+        <v>1873772.868423026</v>
       </c>
       <c r="AE15" t="n">
-        <v>2418641.478075566</v>
+        <v>2563778.703601133</v>
       </c>
       <c r="AF15" t="n">
-        <v>1.314224145784722e-06</v>
+        <v>1.962019281583088e-06</v>
       </c>
       <c r="AG15" t="n">
-        <v>25</v>
+        <v>24.925</v>
       </c>
       <c r="AH15" t="n">
-        <v>2187809.729992668</v>
+        <v>2319095.262415451</v>
       </c>
     </row>
   </sheetData>
